--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbailey\certis_agroute_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F84A02-3E54-461A-9C66-1F16D72F63EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696035C2-AF05-41A7-A78B-A8558F3CA640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="291" yWindow="1740" windowWidth="19200" windowHeight="8391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -8305,7 +8305,7 @@
   <dimension ref="A1:I991"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8440,7 +8440,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -37219,6 +37219,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cecf09e-87d6-4345-a370-97524ef8da64">
@@ -37226,15 +37235,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37256,6 +37256,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CF58AA-00EF-4BDF-A97C-BB1A0168CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF1610B-6E8D-417B-A267-064FFADDBB14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37263,12 +37271,4 @@
     <ds:schemaRef ds:uri="7cecf09e-87d6-4345-a370-97524ef8da64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CF58AA-00EF-4BDF-A97C-BB1A0168CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbailey\certis_agroute_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC8CD1-37C3-4164-B7FB-4B31D81162A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB057A-981E-4415-B060-6CE54C677F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7988" uniqueCount="2638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8324" uniqueCount="2743">
   <si>
     <t>Retailer</t>
   </si>
@@ -7934,6 +7934,321 @@
   </si>
   <si>
     <t>Suppliers</t>
+  </si>
+  <si>
+    <t>Frenchman Valley Coop</t>
+  </si>
+  <si>
+    <t>Benkelman – Convenience Store, Service Station, Energy</t>
+  </si>
+  <si>
+    <t>33797 Hwy 34</t>
+  </si>
+  <si>
+    <t>Benkelman</t>
+  </si>
+  <si>
+    <t>Benkelman – Grain Elevator</t>
+  </si>
+  <si>
+    <t>303 W Railroad</t>
+  </si>
+  <si>
+    <t>Burns – Grain Elevator</t>
+  </si>
+  <si>
+    <t>420 Coop Rd</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>Chappell – Agronomy</t>
+  </si>
+  <si>
+    <t>16515 County Road 14</t>
+  </si>
+  <si>
+    <t>Chappell</t>
+  </si>
+  <si>
+    <t>Chappell – Energy</t>
+  </si>
+  <si>
+    <t>582 2nd St</t>
+  </si>
+  <si>
+    <t>Chappell – Grain Elevator, Feed</t>
+  </si>
+  <si>
+    <t>Culbertson – East Grain Elevator</t>
+  </si>
+  <si>
+    <t>168 Clarkston</t>
+  </si>
+  <si>
+    <t>Culbertson</t>
+  </si>
+  <si>
+    <t>Culbertson – Shuttle Loader</t>
+  </si>
+  <si>
+    <t>37252 US Hwy 34</t>
+  </si>
+  <si>
+    <t>Dalton – Energy/Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>602 Broad St</t>
+  </si>
+  <si>
+    <t>Dalton</t>
+  </si>
+  <si>
+    <t>Dix – Grain Elevator</t>
+  </si>
+  <si>
+    <t>110 Spruce St</t>
+  </si>
+  <si>
+    <t>Dix</t>
+  </si>
+  <si>
+    <t>Enders – Grain Elevator</t>
+  </si>
+  <si>
+    <t>Pioneer and 1st Street</t>
+  </si>
+  <si>
+    <t>Enders</t>
+  </si>
+  <si>
+    <t>Grant – Agronomy</t>
+  </si>
+  <si>
+    <t>32945 Nebraska 23</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Grant – East Elevator</t>
+  </si>
+  <si>
+    <t>75985 Rd 329</t>
+  </si>
+  <si>
+    <t>Grant – Fertilizer</t>
+  </si>
+  <si>
+    <t>32870 Rd 759 ¾</t>
+  </si>
+  <si>
+    <t>Imperial – Aerial</t>
+  </si>
+  <si>
+    <t>100 Hwy 61</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>Imperial – Agronomy / 24‑HR Diesel Pumps</t>
+  </si>
+  <si>
+    <t>101 Douglas Street</t>
+  </si>
+  <si>
+    <t>Imperial – Corporate HQ / Main Office</t>
+  </si>
+  <si>
+    <t>202 Broadway Street (PO Box 578)</t>
+  </si>
+  <si>
+    <t>Imperial – Feed</t>
+  </si>
+  <si>
+    <t>143 Broadway</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>Imperial – Grain Elevators</t>
+  </si>
+  <si>
+    <t>Imperial – Service Station</t>
+  </si>
+  <si>
+    <t>103 W 3rd St</t>
+  </si>
+  <si>
+    <t>Imperial – T‑Junction</t>
+  </si>
+  <si>
+    <t>Hwy 6 &amp; 61</t>
+  </si>
+  <si>
+    <t>Kimball – Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>1105 S Chestnut St</t>
+  </si>
+  <si>
+    <t>Kimball – Feed</t>
+  </si>
+  <si>
+    <t>Kimball – Grain Elevator</t>
+  </si>
+  <si>
+    <t>3980 W Main</t>
+  </si>
+  <si>
+    <t>Lodgepole – Grain Elevator</t>
+  </si>
+  <si>
+    <t>607 Sheldon</t>
+  </si>
+  <si>
+    <t>Lodgepole</t>
+  </si>
+  <si>
+    <t>Lodgepole – Convenience Store / Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>607 Sheldon St</t>
+  </si>
+  <si>
+    <t>McCook – Agronomy</t>
+  </si>
+  <si>
+    <t>203 Karrer St</t>
+  </si>
+  <si>
+    <t>McCook</t>
+  </si>
+  <si>
+    <t>McCook – Convenience Store / Energy</t>
+  </si>
+  <si>
+    <t>206 East B St</t>
+  </si>
+  <si>
+    <t>McCook – Feed</t>
+  </si>
+  <si>
+    <t>301 W A St</t>
+  </si>
+  <si>
+    <t>McCook – Grain Elevator</t>
+  </si>
+  <si>
+    <t>102 E 3rd St</t>
+  </si>
+  <si>
+    <t>McCook – Xpress 24‑Hr Fueling</t>
+  </si>
+  <si>
+    <t>South Hwy 83</t>
+  </si>
+  <si>
+    <t>Oshkosh – Grain Elevator</t>
+  </si>
+  <si>
+    <t>205 U.S. 26</t>
+  </si>
+  <si>
+    <t>Oshkosh</t>
+  </si>
+  <si>
+    <t>Palisade – Grain Elevator</t>
+  </si>
+  <si>
+    <t>102 N Dean St</t>
+  </si>
+  <si>
+    <t>Palisade</t>
+  </si>
+  <si>
+    <t>Pine Bluffs – Agronomy</t>
+  </si>
+  <si>
+    <t>100 North Main</t>
+  </si>
+  <si>
+    <t>Pine Bluffs</t>
+  </si>
+  <si>
+    <t>Pine Bluffs – Energy/Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>102 Walnut Street</t>
+  </si>
+  <si>
+    <t>Pine Bluffs – Grain Elevator</t>
+  </si>
+  <si>
+    <t>605 W US Hwy 30</t>
+  </si>
+  <si>
+    <t>Potter – Energy / Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>3040 Link 17B</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>Sidney – Agronomy</t>
+  </si>
+  <si>
+    <t>303 Illinois St</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Sidney – Energy / Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>1402 Illinois St</t>
+  </si>
+  <si>
+    <t>Venango – Grain Elevator</t>
+  </si>
+  <si>
+    <t>104 East Hwy 23</t>
+  </si>
+  <si>
+    <t>Venango</t>
+  </si>
+  <si>
+    <t>Wauneta – Grain Elevator</t>
+  </si>
+  <si>
+    <t>102 N Tecumseh St</t>
+  </si>
+  <si>
+    <t>Wauneta</t>
+  </si>
+  <si>
+    <t>Wheatland – Energy / Cardtrol Pumps</t>
+  </si>
+  <si>
+    <t>305 16th St</t>
+  </si>
+  <si>
+    <t>Wheatland</t>
+  </si>
+  <si>
+    <t>Frenchman Valley Coop - NE WY</t>
+  </si>
+  <si>
+    <t>Wilbur-Ellis, Helena, Nutrien</t>
   </si>
 </sst>
 </file>
@@ -8299,13 +8614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I991"/>
+  <dimension ref="A1:I1033"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1030" workbookViewId="0">
+      <selection activeCell="J1030" sqref="J1030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="35.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -37036,6 +37354,1224 @@
       </c>
       <c r="I991" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="992" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A992" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C992" s="2" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E992" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F992" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G992" s="2">
+        <v>69021</v>
+      </c>
+      <c r="H992" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I992" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A993" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C993" s="2" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E993" s="2" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F993" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G993" s="2">
+        <v>69021</v>
+      </c>
+      <c r="H993" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I993" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="994" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A994" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C994" s="2" t="s">
+        <v>2644</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>2645</v>
+      </c>
+      <c r="E994" s="2" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F994" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G994" s="2">
+        <v>82053</v>
+      </c>
+      <c r="H994" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I994" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="995" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A995" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C995" s="2" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E995" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F995" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G995" s="2">
+        <v>69129</v>
+      </c>
+      <c r="H995" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I995" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="996" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A996" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C996" s="2" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>2652</v>
+      </c>
+      <c r="E996" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F996" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G996" s="2">
+        <v>69129</v>
+      </c>
+      <c r="H996" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I996" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="997" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A997" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C997" s="2" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>2649</v>
+      </c>
+      <c r="E997" s="2" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G997" s="2">
+        <v>69129</v>
+      </c>
+      <c r="H997" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I997" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="998" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A998" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C998" s="2" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>2655</v>
+      </c>
+      <c r="E998" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F998" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G998" s="2">
+        <v>69024</v>
+      </c>
+      <c r="H998" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I998" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A999" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C999" s="2" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E999" s="2" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F999" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G999" s="2">
+        <v>69024</v>
+      </c>
+      <c r="H999" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I999" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1000" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1000" s="2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E1000" s="2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F1000" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1000" s="2">
+        <v>69131</v>
+      </c>
+      <c r="H1000" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1000" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1001" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1001" s="2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E1001" s="2" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F1001" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1001" s="2">
+        <v>69133</v>
+      </c>
+      <c r="H1001" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1001" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1002" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1002" s="2" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E1002" s="2" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F1002" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1002" s="2">
+        <v>69027</v>
+      </c>
+      <c r="H1002" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1002" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1003" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1003" s="2" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E1003" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F1003" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1003" s="2">
+        <v>69140</v>
+      </c>
+      <c r="H1003" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1003" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1004" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1004" s="2" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E1004" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F1004" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1004" s="2">
+        <v>69140</v>
+      </c>
+      <c r="H1004" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1004" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1005" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1005" s="2" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>2674</v>
+      </c>
+      <c r="E1005" s="2" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F1005" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1005" s="2">
+        <v>69140</v>
+      </c>
+      <c r="H1005" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1005" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1006" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1006" s="2" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>2676</v>
+      </c>
+      <c r="E1006" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1006" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1006" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1006" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1006" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1007" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1007" s="2" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>2679</v>
+      </c>
+      <c r="E1007" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1007" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1007" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1007" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1007" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1008" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1008" s="2" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E1008" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1008" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1008" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1008" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1008" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1009" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1009" s="2" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1009" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1009" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1009" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1009" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I1009" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1010" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1010" s="2" t="s">
+        <v>2685</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1010" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1010" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1010" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1010" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1010" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1011" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1011" s="2" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E1011" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1011" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1011" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1011" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1012" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1012" s="2" t="s">
+        <v>2688</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>2689</v>
+      </c>
+      <c r="E1012" s="2" t="s">
+        <v>2677</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1012" s="2">
+        <v>69033</v>
+      </c>
+      <c r="H1012" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1012" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1013" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1013" s="2" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E1013" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1013" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1013" s="2">
+        <v>69145</v>
+      </c>
+      <c r="H1013" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1013" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1014" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1014" s="2" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>2691</v>
+      </c>
+      <c r="E1014" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1014" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1014" s="2">
+        <v>69145</v>
+      </c>
+      <c r="H1014" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1014" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1015" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1015" s="2" t="s">
+        <v>2693</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>2694</v>
+      </c>
+      <c r="E1015" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F1015" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1015" s="2">
+        <v>69145</v>
+      </c>
+      <c r="H1015" s="2" t="s">
+        <v>2684</v>
+      </c>
+      <c r="I1015" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1016" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1016" s="2" t="s">
+        <v>2695</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>2696</v>
+      </c>
+      <c r="E1016" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F1016" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1016" s="2">
+        <v>69149</v>
+      </c>
+      <c r="H1016" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1016" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1017" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1017" s="2" t="s">
+        <v>2698</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>2699</v>
+      </c>
+      <c r="E1017" s="2" t="s">
+        <v>2697</v>
+      </c>
+      <c r="F1017" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1017" s="2">
+        <v>69149</v>
+      </c>
+      <c r="H1017" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1017" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1018" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1018" s="2" t="s">
+        <v>2700</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>2701</v>
+      </c>
+      <c r="E1018" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1018" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1018" s="2">
+        <v>69001</v>
+      </c>
+      <c r="H1018" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1018" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1019" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1019" s="2" t="s">
+        <v>2703</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>2704</v>
+      </c>
+      <c r="E1019" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1019" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1019" s="2">
+        <v>69001</v>
+      </c>
+      <c r="H1019" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1019" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1020" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1020" s="2" t="s">
+        <v>2705</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>2706</v>
+      </c>
+      <c r="E1020" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1020" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1020" s="2">
+        <v>69001</v>
+      </c>
+      <c r="H1020" s="2" t="s">
+        <v>1646</v>
+      </c>
+      <c r="I1020" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1021" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1021" s="2" t="s">
+        <v>2707</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>2708</v>
+      </c>
+      <c r="E1021" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1021" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1021" s="2">
+        <v>69001</v>
+      </c>
+      <c r="H1021" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1021" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1022" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1022" s="2" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E1022" s="2" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1022" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1022" s="2">
+        <v>69001</v>
+      </c>
+      <c r="H1022" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1022" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1023" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1023" s="2" t="s">
+        <v>2711</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E1023" s="2" t="s">
+        <v>2713</v>
+      </c>
+      <c r="F1023" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1023" s="2">
+        <v>69154</v>
+      </c>
+      <c r="H1023" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1023" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1024" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1024" s="2" t="s">
+        <v>2714</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E1024" s="2" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F1024" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1024" s="2">
+        <v>69040</v>
+      </c>
+      <c r="H1024" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1024" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1025" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1025" s="2" t="s">
+        <v>2717</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>2718</v>
+      </c>
+      <c r="E1025" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F1025" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1025" s="2">
+        <v>82082</v>
+      </c>
+      <c r="H1025" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1025" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1026" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1026" s="2" t="s">
+        <v>2720</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>2721</v>
+      </c>
+      <c r="E1026" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F1026" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1026" s="2">
+        <v>82082</v>
+      </c>
+      <c r="H1026" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1026" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1027" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1027" s="2" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>2723</v>
+      </c>
+      <c r="E1027" s="2" t="s">
+        <v>2719</v>
+      </c>
+      <c r="F1027" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1027" s="2">
+        <v>82082</v>
+      </c>
+      <c r="H1027" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1027" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1028" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1028" s="2" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1028" s="2" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F1028" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1028" s="2">
+        <v>69156</v>
+      </c>
+      <c r="H1028" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1028" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1029" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1029" s="2" t="s">
+        <v>2727</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>2728</v>
+      </c>
+      <c r="E1029" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F1029" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1029" s="2">
+        <v>69162</v>
+      </c>
+      <c r="H1029" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1029" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1030" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1030" s="2" t="s">
+        <v>2730</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>2731</v>
+      </c>
+      <c r="E1030" s="2" t="s">
+        <v>2729</v>
+      </c>
+      <c r="F1030" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1030" s="2">
+        <v>69162</v>
+      </c>
+      <c r="H1030" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1030" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1031" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1031" s="2" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E1031" s="2" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F1031" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1031" s="2">
+        <v>69168</v>
+      </c>
+      <c r="H1031" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1031" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1032" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1032" s="2" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E1032" s="2" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F1032" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1032" s="2">
+        <v>69045</v>
+      </c>
+      <c r="H1032" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1032" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1033" s="2" t="s">
+        <v>2741</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1033" s="2" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>2739</v>
+      </c>
+      <c r="E1033" s="2" t="s">
+        <v>2740</v>
+      </c>
+      <c r="F1033" s="2" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G1033" s="2">
+        <v>82201</v>
+      </c>
+      <c r="H1033" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1033" s="2" t="s">
+        <v>2742</v>
       </c>
     </row>
   </sheetData>
@@ -37216,6 +38752,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="7cecf09e-87d6-4345-a370-97524ef8da64">
@@ -37223,15 +38768,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37253,6 +38789,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CF58AA-00EF-4BDF-A97C-BB1A0168CFB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BF1610B-6E8D-417B-A267-064FFADDBB14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -37260,12 +38804,4 @@
     <ds:schemaRef ds:uri="7cecf09e-87d6-4345-a370-97524ef8da64"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10CF58AA-00EF-4BDF-A97C-BB1A0168CFB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1565"/>
+  <dimension ref="A1:J1564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>100 N Center St</t>
+          <t>100 North Center St</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -60538,17 +60538,17 @@
       </c>
       <c r="C1253" t="inlineStr">
         <is>
-          <t>Eastern Illinois</t>
+          <t>Browns</t>
         </is>
       </c>
       <c r="D1253" t="inlineStr">
         <is>
-          <t>1607 Tullamore Ave Suite A</t>
+          <t>623 Railroad Street</t>
         </is>
       </c>
       <c r="E1253" t="inlineStr">
         <is>
-          <t>Bloomington</t>
+          <t>Browns</t>
         </is>
       </c>
       <c r="F1253" t="inlineStr">
@@ -60558,12 +60558,12 @@
       </c>
       <c r="G1253" t="inlineStr">
         <is>
-          <t>61704</t>
+          <t>62818</t>
         </is>
       </c>
       <c r="H1253" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1253" t="inlineStr">
@@ -60586,17 +60586,17 @@
       </c>
       <c r="C1254" t="inlineStr">
         <is>
-          <t>Browns</t>
+          <t>Burnt Prairie IL</t>
         </is>
       </c>
       <c r="D1254" t="inlineStr">
         <is>
-          <t>623 Railroad Street</t>
+          <t>740 County Road 2550 N</t>
         </is>
       </c>
       <c r="E1254" t="inlineStr">
         <is>
-          <t>Browns</t>
+          <t>Burnt Prairie</t>
         </is>
       </c>
       <c r="F1254" t="inlineStr">
@@ -60606,7 +60606,7 @@
       </c>
       <c r="G1254" t="inlineStr">
         <is>
-          <t>62818</t>
+          <t>62820</t>
         </is>
       </c>
       <c r="H1254" t="inlineStr">
@@ -60634,17 +60634,17 @@
       </c>
       <c r="C1255" t="inlineStr">
         <is>
-          <t>Burnt Prairie IL</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="D1255" t="inlineStr">
         <is>
-          <t>740 County Road 2550 N</t>
+          <t>8220 Ulah Road</t>
         </is>
       </c>
       <c r="E1255" t="inlineStr">
         <is>
-          <t>Burnt Prairie</t>
+          <t>Cambridge</t>
         </is>
       </c>
       <c r="F1255" t="inlineStr">
@@ -60654,7 +60654,7 @@
       </c>
       <c r="G1255" t="inlineStr">
         <is>
-          <t>62820</t>
+          <t>61238</t>
         </is>
       </c>
       <c r="H1255" t="inlineStr">
@@ -60682,17 +60682,17 @@
       </c>
       <c r="C1256" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Camp Grove IL</t>
         </is>
       </c>
       <c r="D1256" t="inlineStr">
         <is>
-          <t>8220 Ulah Road</t>
+          <t>Illnois Route 40 RR1</t>
         </is>
       </c>
       <c r="E1256" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>Camp Grove</t>
         </is>
       </c>
       <c r="F1256" t="inlineStr">
@@ -60702,7 +60702,7 @@
       </c>
       <c r="G1256" t="inlineStr">
         <is>
-          <t>61238</t>
+          <t>61424</t>
         </is>
       </c>
       <c r="H1256" t="inlineStr">
@@ -60730,17 +60730,17 @@
       </c>
       <c r="C1257" t="inlineStr">
         <is>
-          <t>Camp Grove IL</t>
+          <t>Carmi</t>
         </is>
       </c>
       <c r="D1257" t="inlineStr">
         <is>
-          <t>Illnois Route 40 RR1</t>
+          <t>1238 County Road 1450 North</t>
         </is>
       </c>
       <c r="E1257" t="inlineStr">
         <is>
-          <t>Camp Grove</t>
+          <t>Carmi</t>
         </is>
       </c>
       <c r="F1257" t="inlineStr">
@@ -60750,7 +60750,7 @@
       </c>
       <c r="G1257" t="inlineStr">
         <is>
-          <t>61424</t>
+          <t>62821</t>
         </is>
       </c>
       <c r="H1257" t="inlineStr">
@@ -60778,17 +60778,17 @@
       </c>
       <c r="C1258" t="inlineStr">
         <is>
-          <t>Stolletown</t>
+          <t>Cerro Gordo IL</t>
         </is>
       </c>
       <c r="D1258" t="inlineStr">
         <is>
-          <t>18929 Stolletown Road</t>
+          <t>94 E 150 North Rd</t>
         </is>
       </c>
       <c r="E1258" t="inlineStr">
         <is>
-          <t>Carlyle</t>
+          <t>Cerro Gordo</t>
         </is>
       </c>
       <c r="F1258" t="inlineStr">
@@ -60798,7 +60798,7 @@
       </c>
       <c r="G1258" t="inlineStr">
         <is>
-          <t>62231</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="H1258" t="inlineStr">
@@ -60826,17 +60826,17 @@
       </c>
       <c r="C1259" t="inlineStr">
         <is>
-          <t>Carmi</t>
+          <t>Cerro Gordo IL Admin</t>
         </is>
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>1238 County Road 1450 North</t>
+          <t>94 E 150 North Rd</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr">
         <is>
-          <t>Carmi</t>
+          <t>Cerro Gordo</t>
         </is>
       </c>
       <c r="F1259" t="inlineStr">
@@ -60846,7 +60846,7 @@
       </c>
       <c r="G1259" t="inlineStr">
         <is>
-          <t>62821</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="H1259" t="inlineStr">
@@ -60874,17 +60874,17 @@
       </c>
       <c r="C1260" t="inlineStr">
         <is>
-          <t>Ferris</t>
+          <t>Chadwick North IL</t>
         </is>
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>1750 North County Road 1600 East</t>
+          <t>725 N Main St</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>Carthage</t>
+          <t>Chadwick</t>
         </is>
       </c>
       <c r="F1260" t="inlineStr">
@@ -60894,7 +60894,7 @@
       </c>
       <c r="G1260" t="inlineStr">
         <is>
-          <t>62321</t>
+          <t>61014</t>
         </is>
       </c>
       <c r="H1260" t="inlineStr">
@@ -60922,17 +60922,17 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>Cerro Gordo IL</t>
+          <t>Chadwick South IL</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>94 E 150 North Rd</t>
+          <t>10650 Mill Rd</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr">
         <is>
-          <t>Cerro Gordo</t>
+          <t>Mt Carroll</t>
         </is>
       </c>
       <c r="F1261" t="inlineStr">
@@ -60942,7 +60942,7 @@
       </c>
       <c r="G1261" t="inlineStr">
         <is>
-          <t>61818</t>
+          <t>61053</t>
         </is>
       </c>
       <c r="H1261" t="inlineStr">
@@ -60970,17 +60970,17 @@
       </c>
       <c r="C1262" t="inlineStr">
         <is>
-          <t>Cerro Gordo IL Admin</t>
+          <t>Chemical Marketing</t>
         </is>
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>94 E 150 North Rd</t>
+          <t>2084 Windish Drive</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr">
         <is>
-          <t>Cerro Gordo</t>
+          <t>Galesburg</t>
         </is>
       </c>
       <c r="F1262" t="inlineStr">
@@ -60990,7 +60990,7 @@
       </c>
       <c r="G1262" t="inlineStr">
         <is>
-          <t>61818</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="H1262" t="inlineStr">
@@ -61018,17 +61018,17 @@
       </c>
       <c r="C1263" t="inlineStr">
         <is>
-          <t>Precision Operations</t>
+          <t>Crossroads IL</t>
         </is>
       </c>
       <c r="D1263" t="inlineStr">
         <is>
-          <t>94 E 150 North Rd</t>
+          <t>56 Industrial Parkway</t>
         </is>
       </c>
       <c r="E1263" t="inlineStr">
         <is>
-          <t>Cerro Gordo</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1263" t="inlineStr">
@@ -61038,7 +61038,7 @@
       </c>
       <c r="G1263" t="inlineStr">
         <is>
-          <t>61818</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1263" t="inlineStr">
@@ -61066,17 +61066,17 @@
       </c>
       <c r="C1264" t="inlineStr">
         <is>
-          <t>Chadwick North IL</t>
+          <t>Delafield</t>
         </is>
       </c>
       <c r="D1264" t="inlineStr">
         <is>
-          <t>725 N Main St</t>
+          <t>5611 County Road 1650N</t>
         </is>
       </c>
       <c r="E1264" t="inlineStr">
         <is>
-          <t>Chadwick</t>
+          <t>McLeansboro</t>
         </is>
       </c>
       <c r="F1264" t="inlineStr">
@@ -61086,12 +61086,12 @@
       </c>
       <c r="G1264" t="inlineStr">
         <is>
-          <t>61014</t>
+          <t>62859</t>
         </is>
       </c>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -61162,17 +61162,17 @@
       </c>
       <c r="C1266" t="inlineStr">
         <is>
-          <t>Dixon</t>
+          <t>Divernon IL</t>
         </is>
       </c>
       <c r="D1266" t="inlineStr">
         <is>
-          <t>1076 Corregidor</t>
+          <t>450 E. 400 North Rd</t>
         </is>
       </c>
       <c r="E1266" t="inlineStr">
         <is>
-          <t>Dixon</t>
+          <t>Morrisonville</t>
         </is>
       </c>
       <c r="F1266" t="inlineStr">
@@ -61182,7 +61182,7 @@
       </c>
       <c r="G1266" t="inlineStr">
         <is>
-          <t>61021</t>
+          <t>62546</t>
         </is>
       </c>
       <c r="H1266" t="inlineStr">
@@ -61210,12 +61210,12 @@
       </c>
       <c r="C1267" t="inlineStr">
         <is>
-          <t>Dixon IL (Greenfield)</t>
+          <t>Dixon</t>
         </is>
       </c>
       <c r="D1267" t="inlineStr">
         <is>
-          <t>1076 Corregidor Road</t>
+          <t>1076 Corregidor</t>
         </is>
       </c>
       <c r="E1267" t="inlineStr">
@@ -61258,17 +61258,17 @@
       </c>
       <c r="C1268" t="inlineStr">
         <is>
-          <t>Dwight IL</t>
+          <t>Dixon IL Greenfield</t>
         </is>
       </c>
       <c r="D1268" t="inlineStr">
         <is>
-          <t>418 E. North St</t>
+          <t>1076 Corregidor Road</t>
         </is>
       </c>
       <c r="E1268" t="inlineStr">
         <is>
-          <t>Dwight</t>
+          <t>Dixon</t>
         </is>
       </c>
       <c r="F1268" t="inlineStr">
@@ -61278,7 +61278,7 @@
       </c>
       <c r="G1268" t="inlineStr">
         <is>
-          <t>60420</t>
+          <t>61021</t>
         </is>
       </c>
       <c r="H1268" t="inlineStr">
@@ -61306,17 +61306,17 @@
       </c>
       <c r="C1269" t="inlineStr">
         <is>
-          <t>Edgewood</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="D1269" t="inlineStr">
         <is>
-          <t>1113 North Rt. 37</t>
+          <t>1871 South Depot Road</t>
         </is>
       </c>
       <c r="E1269" t="inlineStr">
         <is>
-          <t>Edgewood</t>
+          <t>Yates City</t>
         </is>
       </c>
       <c r="F1269" t="inlineStr">
@@ -61326,7 +61326,7 @@
       </c>
       <c r="G1269" t="inlineStr">
         <is>
-          <t>62426</t>
+          <t>61572</t>
         </is>
       </c>
       <c r="H1269" t="inlineStr">
@@ -61354,17 +61354,17 @@
       </c>
       <c r="C1270" t="inlineStr">
         <is>
-          <t>Fairbury IL</t>
+          <t>Dunlap IL</t>
         </is>
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>8196 North 2000 East Road</t>
+          <t>7001 W Parks School Road</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr">
         <is>
-          <t>Fairbury</t>
+          <t>Princeville</t>
         </is>
       </c>
       <c r="F1270" t="inlineStr">
@@ -61374,7 +61374,7 @@
       </c>
       <c r="G1270" t="inlineStr">
         <is>
-          <t>61739</t>
+          <t>61159</t>
         </is>
       </c>
       <c r="H1270" t="inlineStr">
@@ -61402,17 +61402,17 @@
       </c>
       <c r="C1271" t="inlineStr">
         <is>
-          <t>Fairview</t>
+          <t>Dwight IL</t>
         </is>
       </c>
       <c r="D1271" t="inlineStr">
         <is>
-          <t>1285 Carter St</t>
+          <t>418 E. North St</t>
         </is>
       </c>
       <c r="E1271" t="inlineStr">
         <is>
-          <t>Fairview</t>
+          <t>Dwight</t>
         </is>
       </c>
       <c r="F1271" t="inlineStr">
@@ -61422,7 +61422,7 @@
       </c>
       <c r="G1271" t="inlineStr">
         <is>
-          <t>61432</t>
+          <t>60420</t>
         </is>
       </c>
       <c r="H1271" t="inlineStr">
@@ -61450,17 +61450,17 @@
       </c>
       <c r="C1272" t="inlineStr">
         <is>
-          <t>Findlay IL</t>
+          <t>Eastern Illinois</t>
         </is>
       </c>
       <c r="D1272" t="inlineStr">
         <is>
-          <t>1913 State Hwy 128</t>
+          <t>1607 Tullamore Ave Suite A</t>
         </is>
       </c>
       <c r="E1272" t="inlineStr">
         <is>
-          <t>Findlay</t>
+          <t>Bloomington</t>
         </is>
       </c>
       <c r="F1272" t="inlineStr">
@@ -61470,7 +61470,7 @@
       </c>
       <c r="G1272" t="inlineStr">
         <is>
-          <t>62534</t>
+          <t>61704</t>
         </is>
       </c>
       <c r="H1272" t="inlineStr">
@@ -61498,17 +61498,17 @@
       </c>
       <c r="C1273" t="inlineStr">
         <is>
-          <t>Crossroads IL</t>
+          <t>Edgewood</t>
         </is>
       </c>
       <c r="D1273" t="inlineStr">
         <is>
-          <t>56 Industrial Parkway</t>
+          <t>1113 North Rt. 37</t>
         </is>
       </c>
       <c r="E1273" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Edgewood</t>
         </is>
       </c>
       <c r="F1273" t="inlineStr">
@@ -61518,7 +61518,7 @@
       </c>
       <c r="G1273" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62426</t>
         </is>
       </c>
       <c r="H1273" t="inlineStr">
@@ -61546,17 +61546,17 @@
       </c>
       <c r="C1274" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Fairbury IL</t>
         </is>
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>1 Briscoe Dr.</t>
+          <t>8196 North 2000 East Road</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Fairbury</t>
         </is>
       </c>
       <c r="F1274" t="inlineStr">
@@ -61566,7 +61566,7 @@
       </c>
       <c r="G1274" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>61739</t>
         </is>
       </c>
       <c r="H1274" t="inlineStr">
@@ -61594,17 +61594,17 @@
       </c>
       <c r="C1275" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Fairview</t>
         </is>
       </c>
       <c r="D1275" t="inlineStr">
         <is>
-          <t>54 Industrial Parkway</t>
+          <t>1285 Carter St</t>
         </is>
       </c>
       <c r="E1275" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Fairview</t>
         </is>
       </c>
       <c r="F1275" t="inlineStr">
@@ -61614,7 +61614,7 @@
       </c>
       <c r="G1275" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>61432</t>
         </is>
       </c>
       <c r="H1275" t="inlineStr">
@@ -61642,17 +61642,17 @@
       </c>
       <c r="C1276" t="inlineStr">
         <is>
-          <t>Southern Illinois</t>
+          <t>Ferris</t>
         </is>
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>54 Industrial Parkway</t>
+          <t>1750 North County Road 1600 East</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Carthage</t>
         </is>
       </c>
       <c r="F1276" t="inlineStr">
@@ -61662,12 +61662,12 @@
       </c>
       <c r="G1276" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62321</t>
         </is>
       </c>
       <c r="H1276" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1276" t="inlineStr">
@@ -61690,17 +61690,17 @@
       </c>
       <c r="C1277" t="inlineStr">
         <is>
-          <t>Fulton IL</t>
+          <t>Findlay IL</t>
         </is>
       </c>
       <c r="D1277" t="inlineStr">
         <is>
-          <t>2901 4th St</t>
+          <t>1913 State Hwy 128</t>
         </is>
       </c>
       <c r="E1277" t="inlineStr">
         <is>
-          <t>Fulton</t>
+          <t>Findlay</t>
         </is>
       </c>
       <c r="F1277" t="inlineStr">
@@ -61710,7 +61710,7 @@
       </c>
       <c r="G1277" t="inlineStr">
         <is>
-          <t>61252</t>
+          <t>62534</t>
         </is>
       </c>
       <c r="H1277" t="inlineStr">
@@ -61738,17 +61738,17 @@
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>Galatia IL</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="D1278" t="inlineStr">
         <is>
-          <t>2015 Hamburg Road</t>
+          <t>1 Briscoe Dr.</t>
         </is>
       </c>
       <c r="E1278" t="inlineStr">
         <is>
-          <t>Galatia</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1278" t="inlineStr">
@@ -61758,7 +61758,7 @@
       </c>
       <c r="G1278" t="inlineStr">
         <is>
-          <t>62935</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1278" t="inlineStr">
@@ -61786,17 +61786,17 @@
       </c>
       <c r="C1279" t="inlineStr">
         <is>
-          <t>Chemical Marketing</t>
+          <t>Fulton IL</t>
         </is>
       </c>
       <c r="D1279" t="inlineStr">
         <is>
-          <t>2084 Windish Drive</t>
+          <t>2901 4th St</t>
         </is>
       </c>
       <c r="E1279" t="inlineStr">
         <is>
-          <t>Galesburg</t>
+          <t>Fulton</t>
         </is>
       </c>
       <c r="F1279" t="inlineStr">
@@ -61806,12 +61806,12 @@
       </c>
       <c r="G1279" t="inlineStr">
         <is>
-          <t>61401</t>
+          <t>61252</t>
         </is>
       </c>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -61834,17 +61834,17 @@
       </c>
       <c r="C1280" t="inlineStr">
         <is>
-          <t>Galesburg</t>
+          <t>Galatia IL</t>
         </is>
       </c>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>215 Knox Hwy 10</t>
+          <t>2015 Hamburg Road</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr">
         <is>
-          <t>Galesburg</t>
+          <t>Galatia</t>
         </is>
       </c>
       <c r="F1280" t="inlineStr">
@@ -61854,7 +61854,7 @@
       </c>
       <c r="G1280" t="inlineStr">
         <is>
-          <t>61401</t>
+          <t>62935</t>
         </is>
       </c>
       <c r="H1280" t="inlineStr">
@@ -61882,17 +61882,17 @@
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>Galva IL</t>
+          <t>Galesburg</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>1051 Midland Rd</t>
+          <t>215 Knox Hwy 10</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr">
         <is>
-          <t>Galva</t>
+          <t>Galesburg</t>
         </is>
       </c>
       <c r="F1281" t="inlineStr">
@@ -61902,7 +61902,7 @@
       </c>
       <c r="G1281" t="inlineStr">
         <is>
-          <t>61434</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="H1281" t="inlineStr">
@@ -61930,17 +61930,17 @@
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>Goodwine IL</t>
+          <t>Galva IL</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr">
         <is>
-          <t>600 N. 1800 East Road</t>
+          <t>1051 Midland Rd</t>
         </is>
       </c>
       <c r="E1282" t="inlineStr">
         <is>
-          <t>Goodwine</t>
+          <t>Galva</t>
         </is>
       </c>
       <c r="F1282" t="inlineStr">
@@ -61950,7 +61950,7 @@
       </c>
       <c r="G1282" t="inlineStr">
         <is>
-          <t>60939</t>
+          <t>61434</t>
         </is>
       </c>
       <c r="H1282" t="inlineStr">
@@ -61978,17 +61978,17 @@
       </c>
       <c r="C1283" t="inlineStr">
         <is>
-          <t>Greenfield IL</t>
+          <t>Goodwine IL</t>
         </is>
       </c>
       <c r="D1283" t="inlineStr">
         <is>
-          <t>1373 East State Route 108</t>
+          <t>600 N. 1800 East Road</t>
         </is>
       </c>
       <c r="E1283" t="inlineStr">
         <is>
-          <t>Greenfield</t>
+          <t>Goodwine</t>
         </is>
       </c>
       <c r="F1283" t="inlineStr">
@@ -61998,7 +61998,7 @@
       </c>
       <c r="G1283" t="inlineStr">
         <is>
-          <t>62044</t>
+          <t>60939</t>
         </is>
       </c>
       <c r="H1283" t="inlineStr">
@@ -62026,17 +62026,17 @@
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>Greenville IL</t>
+          <t>Greenfield IL</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr">
         <is>
-          <t>601 Ridge Ave</t>
+          <t>1373 East State Route 108</t>
         </is>
       </c>
       <c r="E1284" t="inlineStr">
         <is>
-          <t>Greenville</t>
+          <t>Greenfield</t>
         </is>
       </c>
       <c r="F1284" t="inlineStr">
@@ -62046,7 +62046,7 @@
       </c>
       <c r="G1284" t="inlineStr">
         <is>
-          <t>62246</t>
+          <t>62044</t>
         </is>
       </c>
       <c r="H1284" t="inlineStr">
@@ -62074,17 +62074,17 @@
       </c>
       <c r="C1285" t="inlineStr">
         <is>
-          <t>Havana IL</t>
+          <t>Greenville IL</t>
         </is>
       </c>
       <c r="D1285" t="inlineStr">
         <is>
-          <t>18759 US Highway 136</t>
+          <t>601 Ridge Ave</t>
         </is>
       </c>
       <c r="E1285" t="inlineStr">
         <is>
-          <t>Havana</t>
+          <t>Greenville</t>
         </is>
       </c>
       <c r="F1285" t="inlineStr">
@@ -62094,7 +62094,7 @@
       </c>
       <c r="G1285" t="inlineStr">
         <is>
-          <t>62644</t>
+          <t>62246</t>
         </is>
       </c>
       <c r="H1285" t="inlineStr">
@@ -62122,17 +62122,17 @@
       </c>
       <c r="C1286" t="inlineStr">
         <is>
-          <t>Hillsboro-IL</t>
+          <t>Havana IL</t>
         </is>
       </c>
       <c r="D1286" t="inlineStr">
         <is>
-          <t>12177 North Road</t>
+          <t>18759 US Highway 136</t>
         </is>
       </c>
       <c r="E1286" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Havana</t>
         </is>
       </c>
       <c r="F1286" t="inlineStr">
@@ -62142,7 +62142,7 @@
       </c>
       <c r="G1286" t="inlineStr">
         <is>
-          <t>62049</t>
+          <t>62644</t>
         </is>
       </c>
       <c r="H1286" t="inlineStr">
@@ -62170,17 +62170,17 @@
       </c>
       <c r="C1287" t="inlineStr">
         <is>
-          <t>Hoopeston</t>
+          <t>Hillsboro IL</t>
         </is>
       </c>
       <c r="D1287" t="inlineStr">
         <is>
-          <t>19052 State Rd 9</t>
+          <t>12177 North Road</t>
         </is>
       </c>
       <c r="E1287" t="inlineStr">
         <is>
-          <t>Hoopeston</t>
+          <t>Hillsboro</t>
         </is>
       </c>
       <c r="F1287" t="inlineStr">
@@ -62190,7 +62190,7 @@
       </c>
       <c r="G1287" t="inlineStr">
         <is>
-          <t>60942</t>
+          <t>62049</t>
         </is>
       </c>
       <c r="H1287" t="inlineStr">
@@ -62218,17 +62218,17 @@
       </c>
       <c r="C1288" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Hoopeston</t>
         </is>
       </c>
       <c r="D1288" t="inlineStr">
         <is>
-          <t>1924 Sinclair Rd</t>
+          <t>19052 State Rd 9</t>
         </is>
       </c>
       <c r="E1288" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Hoopeston</t>
         </is>
       </c>
       <c r="F1288" t="inlineStr">
@@ -62238,7 +62238,7 @@
       </c>
       <c r="G1288" t="inlineStr">
         <is>
-          <t>62650</t>
+          <t>60942</t>
         </is>
       </c>
       <c r="H1288" t="inlineStr">
@@ -62266,17 +62266,17 @@
       </c>
       <c r="C1289" t="inlineStr">
         <is>
-          <t>Johnsonville</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="D1289" t="inlineStr">
         <is>
-          <t>1st and Main Street</t>
+          <t>1924 Sinclair Rd</t>
         </is>
       </c>
       <c r="E1289" t="inlineStr">
         <is>
-          <t>Johnsonville</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F1289" t="inlineStr">
@@ -62286,7 +62286,7 @@
       </c>
       <c r="G1289" t="inlineStr">
         <is>
-          <t>62580</t>
+          <t>62650</t>
         </is>
       </c>
       <c r="H1289" t="inlineStr">
@@ -62314,17 +62314,17 @@
       </c>
       <c r="C1290" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Johnsonville</t>
         </is>
       </c>
       <c r="D1290" t="inlineStr">
         <is>
-          <t>3240 Hwy 16</t>
+          <t>1st and Main Street</t>
         </is>
       </c>
       <c r="E1290" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Johnsonville</t>
         </is>
       </c>
       <c r="F1290" t="inlineStr">
@@ -62334,7 +62334,7 @@
       </c>
       <c r="G1290" t="inlineStr">
         <is>
-          <t>61933</t>
+          <t>62580</t>
         </is>
       </c>
       <c r="H1290" t="inlineStr">
@@ -62362,17 +62362,17 @@
       </c>
       <c r="C1291" t="inlineStr">
         <is>
-          <t>Keenes</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="D1291" t="inlineStr">
         <is>
-          <t>325 IL HWY 15</t>
+          <t>3240 Hwy 16</t>
         </is>
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>Keenes</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="F1291" t="inlineStr">
@@ -62382,7 +62382,7 @@
       </c>
       <c r="G1291" t="inlineStr">
         <is>
-          <t>62851</t>
+          <t>61933</t>
         </is>
       </c>
       <c r="H1291" t="inlineStr">
@@ -62410,12 +62410,12 @@
       </c>
       <c r="C1292" t="inlineStr">
         <is>
-          <t>Orchardville</t>
+          <t>Keenes</t>
         </is>
       </c>
       <c r="D1292" t="inlineStr">
         <is>
-          <t>229 County Road 1250N</t>
+          <t>325 IL HWY 15</t>
         </is>
       </c>
       <c r="E1292" t="inlineStr">
@@ -62650,17 +62650,17 @@
       </c>
       <c r="C1297" t="inlineStr">
         <is>
-          <t>Marissa</t>
+          <t>Manlius</t>
         </is>
       </c>
       <c r="D1297" t="inlineStr">
         <is>
-          <t>11300 State Rt 4</t>
+          <t>20182 IL Hwy 40</t>
         </is>
       </c>
       <c r="E1297" t="inlineStr">
         <is>
-          <t>Marissa</t>
+          <t>Sheffield</t>
         </is>
       </c>
       <c r="F1297" t="inlineStr">
@@ -62670,7 +62670,7 @@
       </c>
       <c r="G1297" t="inlineStr">
         <is>
-          <t>62257</t>
+          <t>61361</t>
         </is>
       </c>
       <c r="H1297" t="inlineStr">
@@ -62698,17 +62698,17 @@
       </c>
       <c r="C1298" t="inlineStr">
         <is>
-          <t>Marseilles IL El Terminal</t>
+          <t>Marissa</t>
         </is>
       </c>
       <c r="D1298" t="inlineStr">
         <is>
-          <t>1801 Broadway Street</t>
+          <t>11300 State Rt 4</t>
         </is>
       </c>
       <c r="E1298" t="inlineStr">
         <is>
-          <t>Marseilles</t>
+          <t>Marissa</t>
         </is>
       </c>
       <c r="F1298" t="inlineStr">
@@ -62718,12 +62718,12 @@
       </c>
       <c r="G1298" t="inlineStr">
         <is>
-          <t>61341</t>
+          <t>62257</t>
         </is>
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -62746,17 +62746,17 @@
       </c>
       <c r="C1299" t="inlineStr">
         <is>
-          <t>Delafield</t>
+          <t>Marseilles IL El Terminal</t>
         </is>
       </c>
       <c r="D1299" t="inlineStr">
         <is>
-          <t>5611 County Road 1650N</t>
+          <t>1801 Broadway Street</t>
         </is>
       </c>
       <c r="E1299" t="inlineStr">
         <is>
-          <t>McLeansboro</t>
+          <t>Marseilles</t>
         </is>
       </c>
       <c r="F1299" t="inlineStr">
@@ -62766,7 +62766,7 @@
       </c>
       <c r="G1299" t="inlineStr">
         <is>
-          <t>62859</t>
+          <t>61341</t>
         </is>
       </c>
       <c r="H1299" t="inlineStr">
@@ -62890,17 +62890,17 @@
       </c>
       <c r="C1302" t="inlineStr">
         <is>
-          <t>Meredosia Terminal</t>
+          <t>Metcalf</t>
         </is>
       </c>
       <c r="D1302" t="inlineStr">
         <is>
-          <t>1921 Old Naples Road</t>
+          <t>22437 N. 1050th st</t>
         </is>
       </c>
       <c r="E1302" t="inlineStr">
         <is>
-          <t>Meredosia</t>
+          <t>Metcalf</t>
         </is>
       </c>
       <c r="F1302" t="inlineStr">
@@ -62910,12 +62910,12 @@
       </c>
       <c r="G1302" t="inlineStr">
         <is>
-          <t>62665</t>
+          <t>61940</t>
         </is>
       </c>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -62938,17 +62938,17 @@
       </c>
       <c r="C1303" t="inlineStr">
         <is>
-          <t>Metcalf</t>
+          <t>Minier IL</t>
         </is>
       </c>
       <c r="D1303" t="inlineStr">
         <is>
-          <t>22437 N. 1050th st</t>
+          <t>103 N. Main Avenue</t>
         </is>
       </c>
       <c r="E1303" t="inlineStr">
         <is>
-          <t>Metcalf</t>
+          <t>Minier</t>
         </is>
       </c>
       <c r="F1303" t="inlineStr">
@@ -62958,7 +62958,7 @@
       </c>
       <c r="G1303" t="inlineStr">
         <is>
-          <t>61940</t>
+          <t>61759</t>
         </is>
       </c>
       <c r="H1303" t="inlineStr">
@@ -62986,17 +62986,17 @@
       </c>
       <c r="C1304" t="inlineStr">
         <is>
-          <t>Minier</t>
+          <t>Morrisonville</t>
         </is>
       </c>
       <c r="D1304" t="inlineStr">
         <is>
-          <t>103 N. Main Avenue</t>
+          <t>450 E. 400 North Rd</t>
         </is>
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>Minier</t>
+          <t>Morrisonville</t>
         </is>
       </c>
       <c r="F1304" t="inlineStr">
@@ -63006,7 +63006,7 @@
       </c>
       <c r="G1304" t="inlineStr">
         <is>
-          <t>61759</t>
+          <t>62546</t>
         </is>
       </c>
       <c r="H1304" t="inlineStr">
@@ -63034,17 +63034,17 @@
       </c>
       <c r="C1305" t="inlineStr">
         <is>
-          <t>Divernon IL</t>
+          <t>Mt Carroll IL</t>
         </is>
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>450 E. 400 North Rd</t>
+          <t>10650 Mill Rd</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr">
         <is>
-          <t>Morrisonville</t>
+          <t>Mt Carroll</t>
         </is>
       </c>
       <c r="F1305" t="inlineStr">
@@ -63054,7 +63054,7 @@
       </c>
       <c r="G1305" t="inlineStr">
         <is>
-          <t>62546</t>
+          <t>61053</t>
         </is>
       </c>
       <c r="H1305" t="inlineStr">
@@ -63082,17 +63082,17 @@
       </c>
       <c r="C1306" t="inlineStr">
         <is>
-          <t>Morrisonville</t>
+          <t>Mt Carroll IL Warehouse</t>
         </is>
       </c>
       <c r="D1306" t="inlineStr">
         <is>
-          <t>450 E. 400 North Rd</t>
+          <t>759 W Commercial St</t>
         </is>
       </c>
       <c r="E1306" t="inlineStr">
         <is>
-          <t>Morrisonville</t>
+          <t>Mt Carroll</t>
         </is>
       </c>
       <c r="F1306" t="inlineStr">
@@ -63102,7 +63102,7 @@
       </c>
       <c r="G1306" t="inlineStr">
         <is>
-          <t>62546</t>
+          <t>61053</t>
         </is>
       </c>
       <c r="H1306" t="inlineStr">
@@ -63130,17 +63130,17 @@
       </c>
       <c r="C1307" t="inlineStr">
         <is>
-          <t>Radford</t>
+          <t>Mt Erie</t>
         </is>
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>2628 E1500 N Road</t>
+          <t>2575 County Highway 2</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr">
         <is>
-          <t>Moweaqua</t>
+          <t>Mt. Erie</t>
         </is>
       </c>
       <c r="F1307" t="inlineStr">
@@ -63150,7 +63150,7 @@
       </c>
       <c r="G1307" t="inlineStr">
         <is>
-          <t>62550</t>
+          <t>62446</t>
         </is>
       </c>
       <c r="H1307" t="inlineStr">
@@ -63178,17 +63178,17 @@
       </c>
       <c r="C1308" t="inlineStr">
         <is>
-          <t>Chadwick South IL</t>
+          <t>Mt Sterling</t>
         </is>
       </c>
       <c r="D1308" t="inlineStr">
         <is>
-          <t>10650 Mill Rd</t>
+          <t>Rt 24 West</t>
         </is>
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>Mt Carroll</t>
+          <t>Mt. Sterling</t>
         </is>
       </c>
       <c r="F1308" t="inlineStr">
@@ -63198,12 +63198,12 @@
       </c>
       <c r="G1308" t="inlineStr">
         <is>
-          <t>61053</t>
+          <t>62353</t>
         </is>
       </c>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -63226,17 +63226,17 @@
       </c>
       <c r="C1309" t="inlineStr">
         <is>
-          <t>Mt Carroll IL</t>
+          <t>Neoga</t>
         </is>
       </c>
       <c r="D1309" t="inlineStr">
         <is>
-          <t>10650 Mill Rd</t>
+          <t>1073 Industrial Park Ave.</t>
         </is>
       </c>
       <c r="E1309" t="inlineStr">
         <is>
-          <t>Mt Carroll</t>
+          <t>Neoga</t>
         </is>
       </c>
       <c r="F1309" t="inlineStr">
@@ -63246,7 +63246,7 @@
       </c>
       <c r="G1309" t="inlineStr">
         <is>
-          <t>61053</t>
+          <t>62447</t>
         </is>
       </c>
       <c r="H1309" t="inlineStr">
@@ -63274,17 +63274,17 @@
       </c>
       <c r="C1310" t="inlineStr">
         <is>
-          <t>Mt Carroll IL Warehouse</t>
+          <t>Neoga Seed Treating</t>
         </is>
       </c>
       <c r="D1310" t="inlineStr">
         <is>
-          <t>759 W Commercial St</t>
+          <t>1073 North Route 45</t>
         </is>
       </c>
       <c r="E1310" t="inlineStr">
         <is>
-          <t>Mt Carroll</t>
+          <t>Neoga</t>
         </is>
       </c>
       <c r="F1310" t="inlineStr">
@@ -63294,7 +63294,7 @@
       </c>
       <c r="G1310" t="inlineStr">
         <is>
-          <t>61053</t>
+          <t>62447</t>
         </is>
       </c>
       <c r="H1310" t="inlineStr">
@@ -63322,17 +63322,17 @@
       </c>
       <c r="C1311" t="inlineStr">
         <is>
-          <t>Mt Erie</t>
+          <t>New Boston</t>
         </is>
       </c>
       <c r="D1311" t="inlineStr">
         <is>
-          <t>2575 County Highway 2</t>
+          <t>1768 45th St</t>
         </is>
       </c>
       <c r="E1311" t="inlineStr">
         <is>
-          <t>Mt. Erie</t>
+          <t>New Boston</t>
         </is>
       </c>
       <c r="F1311" t="inlineStr">
@@ -63342,7 +63342,7 @@
       </c>
       <c r="G1311" t="inlineStr">
         <is>
-          <t>62446</t>
+          <t>61272</t>
         </is>
       </c>
       <c r="H1311" t="inlineStr">
@@ -63370,17 +63370,17 @@
       </c>
       <c r="C1312" t="inlineStr">
         <is>
-          <t>Mt Sterling</t>
+          <t>New Memphis</t>
         </is>
       </c>
       <c r="D1312" t="inlineStr">
         <is>
-          <t>Rt 24 West</t>
+          <t>1510 Bottom Road</t>
         </is>
       </c>
       <c r="E1312" t="inlineStr">
         <is>
-          <t>Mt. Sterling</t>
+          <t>New Baden</t>
         </is>
       </c>
       <c r="F1312" t="inlineStr">
@@ -63390,7 +63390,7 @@
       </c>
       <c r="G1312" t="inlineStr">
         <is>
-          <t>62353</t>
+          <t>62265</t>
         </is>
       </c>
       <c r="H1312" t="inlineStr">
@@ -63418,17 +63418,17 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>Neoga</t>
+          <t>Newton Terminal</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>1073 Industrial Park Ave.</t>
+          <t>7250 East State Highway 33</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
         <is>
-          <t>Neoga</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="F1313" t="inlineStr">
@@ -63438,7 +63438,7 @@
       </c>
       <c r="G1313" t="inlineStr">
         <is>
-          <t>62447</t>
+          <t>62448</t>
         </is>
       </c>
       <c r="H1313" t="inlineStr">
@@ -63466,17 +63466,17 @@
       </c>
       <c r="C1314" t="inlineStr">
         <is>
-          <t>Neoga Seed Treating</t>
+          <t>Niota</t>
         </is>
       </c>
       <c r="D1314" t="inlineStr">
         <is>
-          <t>1073 North Route 45</t>
+          <t>1175 E Co Rd N</t>
         </is>
       </c>
       <c r="E1314" t="inlineStr">
         <is>
-          <t>Neoga</t>
+          <t>Niota</t>
         </is>
       </c>
       <c r="F1314" t="inlineStr">
@@ -63486,7 +63486,7 @@
       </c>
       <c r="G1314" t="inlineStr">
         <is>
-          <t>62447</t>
+          <t>62358</t>
         </is>
       </c>
       <c r="H1314" t="inlineStr">
@@ -63514,17 +63514,17 @@
       </c>
       <c r="C1315" t="inlineStr">
         <is>
-          <t>New Memphis</t>
+          <t>Nokomis</t>
         </is>
       </c>
       <c r="D1315" t="inlineStr">
         <is>
-          <t>1510 Bottom Road</t>
+          <t>192 North Western Ave</t>
         </is>
       </c>
       <c r="E1315" t="inlineStr">
         <is>
-          <t>New Baden</t>
+          <t>Nokomis</t>
         </is>
       </c>
       <c r="F1315" t="inlineStr">
@@ -63534,7 +63534,7 @@
       </c>
       <c r="G1315" t="inlineStr">
         <is>
-          <t>62265</t>
+          <t>62075</t>
         </is>
       </c>
       <c r="H1315" t="inlineStr">
@@ -63562,17 +63562,17 @@
       </c>
       <c r="C1316" t="inlineStr">
         <is>
-          <t>New Boston</t>
+          <t>Onarga</t>
         </is>
       </c>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>1768 45th St</t>
+          <t>112 W. Washington St.</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>New Boston</t>
+          <t>Onarga</t>
         </is>
       </c>
       <c r="F1316" t="inlineStr">
@@ -63582,7 +63582,7 @@
       </c>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>61272</t>
+          <t>60955</t>
         </is>
       </c>
       <c r="H1316" t="inlineStr">
@@ -63610,17 +63610,17 @@
       </c>
       <c r="C1317" t="inlineStr">
         <is>
-          <t>Newton Terminal</t>
+          <t>Oneida</t>
         </is>
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>7250 East State Highway 33</t>
+          <t>611 East Ontario</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Oneida</t>
         </is>
       </c>
       <c r="F1317" t="inlineStr">
@@ -63630,12 +63630,12 @@
       </c>
       <c r="G1317" t="inlineStr">
         <is>
-          <t>62448</t>
+          <t>61467</t>
         </is>
       </c>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -63658,17 +63658,17 @@
       </c>
       <c r="C1318" t="inlineStr">
         <is>
-          <t>Niota</t>
+          <t>Orchardville</t>
         </is>
       </c>
       <c r="D1318" t="inlineStr">
         <is>
-          <t>1175 E Co Rd N</t>
+          <t>229 County Road 1250N</t>
         </is>
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>Niota</t>
+          <t>Keenes</t>
         </is>
       </c>
       <c r="F1318" t="inlineStr">
@@ -63678,7 +63678,7 @@
       </c>
       <c r="G1318" t="inlineStr">
         <is>
-          <t>62358</t>
+          <t>62851</t>
         </is>
       </c>
       <c r="H1318" t="inlineStr">
@@ -63706,17 +63706,17 @@
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>Nokomis</t>
+          <t>Patoka IL</t>
         </is>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>192 North Western Ave</t>
+          <t>1215 S. Oak St.</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>Nokomis</t>
+          <t>Patoka</t>
         </is>
       </c>
       <c r="F1319" t="inlineStr">
@@ -63726,7 +63726,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>62075</t>
+          <t>62875</t>
         </is>
       </c>
       <c r="H1319" t="inlineStr">
@@ -63754,17 +63754,17 @@
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Paxton</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>Rt 133 and Logan Street</t>
+          <t>415 N. Market St</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Paxton</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr">
@@ -63774,7 +63774,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>61943</t>
+          <t>60957</t>
         </is>
       </c>
       <c r="H1320" t="inlineStr">
@@ -63802,17 +63802,17 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>Onarga</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>112 W. Washington St.</t>
+          <t>25134 US Highway 54</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>Onarga</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="F1321" t="inlineStr">
@@ -63822,7 +63822,7 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>60955</t>
+          <t>62363</t>
         </is>
       </c>
       <c r="H1321" t="inlineStr">
@@ -63850,17 +63850,17 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>Oneida</t>
+          <t>Pleasant Hill</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>611 East Ontario</t>
+          <t>108 King Rd</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>Oneida</t>
+          <t>Pleasant Hill</t>
         </is>
       </c>
       <c r="F1322" t="inlineStr">
@@ -63870,7 +63870,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>61467</t>
+          <t>62366</t>
         </is>
       </c>
       <c r="H1322" t="inlineStr">
@@ -63898,17 +63898,17 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Patoka IL</t>
+          <t>Pontiac</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>1215 S. Oak St.</t>
+          <t>601 N. Court St</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>Patoka</t>
+          <t>Pontiac</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr">
@@ -63918,7 +63918,7 @@
       </c>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>62875</t>
+          <t>61764</t>
         </is>
       </c>
       <c r="H1323" t="inlineStr">
@@ -63946,17 +63946,17 @@
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Paxton</t>
+          <t>Precision Operations</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>415 N. Market St</t>
+          <t>94 E 150 North Rd</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>Paxton</t>
+          <t>Cerro Gordo</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
@@ -63966,7 +63966,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>60957</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="H1324" t="inlineStr">
@@ -63994,17 +63994,17 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Princeville IL</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>25134 US Highway 54</t>
+          <t>11939 Township Road 00N</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Princeville</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr">
@@ -64014,7 +64014,7 @@
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>61559</t>
         </is>
       </c>
       <c r="H1325" t="inlineStr">
@@ -64042,17 +64042,17 @@
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Pleasant Hill</t>
+          <t>Quincy Fertilizer (Warehouse)</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>108 King Rd</t>
+          <t>5014 Gardner Expressway</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>Pleasant Hill</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
@@ -64062,7 +64062,7 @@
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>62366</t>
+          <t>62301</t>
         </is>
       </c>
       <c r="H1326" t="inlineStr">
@@ -64090,17 +64090,17 @@
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>Pontiac</t>
+          <t>Radford</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>601 N. Court St</t>
+          <t>2628 E1500 N Road</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>Pontiac</t>
+          <t>Moweaqua</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
@@ -64110,7 +64110,7 @@
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>61764</t>
+          <t>62550</t>
         </is>
       </c>
       <c r="H1327" t="inlineStr">
@@ -64138,17 +64138,17 @@
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>Dunlap IL</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>7001 W Parks School Road</t>
+          <t>54 Industrial Parkway</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>Princeville</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
@@ -64158,7 +64158,7 @@
       </c>
       <c r="G1328" t="inlineStr">
         <is>
-          <t>61159</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1328" t="inlineStr">
@@ -64186,17 +64186,17 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>Princeville IL</t>
+          <t>Ridgway IL</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>11939 Township Road 00N</t>
+          <t>5425 Chapman Rd</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>Princeville</t>
+          <t>Ridgway</t>
         </is>
       </c>
       <c r="F1329" t="inlineStr">
@@ -64206,7 +64206,7 @@
       </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>61559</t>
+          <t>62979</t>
         </is>
       </c>
       <c r="H1329" t="inlineStr">
@@ -64234,17 +64234,17 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>Quincy Fertilizer (Warehouse)</t>
+          <t>Saunemin</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>5014 Gardner Expressway</t>
+          <t>19433 N 2700 East Road</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Saunemin</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr">
@@ -64254,7 +64254,7 @@
       </c>
       <c r="G1330" t="inlineStr">
         <is>
-          <t>62301</t>
+          <t>61769</t>
         </is>
       </c>
       <c r="H1330" t="inlineStr">
@@ -64282,17 +64282,17 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>Ridgway IL</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>5425 Chapman Rd</t>
+          <t>101 E Washington St</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>Ridgway</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr">
@@ -64302,7 +64302,7 @@
       </c>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>62979</t>
+          <t>61475</t>
         </is>
       </c>
       <c r="H1331" t="inlineStr">
@@ -64330,17 +64330,17 @@
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>St. Peter IL</t>
+          <t>Shannon IL</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>205 West 5th Street</t>
+          <t>6327 S Montague Rd</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>Saint Peter</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr">
@@ -64350,7 +64350,7 @@
       </c>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>62880</t>
+          <t>61078</t>
         </is>
       </c>
       <c r="H1332" t="inlineStr">
@@ -64378,17 +64378,17 @@
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>Saunemin</t>
+          <t>Shelbyville</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>19433 N 2700 East Road</t>
+          <t>1119 N. Morgan St.</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>Saunemin</t>
+          <t>Shelbyville</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr">
@@ -64398,7 +64398,7 @@
       </c>
       <c r="G1333" t="inlineStr">
         <is>
-          <t>61769</t>
+          <t>62565</t>
         </is>
       </c>
       <c r="H1333" t="inlineStr">
@@ -64426,17 +64426,17 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Sheldon IL</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>101 E Washington St</t>
+          <t>1777 N 2800 E Rd.</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Sheldon</t>
         </is>
       </c>
       <c r="F1334" t="inlineStr">
@@ -64446,7 +64446,7 @@
       </c>
       <c r="G1334" t="inlineStr">
         <is>
-          <t>61475</t>
+          <t>60966</t>
         </is>
       </c>
       <c r="H1334" t="inlineStr">
@@ -64474,17 +64474,17 @@
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>Shannon IL</t>
+          <t>Sheldon Inventory</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>6327 S Montague Rd</t>
+          <t>220 N. Clark St.</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Sheldon</t>
         </is>
       </c>
       <c r="F1335" t="inlineStr">
@@ -64494,7 +64494,7 @@
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>61078</t>
+          <t>60966</t>
         </is>
       </c>
       <c r="H1335" t="inlineStr">
@@ -64522,17 +64522,17 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>Manlius</t>
+          <t>Shobonier</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>20182 IL Hwy 40</t>
+          <t>1155 E 900 Ave</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>Sheffield</t>
+          <t>Shobonier</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr">
@@ -64542,7 +64542,7 @@
       </c>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>61361</t>
+          <t>62885</t>
         </is>
       </c>
       <c r="H1336" t="inlineStr">
@@ -64570,17 +64570,17 @@
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>Shelbyville</t>
+          <t>Sidney</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>1119 N. Morgan St.</t>
+          <t>1907 County Road 1000 N</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>Shelbyville</t>
+          <t>Sidney</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr">
@@ -64590,7 +64590,7 @@
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>62565</t>
+          <t>61877</t>
         </is>
       </c>
       <c r="H1337" t="inlineStr">
@@ -64618,17 +64618,17 @@
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>Sheldon IL</t>
+          <t>Smithshire IL</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>1777 N 2800 E Rd.</t>
+          <t>1 State St.</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr">
         <is>
-          <t>Sheldon</t>
+          <t>Smithshire</t>
         </is>
       </c>
       <c r="F1338" t="inlineStr">
@@ -64638,7 +64638,7 @@
       </c>
       <c r="G1338" t="inlineStr">
         <is>
-          <t>60966</t>
+          <t>61478</t>
         </is>
       </c>
       <c r="H1338" t="inlineStr">
@@ -64666,17 +64666,17 @@
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>Sheldon Inventory</t>
+          <t>Southern Illinois</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>220 N. Clark St.</t>
+          <t>54 Industrial Parkway</t>
         </is>
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>Sheldon</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr">
@@ -64686,7 +64686,7 @@
       </c>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>60966</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1339" t="inlineStr">
@@ -64714,17 +64714,17 @@
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>Shobonier</t>
+          <t>Springfield IL</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>1155 E 900 Ave</t>
+          <t>4900 International Parkway</t>
         </is>
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>Shobonier</t>
+          <t>Springfield</t>
         </is>
       </c>
       <c r="F1340" t="inlineStr">
@@ -64734,7 +64734,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>62885</t>
+          <t>62711</t>
         </is>
       </c>
       <c r="H1340" t="inlineStr">
@@ -64762,17 +64762,17 @@
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Sidney</t>
+          <t>St. Peter IL</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>1907 County Road 1000 N</t>
+          <t>205 West 5th Street</t>
         </is>
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>Sidney</t>
+          <t>Saint Peter</t>
         </is>
       </c>
       <c r="F1341" t="inlineStr">
@@ -64782,7 +64782,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>61877</t>
+          <t>62880</t>
         </is>
       </c>
       <c r="H1341" t="inlineStr">
@@ -64810,17 +64810,17 @@
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>Smithshire IL</t>
+          <t>Sterling</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>1 State St.</t>
+          <t>24009 Lincoln Rd</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>Smithshire</t>
+          <t>Sterling</t>
         </is>
       </c>
       <c r="F1342" t="inlineStr">
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>61478</t>
+          <t>61081</t>
         </is>
       </c>
       <c r="H1342" t="inlineStr">
@@ -64858,17 +64858,17 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>Springfield IL</t>
+          <t>Steward</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>4900 International Parkway</t>
+          <t>1793 Steward Rd</t>
         </is>
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>Springfield</t>
+          <t>Steward</t>
         </is>
       </c>
       <c r="F1343" t="inlineStr">
@@ -64878,7 +64878,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>62711</t>
+          <t>60553</t>
         </is>
       </c>
       <c r="H1343" t="inlineStr">
@@ -64906,17 +64906,17 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Sterling</t>
+          <t>Stockton IL</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>24009 Lincoln Rd</t>
+          <t>13276 US Rte 20 E</t>
         </is>
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>Sterling</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="F1344" t="inlineStr">
@@ -64926,7 +64926,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>61081</t>
+          <t>61085</t>
         </is>
       </c>
       <c r="H1344" t="inlineStr">
@@ -64954,17 +64954,17 @@
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>Steward</t>
+          <t>Stolletown</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>1793 Steward Rd</t>
+          <t>18929 Stolletown Road</t>
         </is>
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>Steward</t>
+          <t>Carlyle</t>
         </is>
       </c>
       <c r="F1345" t="inlineStr">
@@ -64974,7 +64974,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>60553</t>
+          <t>62231</t>
         </is>
       </c>
       <c r="H1345" t="inlineStr">
@@ -65002,17 +65002,17 @@
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Stockton IL</t>
+          <t>Strawn</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>13276 US Rte 20 E</t>
+          <t>25489 E 200 N Road</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Strawn</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr">
@@ -65022,7 +65022,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>61085</t>
+          <t>61775</t>
         </is>
       </c>
       <c r="H1346" t="inlineStr">
@@ -65050,17 +65050,17 @@
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Strawn</t>
+          <t>Sullivan IL</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>25489 E 200 N Road</t>
+          <t>1052 CR 1125N</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>Strawn</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr">
@@ -65070,7 +65070,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>61775</t>
+          <t>61951</t>
         </is>
       </c>
       <c r="H1347" t="inlineStr">
@@ -65098,17 +65098,17 @@
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>Sullivan IL</t>
+          <t>Tamms</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>1052 CR 1125N</t>
+          <t>25366 Tamms-Olive Branch Road</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Tamms</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr">
@@ -65118,7 +65118,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>61951</t>
+          <t>62988</t>
         </is>
       </c>
       <c r="H1348" t="inlineStr">
@@ -65146,17 +65146,17 @@
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>Tamms</t>
+          <t>Vandalia IL</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>25366 Tamms-Olive Branch Road</t>
+          <t>1801 Hillsboro Road</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>Tamms</t>
+          <t>Vandalia</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr">
@@ -65166,7 +65166,7 @@
       </c>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>62988</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="H1349" t="inlineStr">
@@ -65194,17 +65194,17 @@
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>Vandalia IL</t>
+          <t>Viola</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>1801 Hillsboro Road</t>
+          <t>1813 17th Avenue</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>Vandalia</t>
+          <t>Viola</t>
         </is>
       </c>
       <c r="F1350" t="inlineStr">
@@ -65214,7 +65214,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>62471</t>
+          <t>61486</t>
         </is>
       </c>
       <c r="H1350" t="inlineStr">
@@ -65242,17 +65242,17 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>1813 17th Avenue</t>
+          <t>28411 1600 East Street</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr">
@@ -65262,7 +65262,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>61486</t>
+          <t>61376</t>
         </is>
       </c>
       <c r="H1351" t="inlineStr">
@@ -65290,17 +65290,17 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>28411 1600 East Street</t>
+          <t>7762 Main Street</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr">
@@ -65310,7 +65310,7 @@
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>61376</t>
+          <t>62297</t>
         </is>
       </c>
       <c r="H1352" t="inlineStr">
@@ -65338,17 +65338,17 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Walsh</t>
+          <t>Warrensburg IL</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>7762 Main Street</t>
+          <t>9424 Heman Rd</t>
         </is>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>Walsh</t>
+          <t>Warrensburg</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr">
@@ -65358,7 +65358,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>62297</t>
+          <t>62573</t>
         </is>
       </c>
       <c r="H1353" t="inlineStr">
@@ -65386,17 +65386,17 @@
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>Warrensburg IL</t>
+          <t>Wenona</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>9424 Heman Rd</t>
+          <t>795 County Road 3100 E</t>
         </is>
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>Warrensburg</t>
+          <t>Wenona</t>
         </is>
       </c>
       <c r="F1354" t="inlineStr">
@@ -65406,7 +65406,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>62573</t>
+          <t>61377</t>
         </is>
       </c>
       <c r="H1354" t="inlineStr">
@@ -65434,17 +65434,17 @@
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>Wenona</t>
+          <t>West Brooklyn IL</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>795 County Road 3100 E</t>
+          <t>2697 W. Brooklyn Road</t>
         </is>
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>Wenona</t>
+          <t>West Brooklyn</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr">
@@ -65454,7 +65454,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>61377</t>
+          <t>61378</t>
         </is>
       </c>
       <c r="H1355" t="inlineStr">
@@ -65482,17 +65482,17 @@
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>West Brooklyn IL</t>
+          <t>West Union</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>2697 W. Brooklyn Road</t>
+          <t>7847 N State Hwy 1</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>West Brooklyn</t>
+          <t>West Union</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr">
@@ -65502,7 +65502,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>61378</t>
+          <t>62477</t>
         </is>
       </c>
       <c r="H1356" t="inlineStr">
@@ -65530,17 +65530,17 @@
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>West Union</t>
+          <t>White Hall</t>
         </is>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>7847 N State Hwy 1</t>
+          <t>426 East Tunison Ave</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>West Union</t>
+          <t>White Hall</t>
         </is>
       </c>
       <c r="F1357" t="inlineStr">
@@ -65550,7 +65550,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>62477</t>
+          <t>62092</t>
         </is>
       </c>
       <c r="H1357" t="inlineStr">
@@ -65578,17 +65578,17 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>White Hall</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>426 East Tunison Ave</t>
+          <t>1871 South Depot Road</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>White Hall</t>
+          <t>Yates City</t>
         </is>
       </c>
       <c r="F1358" t="inlineStr">
@@ -65598,7 +65598,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>62092</t>
+          <t>61572</t>
         </is>
       </c>
       <c r="H1358" t="inlineStr">
@@ -65616,7 +65616,7 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - IL</t>
+          <t>Nutrien Ag Solutions - MN</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
@@ -65626,27 +65626,27 @@
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Adrian MN</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>1871 South Depot Road</t>
+          <t>205 County Road 35 E</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>Yates City</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>61572</t>
+          <t>56110</t>
         </is>
       </c>
       <c r="H1359" t="inlineStr">
@@ -65674,17 +65674,17 @@
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>Adrian MN</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>205 County Road 35 E</t>
+          <t>313 Main Street</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="F1360" t="inlineStr">
@@ -65694,7 +65694,7 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>56110</t>
+          <t>56207</t>
         </is>
       </c>
       <c r="H1360" t="inlineStr">
@@ -65722,17 +65722,17 @@
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Benson</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>313 Main Street</t>
+          <t>195-25th Ave Northwest</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Benson</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr">
@@ -65742,7 +65742,7 @@
       </c>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>56207</t>
+          <t>56215</t>
         </is>
       </c>
       <c r="H1361" t="inlineStr">
@@ -65770,17 +65770,17 @@
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Big Lake</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>195-25th Ave Northwest</t>
+          <t>20190 Hwy 10 West</t>
         </is>
       </c>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Big Lake</t>
         </is>
       </c>
       <c r="F1362" t="inlineStr">
@@ -65790,7 +65790,7 @@
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>56215</t>
+          <t>55309</t>
         </is>
       </c>
       <c r="H1362" t="inlineStr">
@@ -65818,17 +65818,17 @@
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>Big Lake</t>
+          <t>Central Stock Loc Kasota</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>20190 Hwy 10 West</t>
+          <t>972 East Pearl Street</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>Big Lake</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="F1363" t="inlineStr">
@@ -65838,12 +65838,12 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>55309</t>
+          <t>56050</t>
         </is>
       </c>
       <c r="H1363" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1363" t="inlineStr">
@@ -65866,17 +65866,17 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>Central Stock Loc Kasota</t>
+          <t>Dassel</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>972 East Pearl Street</t>
+          <t>540 Atlantic Ave E</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Dassel</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr">
@@ -65886,12 +65886,12 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>56050</t>
+          <t>55325</t>
         </is>
       </c>
       <c r="H1364" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1364" t="inlineStr">
@@ -65914,17 +65914,17 @@
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Dassel</t>
+          <t>East Chain (Fairmont)</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>540 Atlantic Ave E</t>
+          <t>2445 50th Street</t>
         </is>
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>Dassel</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1365" t="inlineStr">
@@ -65934,12 +65934,12 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>55325</t>
+          <t>56031</t>
         </is>
       </c>
       <c r="H1365" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1365" t="inlineStr">
@@ -65962,17 +65962,17 @@
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>East Chain (Fairmont)</t>
+          <t>Gluek</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>2445 50th Street</t>
+          <t>5092 26th Street SE</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Maynard</t>
         </is>
       </c>
       <c r="F1366" t="inlineStr">
@@ -65982,12 +65982,12 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>56031</t>
+          <t>56260</t>
         </is>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1366" t="inlineStr">
@@ -66010,17 +66010,17 @@
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>Gluek</t>
+          <t>Hallock</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>5092 26th Street SE</t>
+          <t>2424 240th St</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>Maynard</t>
+          <t>Hallock</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr">
@@ -66030,7 +66030,7 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>56260</t>
+          <t>56728</t>
         </is>
       </c>
       <c r="H1367" t="inlineStr">
@@ -66058,17 +66058,17 @@
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Hallock</t>
+          <t>Harmony MN</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>2424 240th St</t>
+          <t>Hwy 52 South</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>Hallock</t>
+          <t>Harmony</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr">
@@ -66078,7 +66078,7 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>56728</t>
+          <t>55939</t>
         </is>
       </c>
       <c r="H1368" t="inlineStr">
@@ -66106,17 +66106,17 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>Harmony MN</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>Hwy 52 South</t>
+          <t>972 East Pearl Street</t>
         </is>
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>Harmony</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="F1369" t="inlineStr">
@@ -66126,7 +66126,7 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>55939</t>
+          <t>56050</t>
         </is>
       </c>
       <c r="H1369" t="inlineStr">
@@ -66154,7 +66154,7 @@
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Kasota (Pinebelt)</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
@@ -66202,17 +66202,17 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Kasota (Pinebelt)</t>
+          <t>Lakefield MN</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>972 East Pearl Street</t>
+          <t>44107 Okabena Rd</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Lakefield</t>
         </is>
       </c>
       <c r="F1371" t="inlineStr">
@@ -66222,7 +66222,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>56050</t>
+          <t>56150</t>
         </is>
       </c>
       <c r="H1371" t="inlineStr">
@@ -66250,17 +66250,17 @@
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>Lakefield MN</t>
+          <t>Luverne MN</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>44107 Okabena Rd</t>
+          <t>612 W Hatting St</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>Lakefield</t>
+          <t>Luverne</t>
         </is>
       </c>
       <c r="F1372" t="inlineStr">
@@ -66270,7 +66270,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>56150</t>
+          <t>56156</t>
         </is>
       </c>
       <c r="H1372" t="inlineStr">
@@ -66298,17 +66298,17 @@
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>Luverne MN</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>612 W Hatting St</t>
+          <t>63025 150th Street</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr">
         <is>
-          <t>Luverne</t>
+          <t>Alden</t>
         </is>
       </c>
       <c r="F1373" t="inlineStr">
@@ -66318,7 +66318,7 @@
       </c>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>56156</t>
+          <t>56009</t>
         </is>
       </c>
       <c r="H1373" t="inlineStr">
@@ -66346,17 +66346,17 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Marna</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>63025 150th Street</t>
+          <t>43096 85th Street</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>Alden</t>
+          <t>Blue Earth</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr">
@@ -66366,7 +66366,7 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>56009</t>
+          <t>56013</t>
         </is>
       </c>
       <c r="H1374" t="inlineStr">
@@ -66394,17 +66394,17 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>Marna</t>
+          <t>Minnesota/South Dakota</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>43096 85th Street</t>
+          <t>28868 780th Avenue</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>Blue Earth</t>
+          <t>Clarks Grove</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
@@ -66414,12 +66414,12 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>56013</t>
+          <t>56016</t>
         </is>
       </c>
       <c r="H1375" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1375" t="inlineStr">
@@ -66442,17 +66442,17 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Minnesota/South Dakota</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>28868 780th Avenue</t>
+          <t>1358 Highway 65</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>Clarks Grove</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
@@ -66462,12 +66462,12 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>56016</t>
+          <t>55051</t>
         </is>
       </c>
       <c r="H1376" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1376" t="inlineStr">
@@ -66490,17 +66490,17 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Perham</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>1358 Highway 65</t>
+          <t>905 Pinewood Circle</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Perham</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>55051</t>
+          <t>56573</t>
         </is>
       </c>
       <c r="H1377" t="inlineStr">
@@ -66538,17 +66538,17 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Perham</t>
+          <t>Pipestone</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>905 Pinewood Circle</t>
+          <t>653 81st Street</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>Perham</t>
+          <t>Pipestone</t>
         </is>
       </c>
       <c r="F1378" t="inlineStr">
@@ -66558,7 +66558,7 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>56573</t>
+          <t>56164</t>
         </is>
       </c>
       <c r="H1378" t="inlineStr">
@@ -66586,12 +66586,12 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Pipestone</t>
+          <t>Pipestone North</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>653 81st Street</t>
+          <t>807 4th St NE</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr">
@@ -66634,17 +66634,17 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Pipestone North</t>
+          <t>Plainview</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>807 4th St NE</t>
+          <t>55162 241st Avenue</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>Pipestone</t>
+          <t>Plainview</t>
         </is>
       </c>
       <c r="F1380" t="inlineStr">
@@ -66654,7 +66654,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>56164</t>
+          <t>55964</t>
         </is>
       </c>
       <c r="H1380" t="inlineStr">
@@ -66682,17 +66682,17 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Plainview</t>
+          <t>Sargeant</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>55162 241st Avenue</t>
+          <t>304 W Main St</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>Plainview</t>
+          <t>Sargeant</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr">
@@ -66702,7 +66702,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>55964</t>
+          <t>55973</t>
         </is>
       </c>
       <c r="H1381" t="inlineStr">
@@ -66730,17 +66730,17 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Sargeant</t>
+          <t>Sauk Centre (Wholesale)</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>304 W Main St</t>
+          <t>801 Beltline Rd</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr">
         <is>
-          <t>Sargeant</t>
+          <t>Sauk Centre</t>
         </is>
       </c>
       <c r="F1382" t="inlineStr">
@@ -66750,12 +66750,12 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>55973</t>
+          <t>56378</t>
         </is>
       </c>
       <c r="H1382" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1382" t="inlineStr">
@@ -66778,17 +66778,17 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Sauk Centre (Wholesale)</t>
+          <t>Wadena</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>801 Beltline Rd</t>
+          <t>220 Bottemiller Dr</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>Sauk Centre</t>
+          <t>Wadena</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr">
@@ -66798,12 +66798,12 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>56378</t>
+          <t>56482</t>
         </is>
       </c>
       <c r="H1383" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1383" t="inlineStr">
@@ -66826,17 +66826,17 @@
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Wadena</t>
+          <t>Winthrop MN</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>220 Bottemiller Dr</t>
+          <t>Two N. Renville St</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>Wadena</t>
+          <t>Winthrop</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr">
@@ -66846,7 +66846,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>56482</t>
+          <t>55396</t>
         </is>
       </c>
       <c r="H1384" t="inlineStr">
@@ -66864,7 +66864,7 @@
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - MN</t>
+          <t>Nutrien Ag Solutions - NE</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
@@ -66874,27 +66874,27 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Winthrop MN</t>
+          <t>Alliance NE</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>Two N. Renville St</t>
+          <t>2491 Chelsie Way</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>Winthrop</t>
+          <t>Alliance</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>55396</t>
+          <t>69301</t>
         </is>
       </c>
       <c r="H1385" t="inlineStr">
@@ -66922,17 +66922,17 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Alliance NE</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>2491 Chelsie Way</t>
+          <t>11398 719 Road</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>Alliance</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="F1386" t="inlineStr">
@@ -66942,7 +66942,7 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>69301</t>
+          <t>68920</t>
         </is>
       </c>
       <c r="H1386" t="inlineStr">
@@ -66970,17 +66970,17 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Arapahoe</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>11398 719 Road</t>
+          <t>42136 Hwy 6 and 34</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Arapahoe</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr">
@@ -66990,7 +66990,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>68920</t>
+          <t>68922</t>
         </is>
       </c>
       <c r="H1387" t="inlineStr">
@@ -67018,17 +67018,17 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Arapahoe</t>
+          <t>Arlington NE</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>42136 Hwy 6 and 34</t>
+          <t>7098 County Road 15</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>Arapahoe</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr">
@@ -67038,7 +67038,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>68922</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="H1388" t="inlineStr">
@@ -67066,17 +67066,17 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Arlington NE</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>7098 County Road 15</t>
+          <t>1077 County Road B</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr">
@@ -67086,7 +67086,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68003</t>
         </is>
       </c>
       <c r="H1389" t="inlineStr">
@@ -67114,17 +67114,17 @@
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Ashland</t>
+          <t>Beatrice</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>1077 County Road B</t>
+          <t>3400 North 8th Street</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>Ashland</t>
+          <t>Beatrice</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr">
@@ -67134,7 +67134,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>68003</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="H1390" t="inlineStr">
@@ -67162,17 +67162,17 @@
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Beatrice</t>
+          <t>Beemer</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>3400 North 8th Street</t>
+          <t>630 Front St East Highway 275</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>Beatrice</t>
+          <t>Beemer</t>
         </is>
       </c>
       <c r="F1391" t="inlineStr">
@@ -67182,7 +67182,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>68716</t>
         </is>
       </c>
       <c r="H1391" t="inlineStr">
@@ -67210,17 +67210,17 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Beemer</t>
+          <t>Bridgeport</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>630 Front St East Highway 275</t>
+          <t>9262 SO RR Ave</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>Beemer</t>
+          <t>Bridgeport</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
@@ -67230,7 +67230,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>68716</t>
+          <t>69336</t>
         </is>
       </c>
       <c r="H1392" t="inlineStr">
@@ -67258,17 +67258,17 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Chester</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>9262 SO RR Ave</t>
+          <t>421 Croop Street</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Chester</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr">
@@ -67278,7 +67278,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>69336</t>
+          <t>68327</t>
         </is>
       </c>
       <c r="H1393" t="inlineStr">
@@ -67306,17 +67306,17 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Coleridge NE</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>421 Croop Street</t>
+          <t>56603 - 875 Rd.</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Coleridge</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr">
@@ -67326,7 +67326,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>68327</t>
+          <t>68727</t>
         </is>
       </c>
       <c r="H1394" t="inlineStr">
@@ -67354,17 +67354,17 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Coleridge NE</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>56603 - 875 Rd.</t>
+          <t>207 S. Maple Ave</t>
         </is>
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>Coleridge</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr">
@@ -67374,7 +67374,7 @@
       </c>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>68727</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="H1395" t="inlineStr">
@@ -67402,17 +67402,17 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Deshler</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>207 S. Maple Ave</t>
+          <t>5372 Hwy 136</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Deshler</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr">
@@ -67422,7 +67422,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>68335</t>
+          <t>68340</t>
         </is>
       </c>
       <c r="H1396" t="inlineStr">
@@ -67450,17 +67450,17 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Deshler</t>
+          <t>Edgar</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>5372 Hwy 136</t>
+          <t>30251 Road R</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>Deshler</t>
+          <t>Edgar</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr">
@@ -67470,7 +67470,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>68340</t>
+          <t>68935</t>
         </is>
       </c>
       <c r="H1397" t="inlineStr">
@@ -67498,17 +67498,17 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Edgar</t>
+          <t>Elwood</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>30251 Road R</t>
+          <t>101 N Calvert Ave</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>Edgar</t>
+          <t>Elwood</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr">
@@ -67518,7 +67518,7 @@
       </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>68935</t>
+          <t>68937</t>
         </is>
       </c>
       <c r="H1398" t="inlineStr">
@@ -67546,17 +67546,17 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>Elwood</t>
+          <t>Fairbury</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>101 N Calvert Ave</t>
+          <t>71910 HWY 15</t>
         </is>
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>Elwood</t>
+          <t>Fairbury</t>
         </is>
       </c>
       <c r="F1399" t="inlineStr">
@@ -67566,7 +67566,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>68937</t>
+          <t>68352</t>
         </is>
       </c>
       <c r="H1399" t="inlineStr">
@@ -67594,19 +67594,19 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
+          <t>LPI Fairbury MFG</t>
+        </is>
+      </c>
+      <c r="D1400" t="inlineStr">
+        <is>
+          <t>56908 Hwy 8</t>
+        </is>
+      </c>
+      <c r="E1400" t="inlineStr">
+        <is>
           <t>Fairbury</t>
         </is>
       </c>
-      <c r="D1400" t="inlineStr">
-        <is>
-          <t>71910 HWY 15</t>
-        </is>
-      </c>
-      <c r="E1400" t="inlineStr">
-        <is>
-          <t>Fairbury</t>
-        </is>
-      </c>
       <c r="F1400" t="inlineStr">
         <is>
           <t>NE</t>
@@ -67619,7 +67619,7 @@
       </c>
       <c r="H1400" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1400" t="inlineStr">
@@ -67642,17 +67642,17 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>LPI Fairbury MFG</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>56908 Hwy 8</t>
+          <t>2010 RD 11</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>Fairbury</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr">
@@ -67662,12 +67662,12 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>68352</t>
+          <t>68354</t>
         </is>
       </c>
       <c r="H1401" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1401" t="inlineStr">
@@ -67690,17 +67690,17 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Fordyce NE</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>2010 RD 11</t>
+          <t>55503 887 Road</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Fordyce</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr">
@@ -67710,7 +67710,7 @@
       </c>
       <c r="G1402" t="inlineStr">
         <is>
-          <t>68354</t>
+          <t>68736</t>
         </is>
       </c>
       <c r="H1402" t="inlineStr">
@@ -67738,17 +67738,17 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>Fordyce NE</t>
+          <t>Central Stock Loc Fremont</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>55503 887 Road</t>
+          <t>750 S Union St</t>
         </is>
       </c>
       <c r="E1403" t="inlineStr">
         <is>
-          <t>Fordyce</t>
+          <t>Fremont</t>
         </is>
       </c>
       <c r="F1403" t="inlineStr">
@@ -67758,12 +67758,12 @@
       </c>
       <c r="G1403" t="inlineStr">
         <is>
-          <t>68736</t>
+          <t>68025</t>
         </is>
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1403" t="inlineStr">
@@ -67786,7 +67786,7 @@
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>Central Stock Loc Fremont</t>
+          <t>Fremont (Wholesale Prof)</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr">
@@ -67834,12 +67834,12 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>Fremont (Wholesale Prof)</t>
+          <t>Platte Fremont NE-LPI</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>750 S Union St</t>
+          <t>208 E Jackson</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr">
@@ -67859,7 +67859,7 @@
       </c>
       <c r="H1405" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1405" t="inlineStr">
@@ -67882,17 +67882,17 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>Platte Fremont NE-LPI</t>
+          <t>Grant NE</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>208 E Jackson</t>
+          <t>76164 Highway 61</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>Fremont</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr">
@@ -67902,7 +67902,7 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>68025</t>
+          <t>69140</t>
         </is>
       </c>
       <c r="H1406" t="inlineStr">
@@ -67930,17 +67930,17 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>Grant NE</t>
+          <t>Hastings</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>76164 Highway 61</t>
+          <t>150 N Blain Ave</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Hastings</t>
         </is>
       </c>
       <c r="F1407" t="inlineStr">
@@ -67950,7 +67950,7 @@
       </c>
       <c r="G1407" t="inlineStr">
         <is>
-          <t>69140</t>
+          <t>68901</t>
         </is>
       </c>
       <c r="H1407" t="inlineStr">
@@ -67978,17 +67978,17 @@
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>Hastings</t>
+          <t>Heartwell East</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>150 N Blain Ave</t>
+          <t>1613 41st Rd</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>Hastings</t>
+          <t>Heartwell</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr">
@@ -67998,7 +67998,7 @@
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>68901</t>
+          <t>68945</t>
         </is>
       </c>
       <c r="H1408" t="inlineStr">
@@ -68026,12 +68026,12 @@
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>Heartwell East</t>
+          <t>Heartwell West</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>1613 41st Rd</t>
+          <t>2111 Hwy 6</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr">
@@ -68074,17 +68074,17 @@
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Heartwell West</t>
+          <t>Holdrege NE</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>2111 Hwy 6</t>
+          <t>1425 Brewster Road</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>Heartwell</t>
+          <t>Holdrege</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr">
@@ -68094,7 +68094,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>68945</t>
+          <t>68949</t>
         </is>
       </c>
       <c r="H1410" t="inlineStr">
@@ -68122,12 +68122,12 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>Holdrege NE</t>
+          <t>WAC Terminal</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>1425 Brewster Road</t>
+          <t>11828 733 Road</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr">
@@ -68147,7 +68147,7 @@
       </c>
       <c r="H1411" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1411" t="inlineStr">
@@ -68170,17 +68170,17 @@
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>WAC Terminal</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>11828 733 Road</t>
+          <t>901 East Highway 6</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr">
         <is>
-          <t>Holdrege</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="F1412" t="inlineStr">
@@ -68190,12 +68190,12 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>68949</t>
+          <t>69033</t>
         </is>
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1412" t="inlineStr">
@@ -68218,12 +68218,12 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Nebraska Seed Shed</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>901 East Highway 6</t>
+          <t>73905 328 Avenue</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr">
@@ -68266,17 +68266,17 @@
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>Nebraska Seed Shed</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>73905 328 Avenue</t>
+          <t>63019 730 Road</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F1414" t="inlineStr">
@@ -68286,12 +68286,12 @@
       </c>
       <c r="G1414" t="inlineStr">
         <is>
-          <t>69033</t>
+          <t>68378</t>
         </is>
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1414" t="inlineStr">
@@ -68314,17 +68314,17 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Kearney</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>63019 730 Road</t>
+          <t>1720 16th Ave</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Kearney</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr">
@@ -68334,7 +68334,7 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>68378</t>
+          <t>68845</t>
         </is>
       </c>
       <c r="H1415" t="inlineStr">
@@ -68362,17 +68362,17 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
-          <t>Kearney</t>
+          <t>Lamar NE</t>
         </is>
       </c>
       <c r="D1416" t="inlineStr">
         <is>
-          <t>1720 16th Ave</t>
+          <t>73994 Avenue 314</t>
         </is>
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>Kearney</t>
+          <t>Lamar</t>
         </is>
       </c>
       <c r="F1416" t="inlineStr">
@@ -68382,7 +68382,7 @@
       </c>
       <c r="G1416" t="inlineStr">
         <is>
-          <t>68845</t>
+          <t>69023</t>
         </is>
       </c>
       <c r="H1416" t="inlineStr">
@@ -68410,17 +68410,17 @@
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>Lamar NE</t>
+          <t>Laurel NE</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>73994 Avenue 314</t>
+          <t>86954 573 Ave</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>Lamar</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr">
@@ -68430,7 +68430,7 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>69023</t>
+          <t>68745</t>
         </is>
       </c>
       <c r="H1417" t="inlineStr">
@@ -68458,17 +68458,17 @@
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>Laurel NE</t>
+          <t>McCook</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>86954 573 Ave</t>
+          <t>205 W. Railroad Service Rd</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>McCook</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr">
@@ -68478,7 +68478,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>68745</t>
+          <t>69001</t>
         </is>
       </c>
       <c r="H1418" t="inlineStr">
@@ -68554,17 +68554,17 @@
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>McCook</t>
+          <t>Ogallala - NHP</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>205 W. Railroad Service Rd</t>
+          <t>201 Road East 80</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>McCook</t>
+          <t>Ogallala</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr">
@@ -68574,7 +68574,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>69001</t>
+          <t>69153</t>
         </is>
       </c>
       <c r="H1420" t="inlineStr">
@@ -68602,17 +68602,17 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>Ogallala - NHP</t>
+          <t>Oxford</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>201 Road East 80</t>
+          <t>71853 A Road</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>Ogallala</t>
+          <t>Oxford</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr">
@@ -68622,7 +68622,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>69153</t>
+          <t>68967</t>
         </is>
       </c>
       <c r="H1421" t="inlineStr">
@@ -68650,17 +68650,17 @@
       </c>
       <c r="C1422" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>71853 A Road</t>
+          <t>33855 Navaho Rd</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F1422" t="inlineStr">
@@ -68670,7 +68670,7 @@
       </c>
       <c r="G1422" t="inlineStr">
         <is>
-          <t>68967</t>
+          <t>68869</t>
         </is>
       </c>
       <c r="H1422" t="inlineStr">
@@ -68698,17 +68698,17 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>South Sioux City</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>33855 Navaho Rd</t>
+          <t>4505 Dakota Ave</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>South Sioux City</t>
         </is>
       </c>
       <c r="F1423" t="inlineStr">
@@ -68718,7 +68718,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>68869</t>
+          <t>68776</t>
         </is>
       </c>
       <c r="H1423" t="inlineStr">
@@ -68746,17 +68746,17 @@
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>South Sioux City</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>4505 Dakota Ave</t>
+          <t>1221 E 3rd Street</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>South Sioux City</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="F1424" t="inlineStr">
@@ -68766,7 +68766,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>68776</t>
+          <t>68978</t>
         </is>
       </c>
       <c r="H1424" t="inlineStr">
@@ -68794,17 +68794,17 @@
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Thurston</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>1221 E 3rd Street</t>
+          <t>605 W. Lemmon Hwy 87A</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Thurston</t>
         </is>
       </c>
       <c r="F1425" t="inlineStr">
@@ -68814,7 +68814,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>68978</t>
+          <t>68062</t>
         </is>
       </c>
       <c r="H1425" t="inlineStr">
@@ -68842,17 +68842,17 @@
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Thurston</t>
+          <t>Waterloo NE</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>605 W. Lemmon Hwy 87A</t>
+          <t>301 N. Front Street</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>Thurston</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="F1426" t="inlineStr">
@@ -68862,7 +68862,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>68062</t>
+          <t>68069</t>
         </is>
       </c>
       <c r="H1426" t="inlineStr">
@@ -68880,7 +68880,7 @@
     <row r="1427">
       <c r="A1427" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - NE</t>
+          <t>Nutrien Ag Solutions - SD</t>
         </is>
       </c>
       <c r="B1427" t="inlineStr">
@@ -68890,27 +68890,27 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>Waterloo NE</t>
+          <t>Beardsley</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>301 N. Front Street</t>
+          <t>41055 282nd Street</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Parkston</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>68069</t>
+          <t>57366</t>
         </is>
       </c>
       <c r="H1427" t="inlineStr">
@@ -68938,17 +68938,17 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>Beardsley</t>
+          <t>Bridgewater SD</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>41055 282nd Street</t>
+          <t>26519 US Hwy 81</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>Parkston</t>
+          <t>Bridgewater</t>
         </is>
       </c>
       <c r="F1428" t="inlineStr">
@@ -68958,7 +68958,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>57366</t>
+          <t>57319</t>
         </is>
       </c>
       <c r="H1428" t="inlineStr">
@@ -68986,17 +68986,17 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>Bridgewater SD</t>
+          <t>Brookings (Wholesale)</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>26519 US Hwy 81</t>
+          <t>2011 32nd Ave</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>Bridgewater</t>
+          <t>Brookings</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr">
@@ -69006,12 +69006,12 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>57319</t>
+          <t>57006</t>
         </is>
       </c>
       <c r="H1429" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1429" t="inlineStr">
@@ -69034,7 +69034,7 @@
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>Brookings (Wholesale)</t>
+          <t>Central Stock Loc Brookings</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr">
@@ -69082,17 +69082,17 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Central Stock Loc Brookings</t>
+          <t>Centerville</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>2011 32nd Ave</t>
+          <t>30195 SD Highway 19</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>Brookings</t>
+          <t>Centerville</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr">
@@ -69102,12 +69102,12 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>57006</t>
+          <t>57014</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1431" t="inlineStr">
@@ -69130,17 +69130,17 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Centerville</t>
+          <t>Emery</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>30195 SD Highway 19</t>
+          <t>220 Industrial Road</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>Centerville</t>
+          <t>Emery</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr">
@@ -69150,7 +69150,7 @@
       </c>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>57014</t>
+          <t>57332</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
@@ -69178,17 +69178,17 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Meckling</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
         <is>
-          <t>220 Industrial Road</t>
+          <t>45682 W. Hwy 50</t>
         </is>
       </c>
       <c r="E1433" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Meckling</t>
         </is>
       </c>
       <c r="F1433" t="inlineStr">
@@ -69198,7 +69198,7 @@
       </c>
       <c r="G1433" t="inlineStr">
         <is>
-          <t>57332</t>
+          <t>57069</t>
         </is>
       </c>
       <c r="H1433" t="inlineStr">
@@ -69226,17 +69226,17 @@
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Meckling</t>
+          <t>Northville</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>45682 W. Hwy 50</t>
+          <t>10 W Main St</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>Meckling</t>
+          <t>Northville</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr">
@@ -69246,7 +69246,7 @@
       </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>57069</t>
+          <t>57465</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
@@ -69274,17 +69274,17 @@
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Northville</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>10 W Main St</t>
+          <t>225 W 5th Street</t>
         </is>
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>Northville</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr">
@@ -69294,7 +69294,7 @@
       </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>57465</t>
+          <t>57053</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -69322,17 +69322,17 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Spearfish</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>225 W 5th Street</t>
+          <t>5230 Airport Drive</t>
         </is>
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Spearfish</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr">
@@ -69342,7 +69342,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>57053</t>
+          <t>57783</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -69370,7 +69370,7 @@
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Spearfish</t>
+          <t>Spearfish (Pinebelt)</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
@@ -69418,17 +69418,17 @@
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Spearfish (Pinebelt)</t>
+          <t>Vermillion SD (Greenfield)</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>5230 Airport Drive</t>
+          <t>1614 317th St</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>Spearfish</t>
+          <t>Vermillion</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr">
@@ -69438,7 +69438,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>57783</t>
+          <t>57069</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -69466,12 +69466,12 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>Vermillion SD (Greenfield)</t>
+          <t>Vermillion Shop SD</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>1614 317th St</t>
+          <t>2600 University Rd</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
@@ -69504,37 +69504,37 @@
     <row r="1440">
       <c r="A1440" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - SD</t>
+          <t>Prairieland FS - IL</t>
         </is>
       </c>
       <c r="B1440" t="inlineStr">
         <is>
-          <t>Nutrien Ag</t>
+          <t>Prairieland FS</t>
         </is>
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Vermillion Shop SD</t>
+          <t>Auburn Agronomy</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr">
         <is>
-          <t>2600 University Rd</t>
+          <t>407 E Jackson St</t>
         </is>
       </c>
       <c r="E1440" t="inlineStr">
         <is>
-          <t>Vermillion</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="F1440" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1440" t="inlineStr">
         <is>
-          <t>57069</t>
+          <t>62615</t>
         </is>
       </c>
       <c r="H1440" t="inlineStr">
@@ -69544,7 +69544,7 @@
       </c>
       <c r="I1440" t="inlineStr">
         <is>
-          <t>Nutrien</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1440" t="inlineStr"/>
@@ -69562,17 +69562,17 @@
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>Auburn Agronomy</t>
+          <t>Franklin Agronomy</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>407 E Jackson St</t>
+          <t>2950 Illinois Highway 104</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
@@ -69582,7 +69582,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>62615</t>
+          <t>62638</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -69610,17 +69610,17 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Franklin Agronomy</t>
+          <t>Golden Agronomy</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>2950 Illinois Highway 104</t>
+          <t>908 Prairie Mills Rd</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="F1442" t="inlineStr">
@@ -69630,7 +69630,7 @@
       </c>
       <c r="G1442" t="inlineStr">
         <is>
-          <t>62638</t>
+          <t>62339</t>
         </is>
       </c>
       <c r="H1442" t="inlineStr">
@@ -69658,17 +69658,17 @@
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Golden Agronomy</t>
+          <t>Greenview Agronomy</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>908 Prairie Mills Rd</t>
+          <t>24580 Jellystone Ave</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Greenview</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
@@ -69678,7 +69678,7 @@
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>62339</t>
+          <t>62642</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -69706,17 +69706,17 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>Greenview Agronomy</t>
+          <t>Huntsville Agronomy</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>24580 Jellystone Ave</t>
+          <t>6299 LaPrairie Rd</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>Greenview</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
@@ -69726,7 +69726,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>62642</t>
+          <t>62344</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -69754,17 +69754,17 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Huntsville Agronomy</t>
+          <t>Jacksonville Agronomy</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>6299 LaPrairie Rd</t>
+          <t>1905 W Morton Ave</t>
         </is>
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
@@ -69774,7 +69774,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>62344</t>
+          <t>62650</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -69802,12 +69802,12 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>Jacksonville Agronomy</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>1905 W Morton Ave</t>
+          <t>1132 Veterans Dr</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr">
@@ -69827,7 +69827,7 @@
       </c>
       <c r="H1446" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1446" t="inlineStr">
@@ -69850,12 +69850,12 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>Jacksonville Office</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>1132 Veterans Dr</t>
+          <t>701 Henry St</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr">
@@ -69875,7 +69875,7 @@
       </c>
       <c r="H1447" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1447" t="inlineStr">
@@ -69898,17 +69898,17 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Jacksonville Office</t>
+          <t>Mount Sterling Agronomy</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>701 Henry St</t>
+          <t>104 W Railroad St</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Mount Sterling</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
@@ -69918,12 +69918,12 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>62650</t>
+          <t>62353</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1448" t="inlineStr">
@@ -69946,17 +69946,17 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Mount Sterling Agronomy</t>
+          <t>Paloma Agronomy</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>104 W Railroad St</t>
+          <t>1644 US-24</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr">
         <is>
-          <t>Mount Sterling</t>
+          <t>Paloma</t>
         </is>
       </c>
       <c r="F1449" t="inlineStr">
@@ -69966,7 +69966,7 @@
       </c>
       <c r="G1449" t="inlineStr">
         <is>
-          <t>62353</t>
+          <t>62359</t>
         </is>
       </c>
       <c r="H1449" t="inlineStr">
@@ -69999,7 +69999,7 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>1644 US-24</t>
+          <t>Highway 24</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
@@ -70042,17 +70042,17 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Paloma Agronomy</t>
+          <t>Pittsfield Agronomy</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>Highway 24</t>
+          <t>1201 E Washington St</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>Paloma</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr">
@@ -70062,7 +70062,7 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>62359</t>
+          <t>62363</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
@@ -70090,12 +70090,12 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Pittsfield Agronomy</t>
+          <t>Pittsfield Office</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>1201 E Washington St</t>
+          <t>1301 E Washington St</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
@@ -70115,7 +70115,7 @@
       </c>
       <c r="H1452" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1452" t="inlineStr">
@@ -70138,17 +70138,17 @@
       </c>
       <c r="C1453" t="inlineStr">
         <is>
-          <t>Pittsfield Office</t>
+          <t>Rushville Agronomy</t>
         </is>
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>1301 E Washington St</t>
+          <t>551 Macomb Rd</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Rushville</t>
         </is>
       </c>
       <c r="F1453" t="inlineStr">
@@ -70158,12 +70158,12 @@
       </c>
       <c r="G1453" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>62681</t>
         </is>
       </c>
       <c r="H1453" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1453" t="inlineStr">
@@ -70186,12 +70186,12 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Rushville Agronomy</t>
+          <t>Rushville</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>551 Macomb Rd</t>
+          <t>605 Brown St</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
@@ -70234,17 +70234,17 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Rushville</t>
+          <t>Winchester</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>605 Brown St</t>
+          <t>97 N Commercial St</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>Rushville</t>
+          <t>Winchester</t>
         </is>
       </c>
       <c r="F1455" t="inlineStr">
@@ -70254,7 +70254,7 @@
       </c>
       <c r="G1455" t="inlineStr">
         <is>
-          <t>62681</t>
+          <t>62694</t>
         </is>
       </c>
       <c r="H1455" t="inlineStr">
@@ -70270,52 +70270,52 @@
       <c r="J1455" t="inlineStr"/>
     </row>
     <row r="1456">
-      <c r="A1456" t="inlineStr">
-        <is>
-          <t>Prairieland FS - IL</t>
-        </is>
-      </c>
+      <c r="A1456" t="inlineStr"/>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>Prairieland FS</t>
+          <t>PRO Coop</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Winchester</t>
+          <t>Manson</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>97 N Commercial St</t>
+          <t>1303 9th Ave</t>
         </is>
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>Winchester</t>
+          <t>Manson</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>62694</t>
+          <t>50563</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1456" t="inlineStr">
         <is>
-          <t>Growmark</t>
-        </is>
-      </c>
-      <c r="J1456" t="inlineStr"/>
+          <t>Winfield</t>
+        </is>
+      </c>
+      <c r="J1456" t="inlineStr">
+        <is>
+          <t>PRO Cooperative - IA</t>
+        </is>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" t="inlineStr"/>
@@ -70326,17 +70326,17 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Laurens</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>1303 9th Ave</t>
+          <t>320 West Main</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Laurens</t>
         </is>
       </c>
       <c r="F1457" t="inlineStr">
@@ -70346,7 +70346,7 @@
       </c>
       <c r="G1457" t="inlineStr">
         <is>
-          <t>50563</t>
+          <t>50554</t>
         </is>
       </c>
       <c r="H1457" t="inlineStr">
@@ -70374,17 +70374,17 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Laurens</t>
+          <t>Pocahontas Elevator</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>320 West Main</t>
+          <t>101 North Main St</t>
         </is>
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>Laurens</t>
+          <t>Pocahontas</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr">
@@ -70394,12 +70394,12 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>50554</t>
+          <t>50574</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain/Feed</t>
         </is>
       </c>
       <c r="I1458" t="inlineStr">
@@ -70422,17 +70422,17 @@
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Pocahontas Elevator</t>
+          <t>Bradgate</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>101 North Main St</t>
+          <t>500 South Public St</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>Pocahontas</t>
+          <t>Bradgate</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr">
@@ -70442,12 +70442,12 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>50520</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>Grain/Feed</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1459" t="inlineStr">
@@ -70470,17 +70470,17 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Bradgate</t>
+          <t>Rolfe Agronomy Center</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>500 South Public St</t>
+          <t>601 Broad St</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>Bradgate</t>
+          <t>Rolfe</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr">
@@ -70490,12 +70490,12 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>50520</t>
+          <t>50581</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1460" t="inlineStr">
@@ -70518,17 +70518,17 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Rolfe Agronomy Center</t>
+          <t>Plover</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>601 Broad St</t>
+          <t>402 Jackson</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>Rolfe</t>
+          <t>Plover</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
@@ -70538,12 +70538,12 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>50581</t>
+          <t>50573</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1461" t="inlineStr">
@@ -70566,17 +70566,17 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Plover</t>
+          <t>Ruthven</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>402 Jackson</t>
+          <t>1409 Main St</t>
         </is>
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>Plover</t>
+          <t>Ruthven</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
@@ -70586,7 +70586,7 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>50573</t>
+          <t>51358</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
@@ -70614,17 +70614,17 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Ruthven</t>
+          <t>Wallingford</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>1409 Main St</t>
+          <t>115 Elevator Rd</t>
         </is>
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>Ruthven</t>
+          <t>Wallingford</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr">
@@ -70634,7 +70634,7 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>51358</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
@@ -70662,17 +70662,17 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Wallingford</t>
+          <t>Terril</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>115 Elevator Rd</t>
+          <t>402 Warner Ave</t>
         </is>
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>Wallingford</t>
+          <t>Terril</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
@@ -70682,7 +70682,7 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>51365</t>
+          <t>51364</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
@@ -70710,17 +70710,17 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Terril</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>402 Warner Ave</t>
+          <t>110 Main St</t>
         </is>
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>Terril</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr">
@@ -70730,7 +70730,7 @@
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>51364</t>
+          <t>50541</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -70758,17 +70758,17 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Rutland</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>110 Main St</t>
+          <t>206 Sheridan</t>
         </is>
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Rutland</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr">
@@ -70778,7 +70778,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>50541</t>
+          <t>50582</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -70806,17 +70806,17 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Rutland</t>
+          <t>Estherville</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>206 Sheridan</t>
+          <t>108 S 3rd St</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>Rutland</t>
+          <t>Estherville</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr">
@@ -70826,7 +70826,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>50582</t>
+          <t>51334</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -70854,17 +70854,17 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Estherville</t>
+          <t>Havelock</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>108 S 3rd St</t>
+          <t>446 Hwy 10</t>
         </is>
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>Estherville</t>
+          <t>Havelock</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr">
@@ -70874,7 +70874,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>51334</t>
+          <t>50546</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -70902,17 +70902,17 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Ayrshire</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>446 Hwy 10</t>
+          <t>3717 420th St</t>
         </is>
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Ayrshire</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr">
@@ -70922,7 +70922,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>50546</t>
+          <t>50515</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -70942,52 +70942,52 @@
       </c>
     </row>
     <row r="1470">
-      <c r="A1470" t="inlineStr"/>
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>RedStar Fertilizer - NE MN</t>
+        </is>
+      </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>PRO Coop</t>
+          <t>RedStar</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Ayrshire</t>
+          <t>Fairmont (MN)</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>3717 420th St</t>
+          <t>968 160th Ave</t>
         </is>
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>Ayrshire</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>50515</t>
+          <t>56031</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1470" t="inlineStr">
         <is>
-          <t>Winfield</t>
-        </is>
-      </c>
-      <c r="J1470" t="inlineStr">
-        <is>
-          <t>PRO Cooperative - IA</t>
-        </is>
-      </c>
+          <t>IAP</t>
+        </is>
+      </c>
+      <c r="J1470" t="inlineStr"/>
     </row>
     <row r="1471">
       <c r="A1471" t="inlineStr">
@@ -71002,27 +71002,27 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Fairmont (MN)</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>968 160th Ave</t>
+          <t>1230 350th St</t>
         </is>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>56031</t>
+          <t>68627</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -71050,17 +71050,17 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Cedar Rapids</t>
+          <t>Columbus – Distribution Center</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>1230 350th St</t>
+          <t>4930 Howard Blvd</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>Cedar Rapids</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr">
@@ -71070,12 +71070,12 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>68627</t>
+          <t>68601</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="I1472" t="inlineStr">
@@ -71098,17 +71098,17 @@
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Columbus – Distribution Center</t>
+          <t>Leigh – Main Office</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>4930 Howard Blvd</t>
+          <t>48303 115 Ave</t>
         </is>
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Leigh</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr">
@@ -71118,12 +71118,12 @@
       </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>68601</t>
+          <t>68643</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1473" t="inlineStr">
@@ -71146,17 +71146,17 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Leigh – Main Office</t>
+          <t>Osceola</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>48303 115 Ave</t>
+          <t>210 Ridge St</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>Leigh</t>
+          <t>Osceola</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr">
@@ -71166,12 +71166,12 @@
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>68643</t>
+          <t>68651</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1474" t="inlineStr">
@@ -71184,37 +71184,37 @@
     <row r="1475">
       <c r="A1475" t="inlineStr">
         <is>
-          <t>RedStar Fertilizer - NE MN</t>
+          <t>South Central FS - IL</t>
         </is>
       </c>
       <c r="B1475" t="inlineStr">
         <is>
-          <t>RedStar</t>
+          <t>South Central FS</t>
         </is>
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Osceola</t>
+          <t>South Central FS – Altamont</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>210 Ridge St</t>
+          <t>7471 N 300th St</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>Osceola</t>
+          <t>Altamont</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>68651</t>
+          <t>62411</t>
         </is>
       </c>
       <c r="H1475" t="inlineStr">
@@ -71224,7 +71224,7 @@
       </c>
       <c r="I1475" t="inlineStr">
         <is>
-          <t>IAP</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1475" t="inlineStr"/>
@@ -71242,12 +71242,12 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>South Central FS – Altamont</t>
+          <t>Altamont Agronomy</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>7471 N 300th St</t>
+          <t>502 S Charles St</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr">
@@ -71290,17 +71290,17 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Altamont Agronomy</t>
+          <t>Effingham Agronomy</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>502 S Charles St</t>
+          <t>203 E Willow St</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>Altamont</t>
+          <t>Effingham</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr">
@@ -71310,7 +71310,7 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>62411</t>
+          <t>62401</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
@@ -71338,12 +71338,12 @@
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Effingham Agronomy</t>
+          <t>South Central FS – Effingham (Willow St)</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>203 E Willow St</t>
+          <t>410 S Willow St</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
@@ -71363,7 +71363,7 @@
       </c>
       <c r="H1478" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1478" t="inlineStr">
@@ -71386,12 +71386,12 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>South Central FS – Effingham (Willow St)</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>410 S Willow St</t>
+          <t>405 S Banker St</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
@@ -71411,7 +71411,7 @@
       </c>
       <c r="H1479" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1479" t="inlineStr">
@@ -71434,17 +71434,17 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>South Central FS – Flora</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>405 S Banker St</t>
+          <t>404 W North Ave</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>Effingham</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr">
@@ -71454,12 +71454,12 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>62401</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1480" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1480" t="inlineStr">
@@ -71482,12 +71482,12 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>South Central FS – Flora</t>
+          <t>Flora Agronomy</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>404 W North Ave</t>
+          <t>1266 Hwy 50</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
@@ -71530,17 +71530,17 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>Flora Agronomy</t>
+          <t>Greenville</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>1266 Hwy 50</t>
+          <t>1715 E City Route 40</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Greenville</t>
         </is>
       </c>
       <c r="F1482" t="inlineStr">
@@ -71550,7 +71550,7 @@
       </c>
       <c r="G1482" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62246</t>
         </is>
       </c>
       <c r="H1482" t="inlineStr">
@@ -71578,17 +71578,17 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Greenville</t>
+          <t>South Central FS – St. Peter</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>1715 E City Route 40</t>
+          <t>510 E Railroad St</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>Greenville</t>
+          <t>St. Peter</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr">
@@ -71598,7 +71598,7 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>62246</t>
+          <t>62880</t>
         </is>
       </c>
       <c r="H1483" t="inlineStr">
@@ -71626,17 +71626,17 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>South Central FS – St. Peter</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>510 E Railroad St</t>
+          <t>708 S Meridian St</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>St. Peter</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="F1484" t="inlineStr">
@@ -71646,7 +71646,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>62880</t>
+          <t>62468</t>
         </is>
       </c>
       <c r="H1484" t="inlineStr">
@@ -71674,17 +71674,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Tower Hill Location</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>708 S Meridian St</t>
+          <t>103 E Freemont St</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Tower Hill</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr">
@@ -71694,12 +71694,12 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>62468</t>
+          <t>62571</t>
         </is>
       </c>
       <c r="H1485" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1485" t="inlineStr">
@@ -71722,17 +71722,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Tower Hill Location</t>
+          <t>Vandalia Agronomy</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>103 E Freemont St</t>
+          <t>1506 Veterans Ave</t>
         </is>
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>Tower Hill</t>
+          <t>Vandalia</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr">
@@ -71742,12 +71742,12 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="H1486" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1486" t="inlineStr">
@@ -71760,37 +71760,37 @@
     <row r="1487">
       <c r="A1487" t="inlineStr">
         <is>
-          <t>South Central FS - IL</t>
+          <t>Sunrise Cooperative - OH</t>
         </is>
       </c>
       <c r="B1487" t="inlineStr">
         <is>
-          <t>South Central FS</t>
+          <t>Sunrise Cooperative</t>
         </is>
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>Vandalia Agronomy</t>
+          <t>Attica Agronomy</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>1506 Veterans Ave</t>
+          <t>3568 State Route 4</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>Vandalia</t>
+          <t>Attica</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>62471</t>
+          <t>44807</t>
         </is>
       </c>
       <c r="H1487" t="inlineStr">
@@ -71800,7 +71800,7 @@
       </c>
       <c r="I1487" t="inlineStr">
         <is>
-          <t>Growmark</t>
+          <t>Winfield</t>
         </is>
       </c>
       <c r="J1487" t="inlineStr"/>
@@ -71823,7 +71823,7 @@
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>3568 State Route 4</t>
+          <t>3568 St. Rt. 4</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr">
@@ -71866,17 +71866,17 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Attica Agronomy</t>
+          <t>Botkins Grain &amp; Agronomy Hub</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>3568 St. Rt. 4</t>
+          <t>400 W Walnut Street</t>
         </is>
       </c>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>Attica</t>
+          <t>Botkins</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr">
@@ -71886,12 +71886,12 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>44807</t>
+          <t>45306</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1489" t="inlineStr">
@@ -71914,17 +71914,17 @@
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Botkins Grain &amp; Agronomy Hub</t>
+          <t>Clyde Grain</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>400 W Walnut Street</t>
+          <t>1100 Burkholder Rd.</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>Botkins</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr">
@@ -71934,12 +71934,12 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>45306</t>
+          <t>43410</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1490" t="inlineStr">
@@ -71962,17 +71962,17 @@
       </c>
       <c r="C1491" t="inlineStr">
         <is>
-          <t>Clyde Grain</t>
+          <t>Crestline Agronomy</t>
         </is>
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>1100 Burkholder Rd.</t>
+          <t>3000 W Bucyrus St</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Crestline</t>
         </is>
       </c>
       <c r="F1491" t="inlineStr">
@@ -71982,12 +71982,12 @@
       </c>
       <c r="G1491" t="inlineStr">
         <is>
-          <t>43410</t>
+          <t>44827</t>
         </is>
       </c>
       <c r="H1491" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1491" t="inlineStr">
@@ -72010,17 +72010,17 @@
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Crestline Agronomy</t>
+          <t>Ballville Agronomy</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>3000 W Bucyrus St</t>
+          <t>703 South St Rt 53</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>Crestline</t>
+          <t>Fremont</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr">
@@ -72030,7 +72030,7 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>44827</t>
+          <t>43420</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
@@ -72058,17 +72058,17 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Ballville Agronomy</t>
+          <t>PCT | Sunrise (Kettlersville)</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>703 South St Rt 53</t>
+          <t>16420 McCartyville Rd</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>Fremont</t>
+          <t>Kettlersville</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr">
@@ -72078,7 +72078,7 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>43420</t>
+          <t>45336</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
@@ -72106,17 +72106,17 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>PCT | Sunrise (Kettlersville)</t>
+          <t>Norwalk Agronomy</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>16420 McCartyville Rd</t>
+          <t>3130 Greenwich-Milan TL Rd N</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>Kettlersville</t>
+          <t>Norwalk</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr">
@@ -72126,7 +72126,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>45336</t>
+          <t>44857</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
@@ -72159,7 +72159,7 @@
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>3130 Greenwich-Milan TL Rd N</t>
+          <t>3130 Greenwich-Milan T.L. Road North</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr">
@@ -72202,17 +72202,17 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Norwalk Agronomy</t>
+          <t>Osgood Agronomy &amp; Grain</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>3130 Greenwich-Milan T.L. Road North</t>
+          <t>17 E Main St</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>Norwalk</t>
+          <t>Osgood</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr">
@@ -72222,12 +72222,12 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>44857</t>
+          <t>45351</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1496" t="inlineStr">
@@ -72250,17 +72250,17 @@
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>Osgood Agronomy &amp; Grain</t>
+          <t>South Charleston Agronomy</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>17 E Main St</t>
+          <t>10844 Huntington Rd</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>Osgood</t>
+          <t>South Charleston</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr">
@@ -72270,12 +72270,12 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>45351</t>
+          <t>45368</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1497" t="inlineStr">
@@ -72298,12 +72298,12 @@
       </c>
       <c r="C1498" t="inlineStr">
         <is>
-          <t>South Charleston Agronomy</t>
+          <t>South Charleston Fertilizer Hub</t>
         </is>
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>10844 Huntington Rd</t>
+          <t>10660 Huntington Rd</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr">
@@ -72323,7 +72323,7 @@
       </c>
       <c r="H1498" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1498" t="inlineStr">
@@ -72346,12 +72346,12 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>South Charleston Fertilizer Hub</t>
+          <t>South Charleston Seed Hub</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>10660 Huntington Rd</t>
+          <t>11888 State Route 41</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr">
@@ -72399,7 +72399,7 @@
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>11888 State Route 41</t>
+          <t>11888 SR 41</t>
         </is>
       </c>
       <c r="E1500" t="inlineStr">
@@ -72442,12 +72442,12 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>South Charleston Seed Hub</t>
+          <t>South Charleston Grain</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>11888 SR 41</t>
+          <t>21 Woodward St</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr">
@@ -72467,7 +72467,7 @@
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1501" t="inlineStr">
@@ -72490,17 +72490,17 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>South Charleston Grain</t>
+          <t>Uniopolis Agronomy &amp; Grain</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>21 Woodward St</t>
+          <t>301 E Ohio St</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr">
         <is>
-          <t>South Charleston</t>
+          <t>Uniopolis</t>
         </is>
       </c>
       <c r="F1502" t="inlineStr">
@@ -72510,12 +72510,12 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>45368</t>
+          <t>45888</t>
         </is>
       </c>
       <c r="H1502" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1502" t="inlineStr">
@@ -72538,17 +72538,17 @@
       </c>
       <c r="C1503" t="inlineStr">
         <is>
-          <t>Uniopolis Agronomy &amp; Grain</t>
+          <t>Clarksfield Grain</t>
         </is>
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>301 E Ohio St</t>
+          <t>1981 Fitchville River Rd.</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr">
         <is>
-          <t>Uniopolis</t>
+          <t>Wakeman</t>
         </is>
       </c>
       <c r="F1503" t="inlineStr">
@@ -72558,12 +72558,12 @@
       </c>
       <c r="G1503" t="inlineStr">
         <is>
-          <t>45888</t>
+          <t>44889</t>
         </is>
       </c>
       <c r="H1503" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1503" t="inlineStr">
@@ -72586,17 +72586,17 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>Clarksfield Grain</t>
+          <t>Starbuck Agronomy &amp; Energy</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>1981 Fitchville River Rd.</t>
+          <t>310 Starbuck Rd</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr">
         <is>
-          <t>Wakeman</t>
+          <t>Wilmington</t>
         </is>
       </c>
       <c r="F1504" t="inlineStr">
@@ -72606,12 +72606,12 @@
       </c>
       <c r="G1504" t="inlineStr">
         <is>
-          <t>44889</t>
+          <t>45177</t>
         </is>
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy, Energy</t>
         </is>
       </c>
       <c r="I1504" t="inlineStr">
@@ -72624,47 +72624,47 @@
     <row r="1505">
       <c r="A1505" t="inlineStr">
         <is>
-          <t>Sunrise Cooperative - OH</t>
+          <t>Three Rivers FS - IA</t>
         </is>
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>Sunrise Cooperative</t>
+          <t>Three Rivers FS</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>Starbuck Agronomy &amp; Energy</t>
+          <t>Corporate Headquarters</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>310 Starbuck Rd</t>
+          <t>1200 Field of Dreams Way</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>Wilmington</t>
+          <t>Dyersville</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>45177</t>
+          <t>52040</t>
         </is>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>Agronomy, Energy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1505" t="inlineStr">
         <is>
-          <t>Winfield</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1505" t="inlineStr"/>
@@ -72682,12 +72682,12 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Corporate Headquarters</t>
+          <t>Dyersville Operations</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>1200 Field of Dreams Way</t>
+          <t>32199 Olde Castle Road</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr">
@@ -72707,7 +72707,7 @@
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1506" t="inlineStr">
@@ -72730,7 +72730,7 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Dyersville Operations</t>
+          <t>FAST STOP – Dyersville</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr">
@@ -72778,17 +72778,17 @@
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>FAST STOP – Dyersville</t>
+          <t>Epworth Agronomy</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>32199 Olde Castle Road</t>
+          <t>303 North Center Ave</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>Dyersville</t>
+          <t>Epworth</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr">
@@ -72798,12 +72798,12 @@
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>52040</t>
+          <t>52045</t>
         </is>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1508" t="inlineStr">
@@ -72826,17 +72826,17 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Epworth Agronomy</t>
+          <t>Centralia Agronomy</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>303 North Center Ave</t>
+          <t>18179 Olde Hiway Road</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr">
         <is>
-          <t>Epworth</t>
+          <t>Centralia</t>
         </is>
       </c>
       <c r="F1509" t="inlineStr">
@@ -72846,7 +72846,7 @@
       </c>
       <c r="G1509" t="inlineStr">
         <is>
-          <t>52045</t>
+          <t>52068</t>
         </is>
       </c>
       <c r="H1509" t="inlineStr">
@@ -72874,17 +72874,17 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Centralia Agronomy</t>
+          <t>Hopkinton Propane</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>18179 Olde Hiway Road</t>
+          <t>3095 Street Hwy 38</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr">
         <is>
-          <t>Centralia</t>
+          <t>Hopkinton</t>
         </is>
       </c>
       <c r="F1510" t="inlineStr">
@@ -72894,12 +72894,12 @@
       </c>
       <c r="G1510" t="inlineStr">
         <is>
-          <t>52068</t>
+          <t>52237</t>
         </is>
       </c>
       <c r="H1510" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1510" t="inlineStr">
@@ -72922,17 +72922,17 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>Hopkinton Propane</t>
+          <t>Holy Cross Agronomy</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>3095 Street Hwy 38</t>
+          <t>20340 Holy Cross Road</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>Hopkinton</t>
+          <t>Holy Cross</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr">
@@ -72942,12 +72942,12 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>52237</t>
+          <t>52053</t>
         </is>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1511" t="inlineStr">
@@ -72970,17 +72970,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Holy Cross Agronomy</t>
+          <t>Dubuque Propane Service</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>20340 Holy Cross Road</t>
+          <t>14828 N Cascade Road</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>Holy Cross</t>
+          <t>Dubuque</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr">
@@ -72990,12 +72990,12 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>52053</t>
+          <t>52003</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1512" t="inlineStr">
@@ -73018,17 +73018,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Dubuque Propane Service</t>
+          <t>FAST STOP – Manchester</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>14828 N Cascade Road</t>
+          <t>1000 South 5th Street</t>
         </is>
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>Dubuque</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr">
@@ -73038,7 +73038,7 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>52003</t>
+          <t>52057</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
@@ -73066,12 +73066,12 @@
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>FAST STOP – Manchester</t>
+          <t>Manchester Agronomy</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>1000 South 5th Street</t>
+          <t>1000 S 5th Street</t>
         </is>
       </c>
       <c r="E1514" t="inlineStr">
@@ -73091,7 +73091,7 @@
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1514" t="inlineStr">
@@ -73114,17 +73114,17 @@
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Manchester Agronomy</t>
+          <t>FAST STOP – Ryan</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>1000 S 5th Street</t>
+          <t>101 Adam Street</t>
         </is>
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr">
@@ -73134,12 +73134,12 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>52057</t>
+          <t>52330</t>
         </is>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1515" t="inlineStr">
@@ -73162,17 +73162,17 @@
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>FAST STOP – Ryan</t>
+          <t>Edgewood Propane</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>101 Adam Street</t>
+          <t>204 W Newton Street PO Box 523</t>
         </is>
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Edgewood</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr">
@@ -73182,7 +73182,7 @@
       </c>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>52330</t>
+          <t>52042</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -73210,17 +73210,17 @@
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>Edgewood Propane</t>
+          <t>FAST STOP – Elkader</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>204 W Newton Street PO Box 523</t>
+          <t>24544 IA-13</t>
         </is>
       </c>
       <c r="E1517" t="inlineStr">
         <is>
-          <t>Edgewood</t>
+          <t>Elkader</t>
         </is>
       </c>
       <c r="F1517" t="inlineStr">
@@ -73230,7 +73230,7 @@
       </c>
       <c r="G1517" t="inlineStr">
         <is>
-          <t>52042</t>
+          <t>52043</t>
         </is>
       </c>
       <c r="H1517" t="inlineStr">
@@ -73258,12 +73258,12 @@
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>FAST STOP – Elkader</t>
+          <t>Elkader Agronomy</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr">
         <is>
-          <t>24544 IA-13</t>
+          <t>24544 Hwy 13 PO Box 426</t>
         </is>
       </c>
       <c r="E1518" t="inlineStr">
@@ -73283,7 +73283,7 @@
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1518" t="inlineStr">
@@ -73306,17 +73306,17 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>Elkader Agronomy</t>
+          <t>McGregor Propane</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>24544 Hwy 13 PO Box 426</t>
+          <t>25278 Hwy 18 (Giard)</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>Elkader</t>
+          <t>McGregor</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr">
@@ -73326,12 +73326,12 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>52043</t>
+          <t>52157</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1519" t="inlineStr">
@@ -73344,47 +73344,47 @@
     <row r="1520">
       <c r="A1520" t="inlineStr">
         <is>
-          <t>Three Rivers FS - IA</t>
+          <t>United Prairie LLC - IL</t>
         </is>
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>Three Rivers FS</t>
+          <t>United Prairie LLC</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>McGregor Propane</t>
+          <t>Chrisman Agronomy</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>25278 Hwy 18 (Giard)</t>
+          <t>15420 US Highway 36</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>McGregor</t>
+          <t>Chrisman</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>52157</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1520" t="inlineStr">
         <is>
-          <t>Growmark</t>
+          <t>Winfield</t>
         </is>
       </c>
       <c r="J1520" t="inlineStr"/>
@@ -73402,17 +73402,17 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>Chrisman Agronomy</t>
+          <t>Cowden Agronomy</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>15420 US Highway 36</t>
+          <t>252 N State Hwy 128 Rd</t>
         </is>
       </c>
       <c r="E1521" t="inlineStr">
         <is>
-          <t>Chrisman</t>
+          <t>Cowden</t>
         </is>
       </c>
       <c r="F1521" t="inlineStr">
@@ -73422,7 +73422,7 @@
       </c>
       <c r="G1521" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="H1521" t="inlineStr">
@@ -73450,17 +73450,17 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Cowden Agronomy</t>
+          <t>Crescent City Agronomy</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>252 N State Hwy 128 Rd</t>
+          <t>950 Jerry Ash Ave</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>Cowden</t>
+          <t>Crescent City</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr">
@@ -73470,7 +73470,7 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>62422</t>
+          <t>60928</t>
         </is>
       </c>
       <c r="H1522" t="inlineStr">
@@ -73498,17 +73498,17 @@
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>Crescent City Agronomy</t>
+          <t>Danvers Agronomy</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>950 Jerry Ash Ave</t>
+          <t>200 S West St</t>
         </is>
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>Crescent City</t>
+          <t>Danvers</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr">
@@ -73518,7 +73518,7 @@
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>60928</t>
+          <t>61732</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
@@ -73546,17 +73546,17 @@
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Danvers Agronomy</t>
+          <t>Pierson Station Agronomy</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>200 S West St</t>
+          <t>106 S Main St</t>
         </is>
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>Danvers</t>
+          <t>Hammond</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr">
@@ -73566,7 +73566,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>61732</t>
+          <t>61929</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
@@ -73594,17 +73594,17 @@
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Pierson Station Agronomy</t>
+          <t>Tolono Headquarters</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>106 S Main St</t>
+          <t>929A County Road 700 N</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>Hammond</t>
+          <t>Tolono</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr">
@@ -73614,12 +73614,12 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>61929</t>
+          <t>61880</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1525" t="inlineStr">
@@ -73642,17 +73642,17 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Tolono Headquarters</t>
+          <t>White Heath Agronomy</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>929A County Road 700 N</t>
+          <t>1274 E Old Route 47</t>
         </is>
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>Tolono</t>
+          <t>White Heath</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr">
@@ -73662,12 +73662,12 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>61880</t>
+          <t>61884</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1526" t="inlineStr">
@@ -73680,37 +73680,37 @@
     <row r="1527">
       <c r="A1527" t="inlineStr">
         <is>
-          <t>United Prairie LLC - IL</t>
+          <t>Valley United Coop - ND MN</t>
         </is>
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>United Prairie LLC</t>
+          <t>Valley United Coop</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>White Heath Agronomy</t>
+          <t>Ada Agronomy</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>1274 E Old Route 47</t>
+          <t>2722 Highway 200E</t>
         </is>
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>White Heath</t>
+          <t>Ada</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>61884</t>
+          <t>56510</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
@@ -73738,17 +73738,17 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Ada Agronomy</t>
+          <t>Climax Agronomy</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>2722 Highway 200E</t>
+          <t>109 Great Northern Avenue South</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>Ada</t>
+          <t>Climax</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr">
@@ -73758,7 +73758,7 @@
       </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>56510</t>
+          <t>56523</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
@@ -73786,17 +73786,17 @@
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Climax Agronomy</t>
+          <t>Fisher Agronomy</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>109 Great Northern Avenue South</t>
+          <t>102 4th St N</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>Climax</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr">
@@ -73806,7 +73806,7 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>56523</t>
+          <t>56723</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
@@ -73834,17 +73834,17 @@
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>Fisher Agronomy</t>
+          <t>Halstad Agronomy</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>102 4th St N</t>
+          <t>501 Highway 75 South</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>Fisher</t>
+          <t>Halstad</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr">
@@ -73854,7 +73854,7 @@
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>56548</t>
         </is>
       </c>
       <c r="H1530" t="inlineStr">
@@ -73882,32 +73882,32 @@
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Halstad Agronomy</t>
+          <t>Buxton Fertilizer Plant</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>501 Highway 75 South</t>
+          <t>121 Valiants St</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>Halstad</t>
+          <t>Buxton</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>56548</t>
+          <t>58218</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1531" t="inlineStr">
@@ -73930,17 +73930,17 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Buxton Fertilizer Plant</t>
+          <t>Hatton Agronomy</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>121 Valiants St</t>
+          <t>1310 Dakota Avenue</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>Buxton</t>
+          <t>Hatton</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr">
@@ -73950,12 +73950,12 @@
       </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>58218</t>
+          <t>58240</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1532" t="inlineStr">
@@ -73978,12 +73978,12 @@
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Hatton Agronomy</t>
+          <t>Hatton West Side Fertilizer Plant</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>1310 Dakota Avenue</t>
+          <t>1135 Hwy 18 NE</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr">
@@ -74003,7 +74003,7 @@
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1533" t="inlineStr">
@@ -74026,17 +74026,17 @@
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Hatton West Side Fertilizer Plant</t>
+          <t>Hillsboro Agronomy</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>1135 Hwy 18 NE</t>
+          <t>601 6th Street NW</t>
         </is>
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>Hatton</t>
+          <t>Hillsboro</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr">
@@ -74046,12 +74046,12 @@
       </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>58240</t>
+          <t>58045</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1534" t="inlineStr">
@@ -74074,17 +74074,17 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Hillsboro Agronomy</t>
+          <t>Portland Agronomy</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>601 6th Street NW</t>
+          <t>805 Helen Avenue</t>
         </is>
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr">
@@ -74094,7 +74094,7 @@
       </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>58045</t>
+          <t>58274</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
@@ -74122,17 +74122,17 @@
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Portland Agronomy</t>
+          <t>Reynolds Office</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>805 Helen Avenue</t>
+          <t>322 4th Avenue</t>
         </is>
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Reynolds</t>
         </is>
       </c>
       <c r="F1536" t="inlineStr">
@@ -74142,12 +74142,12 @@
       </c>
       <c r="G1536" t="inlineStr">
         <is>
-          <t>58274</t>
+          <t>58275</t>
         </is>
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1536" t="inlineStr">
@@ -74170,17 +74170,17 @@
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Reynolds Office</t>
+          <t>Thompson Office</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>322 4th Avenue</t>
+          <t>217 Pacific Ave</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>Reynolds</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr">
@@ -74190,12 +74190,12 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>58275</t>
+          <t>58278</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1537" t="inlineStr">
@@ -74208,47 +74208,47 @@
     <row r="1538">
       <c r="A1538" t="inlineStr">
         <is>
-          <t>Valley United Coop - ND MN</t>
+          <t>Wabash Valley FS - IL IN</t>
         </is>
       </c>
       <c r="B1538" t="inlineStr">
         <is>
-          <t>Valley United Coop</t>
+          <t>Wabash Valley FS</t>
         </is>
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Thompson Office</t>
+          <t>Allendale Agronomy</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>217 Pacific Ave</t>
+          <t>21546 Highway 1</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Allendale</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>58278</t>
+          <t>62410</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1538" t="inlineStr">
         <is>
-          <t>Winfield</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1538" t="inlineStr"/>
@@ -74266,17 +74266,17 @@
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Allendale Agronomy</t>
+          <t>Cisne Agronomy</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>21546 Highway 1</t>
+          <t>1724 Hwy 45 S</t>
         </is>
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>Allendale</t>
+          <t>Cisne</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr">
@@ -74286,7 +74286,7 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>62410</t>
+          <t>62823</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
@@ -74314,17 +74314,17 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Cisne Agronomy</t>
+          <t>Fairfield Agronomy</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>1724 Hwy 45 S</t>
+          <t>607 SE 4th St</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>Cisne</t>
+          <t>Fairfield</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
@@ -74334,7 +74334,7 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>62823</t>
+          <t>62837</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
@@ -74362,17 +74362,17 @@
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Fairfield Agronomy</t>
+          <t>Grayville Office</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>607 SE 4th St</t>
+          <t>909 N Court St</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>Fairfield</t>
+          <t>Grayville</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr">
@@ -74382,12 +74382,12 @@
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>62837</t>
+          <t>62844</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1541" t="inlineStr">
@@ -74410,17 +74410,17 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Grayville Office</t>
+          <t>Newton Office</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>909 N Court St</t>
+          <t>1305 Fairground Ave</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>Grayville</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
@@ -74430,12 +74430,12 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>62844</t>
+          <t>62448</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1542" t="inlineStr">
@@ -74458,17 +74458,17 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Newton Office</t>
+          <t>Oblong Agronomy</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>1305 Fairground Ave</t>
+          <t>10154 N 450th Ave</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Oblong</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
@@ -74478,12 +74478,12 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>62448</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="H1543" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1543" t="inlineStr">
@@ -74506,32 +74506,32 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Oblong Agronomy</t>
+          <t>Francisco – Grain</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>10154 N 450th Ave</t>
+          <t>200 N 3rd St</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>Oblong</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>62449</t>
+          <t>47649</t>
         </is>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1544" t="inlineStr">
@@ -74554,17 +74554,17 @@
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Francisco – Grain</t>
+          <t>Poseyville Location</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>200 N 3rd St</t>
+          <t>79 E Fletchall Ave</t>
         </is>
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Poseyville</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr">
@@ -74574,12 +74574,12 @@
       </c>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>47649</t>
+          <t>47633</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1545" t="inlineStr">
@@ -74602,17 +74602,17 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Poseyville Location</t>
+          <t>Princeton Grain</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>79 E Fletchall Ave</t>
+          <t>664 N US Highway 41</t>
         </is>
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>Poseyville</t>
+          <t>Princeton</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr">
@@ -74622,12 +74622,12 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>47633</t>
+          <t>47670</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1546" t="inlineStr">
@@ -74640,42 +74640,42 @@
     <row r="1547">
       <c r="A1547" t="inlineStr">
         <is>
-          <t>Wabash Valley FS - IL IN</t>
+          <t>West Central FS - IL IA</t>
         </is>
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Wabash Valley FS</t>
+          <t>West Central FS</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Princeton Grain</t>
+          <t>Donnellson, IA Agronomy</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>664 N US Highway 41</t>
+          <t>1778 210th St</t>
         </is>
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>Princeton</t>
+          <t>Donnellson</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>47670</t>
+          <t>52625</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1547" t="inlineStr">
@@ -74698,27 +74698,27 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Donnellson, IA Agronomy</t>
+          <t>West Central FS – Bushnell</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>1778 210th St</t>
+          <t>19311 IL Hwy 9 &amp; 41</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>Donnellson</t>
+          <t>Bushnell</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>52625</t>
+          <t>61422</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
@@ -74746,17 +74746,17 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>West Central FS – Bushnell</t>
+          <t>West Central FS – Carthage</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>19311 IL Hwy 9 &amp; 41</t>
+          <t>1790 E US Hwy 136</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>Bushnell</t>
+          <t>Carthage</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr">
@@ -74766,7 +74766,7 @@
       </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>61422</t>
+          <t>62321</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
@@ -74794,17 +74794,17 @@
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>West Central FS – Carthage</t>
+          <t>Galesburg South Seed &amp; Technology</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>1790 E US Hwy 136</t>
+          <t>1445 Monmouth Blvd</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>Carthage</t>
+          <t>Galesburg</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr">
@@ -74814,7 +74814,7 @@
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>62321</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
@@ -74842,17 +74842,17 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Galesburg South Seed &amp; Technology</t>
+          <t>La Harpe Agronomy</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>1445 Monmouth Blvd</t>
+          <t>2841 E State Hwy 9</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>Galesburg</t>
+          <t>La Harpe</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr">
@@ -74862,7 +74862,7 @@
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>61401</t>
+          <t>61450</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
@@ -74890,17 +74890,17 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>La Harpe Agronomy</t>
+          <t>Macomb Office</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>2841 E State Hwy 9</t>
+          <t>425 W Jackson St</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>La Harpe</t>
+          <t>Macomb</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr">
@@ -74910,12 +74910,12 @@
       </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>61450</t>
+          <t>61455</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Kingpin</t>
         </is>
       </c>
       <c r="I1552" t="inlineStr">
@@ -74938,17 +74938,17 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>Macomb Office</t>
+          <t>Maquon Agronomy</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr">
         <is>
-          <t>425 W Jackson St</t>
+          <t>1528 Knox Rd 600 N</t>
         </is>
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>Macomb</t>
+          <t>Maquon</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr">
@@ -74958,12 +74958,12 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>61455</t>
+          <t>61458</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1553" t="inlineStr">
@@ -74991,7 +74991,7 @@
       </c>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>1528 Knox Rd 600 N</t>
+          <t>1528 Knox Rd 600N</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr">
@@ -75034,17 +75034,17 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>Maquon Agronomy</t>
+          <t>West Central FS – Monmouth</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>1528 Knox Rd 600N</t>
+          <t>903 S Sunny Ln</t>
         </is>
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>Maquon</t>
+          <t>Monmouth</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
@@ -75054,7 +75054,7 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>61458</t>
+          <t>61462</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
@@ -75082,12 +75082,12 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>West Central FS – Monmouth</t>
+          <t>Ormonde Agronomy</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>903 S Sunny Ln</t>
+          <t>1530 90th St</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr">
@@ -75130,17 +75130,17 @@
       </c>
       <c r="C1557" t="inlineStr">
         <is>
-          <t>Ormonde Agronomy</t>
+          <t>Roseville Agronomy</t>
         </is>
       </c>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>1530 90th St</t>
+          <t>764 90th St</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr">
         <is>
-          <t>Monmouth</t>
+          <t>Roseville</t>
         </is>
       </c>
       <c r="F1557" t="inlineStr">
@@ -75150,7 +75150,7 @@
       </c>
       <c r="G1557" t="inlineStr">
         <is>
-          <t>61462</t>
+          <t>61473</t>
         </is>
       </c>
       <c r="H1557" t="inlineStr">
@@ -75178,17 +75178,17 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Roseville Agronomy</t>
+          <t>Sciota Agronomy</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>764 90th St</t>
+          <t>18990 E 800th St</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>Roseville</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr">
@@ -75198,7 +75198,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>61473</t>
+          <t>61475</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
@@ -75226,17 +75226,17 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>Sciota Agronomy</t>
+          <t>Stronghurst</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>18990 E 800th St</t>
+          <t>320 E Main St</t>
         </is>
       </c>
       <c r="E1559" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Stronghurst</t>
         </is>
       </c>
       <c r="F1559" t="inlineStr">
@@ -75246,7 +75246,7 @@
       </c>
       <c r="G1559" t="inlineStr">
         <is>
-          <t>61475</t>
+          <t>61480</t>
         </is>
       </c>
       <c r="H1559" t="inlineStr">
@@ -75274,12 +75274,12 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Stronghurst</t>
+          <t>Stronghurst Agronomy</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>320 E Main St</t>
+          <t>770 E Main St</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr">
@@ -75322,17 +75322,17 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Stronghurst Agronomy</t>
+          <t>West Central FS – Wataga</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>770 E Main St</t>
+          <t>686 Depot St</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>Stronghurst</t>
+          <t>Wataga</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
@@ -75342,7 +75342,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>61480</t>
+          <t>61488</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
@@ -75370,12 +75370,12 @@
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>West Central FS – Wataga</t>
+          <t>Wataga Agronomy</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>686 Depot St</t>
+          <t>Global Tech Dr</t>
         </is>
       </c>
       <c r="E1562" t="inlineStr">
@@ -75418,17 +75418,17 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Wataga Agronomy</t>
+          <t>Williamsfield Agronomy</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>Global Tech Dr</t>
+          <t>1017 S State Route 180</t>
         </is>
       </c>
       <c r="E1563" t="inlineStr">
         <is>
-          <t>Wataga</t>
+          <t>Williamsfield</t>
         </is>
       </c>
       <c r="F1563" t="inlineStr">
@@ -75438,7 +75438,7 @@
       </c>
       <c r="G1563" t="inlineStr">
         <is>
-          <t>61488</t>
+          <t>61489</t>
         </is>
       </c>
       <c r="H1563" t="inlineStr">
@@ -75471,7 +75471,7 @@
       </c>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>1017 S State Route 180</t>
+          <t>500 S Edison St</t>
         </is>
       </c>
       <c r="E1564" t="inlineStr">
@@ -75500,54 +75500,6 @@
         </is>
       </c>
       <c r="J1564" t="inlineStr"/>
-    </row>
-    <row r="1565">
-      <c r="A1565" t="inlineStr">
-        <is>
-          <t>West Central FS - IL IA</t>
-        </is>
-      </c>
-      <c r="B1565" t="inlineStr">
-        <is>
-          <t>West Central FS</t>
-        </is>
-      </c>
-      <c r="C1565" t="inlineStr">
-        <is>
-          <t>Williamsfield Agronomy</t>
-        </is>
-      </c>
-      <c r="D1565" t="inlineStr">
-        <is>
-          <t>500 S Edison St</t>
-        </is>
-      </c>
-      <c r="E1565" t="inlineStr">
-        <is>
-          <t>Williamsfield</t>
-        </is>
-      </c>
-      <c r="F1565" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="G1565" t="inlineStr">
-        <is>
-          <t>61489</t>
-        </is>
-      </c>
-      <c r="H1565" t="inlineStr">
-        <is>
-          <t>Agronomy</t>
-        </is>
-      </c>
-      <c r="I1565" t="inlineStr">
-        <is>
-          <t>Growmark</t>
-        </is>
-      </c>
-      <c r="J1565" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1568"/>
+  <dimension ref="A1:J1567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -7627,7 +7627,7 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8443,7 +8443,7 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9067,7 +9067,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12667,7 +12667,7 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>100 N Center St</t>
+          <t>100 North Center St</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -14107,7 +14107,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -18331,7 +18331,7 @@
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -18811,7 +18811,7 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -20731,7 +20731,7 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -22507,7 +22507,7 @@
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="H507" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -25867,7 +25867,7 @@
       </c>
       <c r="H530" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -25963,7 +25963,7 @@
       </c>
       <c r="H532" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I532" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="H564" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -28507,7 +28507,7 @@
       </c>
       <c r="H585" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I585" t="inlineStr">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="H586" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I586" t="inlineStr">
@@ -30043,7 +30043,7 @@
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -30667,7 +30667,7 @@
       </c>
       <c r="H630" t="inlineStr">
         <is>
-          <t>Kingpin, Agronomy</t>
+          <t>Corporate HQ, Agronomy</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -31915,7 +31915,7 @@
       </c>
       <c r="H656" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -33115,7 +33115,7 @@
       </c>
       <c r="H681" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I681" t="inlineStr">
@@ -33691,7 +33691,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -34411,7 +34411,7 @@
       </c>
       <c r="H708" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="H713" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -35275,7 +35275,7 @@
       </c>
       <c r="H726" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -36619,7 +36619,7 @@
       </c>
       <c r="H754" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -40075,7 +40075,7 @@
       </c>
       <c r="H826" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -42283,7 +42283,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -42571,7 +42571,7 @@
       </c>
       <c r="H878" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -42667,7 +42667,7 @@
       </c>
       <c r="H880" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -43771,7 +43771,7 @@
       </c>
       <c r="H903" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -44059,7 +44059,7 @@
       </c>
       <c r="H909" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -48235,7 +48235,7 @@
       </c>
       <c r="H996" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -49291,7 +49291,7 @@
       </c>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -49771,7 +49771,7 @@
       </c>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -50299,7 +50299,7 @@
       </c>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -50491,7 +50491,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -50635,7 +50635,7 @@
       </c>
       <c r="H1046" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1046" t="inlineStr">
@@ -50875,7 +50875,7 @@
       </c>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -51355,7 +51355,7 @@
       </c>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -52267,7 +52267,7 @@
       </c>
       <c r="H1080" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1080" t="inlineStr">
@@ -52315,7 +52315,7 @@
       </c>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr"/>
@@ -52359,7 +52359,7 @@
       </c>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -52935,7 +52935,7 @@
       </c>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -53703,7 +53703,7 @@
       </c>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -54567,7 +54567,7 @@
       </c>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -54903,7 +54903,7 @@
       </c>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -55191,7 +55191,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr"/>
@@ -55283,7 +55283,7 @@
       </c>
       <c r="H1143" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1143" t="inlineStr">
@@ -56435,7 +56435,7 @@
       </c>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -57011,7 +57011,7 @@
       </c>
       <c r="H1179" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1179" t="inlineStr">
@@ -57827,7 +57827,7 @@
       </c>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -57875,7 +57875,7 @@
       </c>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -59507,7 +59507,7 @@
       </c>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -60131,7 +60131,7 @@
       </c>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -61139,7 +61139,7 @@
       </c>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -62723,7 +62723,7 @@
       </c>
       <c r="H1298" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1298" t="inlineStr">
@@ -63395,7 +63395,7 @@
       </c>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -63443,7 +63443,7 @@
       </c>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -63706,17 +63706,17 @@
       </c>
       <c r="C1319" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Onarga</t>
         </is>
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>Rt 133 and Logan Street</t>
+          <t>112 W. Washington St.</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>Oakland</t>
+          <t>Onarga</t>
         </is>
       </c>
       <c r="F1319" t="inlineStr">
@@ -63726,7 +63726,7 @@
       </c>
       <c r="G1319" t="inlineStr">
         <is>
-          <t>61943</t>
+          <t>60955</t>
         </is>
       </c>
       <c r="H1319" t="inlineStr">
@@ -63754,17 +63754,17 @@
       </c>
       <c r="C1320" t="inlineStr">
         <is>
-          <t>Onarga</t>
+          <t>Oneida</t>
         </is>
       </c>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>112 W. Washington St.</t>
+          <t>611 East Ontario</t>
         </is>
       </c>
       <c r="E1320" t="inlineStr">
         <is>
-          <t>Onarga</t>
+          <t>Oneida</t>
         </is>
       </c>
       <c r="F1320" t="inlineStr">
@@ -63774,7 +63774,7 @@
       </c>
       <c r="G1320" t="inlineStr">
         <is>
-          <t>60955</t>
+          <t>61467</t>
         </is>
       </c>
       <c r="H1320" t="inlineStr">
@@ -63802,17 +63802,17 @@
       </c>
       <c r="C1321" t="inlineStr">
         <is>
-          <t>Oneida</t>
+          <t>Orchardville</t>
         </is>
       </c>
       <c r="D1321" t="inlineStr">
         <is>
-          <t>611 East Ontario</t>
+          <t>229 County Road 1250N</t>
         </is>
       </c>
       <c r="E1321" t="inlineStr">
         <is>
-          <t>Oneida</t>
+          <t>Keenes</t>
         </is>
       </c>
       <c r="F1321" t="inlineStr">
@@ -63822,7 +63822,7 @@
       </c>
       <c r="G1321" t="inlineStr">
         <is>
-          <t>61467</t>
+          <t>62851</t>
         </is>
       </c>
       <c r="H1321" t="inlineStr">
@@ -63850,17 +63850,17 @@
       </c>
       <c r="C1322" t="inlineStr">
         <is>
-          <t>Orchardville</t>
+          <t>Patoka IL</t>
         </is>
       </c>
       <c r="D1322" t="inlineStr">
         <is>
-          <t>229 County Road 1250N</t>
+          <t>1215 S. Oak St.</t>
         </is>
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>Keenes</t>
+          <t>Patoka</t>
         </is>
       </c>
       <c r="F1322" t="inlineStr">
@@ -63870,7 +63870,7 @@
       </c>
       <c r="G1322" t="inlineStr">
         <is>
-          <t>62851</t>
+          <t>62875</t>
         </is>
       </c>
       <c r="H1322" t="inlineStr">
@@ -63898,17 +63898,17 @@
       </c>
       <c r="C1323" t="inlineStr">
         <is>
-          <t>Patoka IL</t>
+          <t>Paxton</t>
         </is>
       </c>
       <c r="D1323" t="inlineStr">
         <is>
-          <t>1215 S. Oak St.</t>
+          <t>415 N. Market St</t>
         </is>
       </c>
       <c r="E1323" t="inlineStr">
         <is>
-          <t>Patoka</t>
+          <t>Paxton</t>
         </is>
       </c>
       <c r="F1323" t="inlineStr">
@@ -63918,7 +63918,7 @@
       </c>
       <c r="G1323" t="inlineStr">
         <is>
-          <t>62875</t>
+          <t>60957</t>
         </is>
       </c>
       <c r="H1323" t="inlineStr">
@@ -63946,17 +63946,17 @@
       </c>
       <c r="C1324" t="inlineStr">
         <is>
-          <t>Paxton</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="D1324" t="inlineStr">
         <is>
-          <t>415 N. Market St</t>
+          <t>25134 US Highway 54</t>
         </is>
       </c>
       <c r="E1324" t="inlineStr">
         <is>
-          <t>Paxton</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="F1324" t="inlineStr">
@@ -63966,7 +63966,7 @@
       </c>
       <c r="G1324" t="inlineStr">
         <is>
-          <t>60957</t>
+          <t>62363</t>
         </is>
       </c>
       <c r="H1324" t="inlineStr">
@@ -63994,17 +63994,17 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Pleasant Hill</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>25134 US Highway 54</t>
+          <t>108 King Rd</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Pleasant Hill</t>
         </is>
       </c>
       <c r="F1325" t="inlineStr">
@@ -64014,7 +64014,7 @@
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>62366</t>
         </is>
       </c>
       <c r="H1325" t="inlineStr">
@@ -64042,17 +64042,17 @@
       </c>
       <c r="C1326" t="inlineStr">
         <is>
-          <t>Pleasant Hill</t>
+          <t>Pontiac</t>
         </is>
       </c>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>108 King Rd</t>
+          <t>601 N. Court St</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr">
         <is>
-          <t>Pleasant Hill</t>
+          <t>Pontiac</t>
         </is>
       </c>
       <c r="F1326" t="inlineStr">
@@ -64062,7 +64062,7 @@
       </c>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>62366</t>
+          <t>61764</t>
         </is>
       </c>
       <c r="H1326" t="inlineStr">
@@ -64090,17 +64090,17 @@
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>Pontiac</t>
+          <t>Precision Operations</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>601 N. Court St</t>
+          <t>94 E 150 North Rd</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr">
         <is>
-          <t>Pontiac</t>
+          <t>Cerro Gordo</t>
         </is>
       </c>
       <c r="F1327" t="inlineStr">
@@ -64110,7 +64110,7 @@
       </c>
       <c r="G1327" t="inlineStr">
         <is>
-          <t>61764</t>
+          <t>61818</t>
         </is>
       </c>
       <c r="H1327" t="inlineStr">
@@ -64138,17 +64138,17 @@
       </c>
       <c r="C1328" t="inlineStr">
         <is>
-          <t>Precision Operations</t>
+          <t>Princeville IL</t>
         </is>
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>94 E 150 North Rd</t>
+          <t>11939 Township Road 00N</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
         <is>
-          <t>Cerro Gordo</t>
+          <t>Princeville</t>
         </is>
       </c>
       <c r="F1328" t="inlineStr">
@@ -64158,7 +64158,7 @@
       </c>
       <c r="G1328" t="inlineStr">
         <is>
-          <t>61818</t>
+          <t>61559</t>
         </is>
       </c>
       <c r="H1328" t="inlineStr">
@@ -64186,17 +64186,17 @@
       </c>
       <c r="C1329" t="inlineStr">
         <is>
-          <t>Princeville IL</t>
+          <t>Quincy Fertilizer (Warehouse)</t>
         </is>
       </c>
       <c r="D1329" t="inlineStr">
         <is>
-          <t>11939 Township Road 00N</t>
+          <t>5014 Gardner Expressway</t>
         </is>
       </c>
       <c r="E1329" t="inlineStr">
         <is>
-          <t>Princeville</t>
+          <t>Quincy</t>
         </is>
       </c>
       <c r="F1329" t="inlineStr">
@@ -64206,7 +64206,7 @@
       </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>61559</t>
+          <t>62301</t>
         </is>
       </c>
       <c r="H1329" t="inlineStr">
@@ -64234,17 +64234,17 @@
       </c>
       <c r="C1330" t="inlineStr">
         <is>
-          <t>Quincy Fertilizer (Warehouse)</t>
+          <t>Radford</t>
         </is>
       </c>
       <c r="D1330" t="inlineStr">
         <is>
-          <t>5014 Gardner Expressway</t>
+          <t>2628 E1500 N Road</t>
         </is>
       </c>
       <c r="E1330" t="inlineStr">
         <is>
-          <t>Quincy</t>
+          <t>Moweaqua</t>
         </is>
       </c>
       <c r="F1330" t="inlineStr">
@@ -64254,7 +64254,7 @@
       </c>
       <c r="G1330" t="inlineStr">
         <is>
-          <t>62301</t>
+          <t>62550</t>
         </is>
       </c>
       <c r="H1330" t="inlineStr">
@@ -64282,17 +64282,17 @@
       </c>
       <c r="C1331" t="inlineStr">
         <is>
-          <t>Radford</t>
+          <t>Raleigh</t>
         </is>
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>2628 E1500 N Road</t>
+          <t>54 Industrial Parkway</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr">
         <is>
-          <t>Moweaqua</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1331" t="inlineStr">
@@ -64302,7 +64302,7 @@
       </c>
       <c r="G1331" t="inlineStr">
         <is>
-          <t>62550</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1331" t="inlineStr">
@@ -64330,17 +64330,17 @@
       </c>
       <c r="C1332" t="inlineStr">
         <is>
-          <t>Raleigh</t>
+          <t>Ridgway IL</t>
         </is>
       </c>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>54 Industrial Parkway</t>
+          <t>5425 Chapman Rd</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Ridgway</t>
         </is>
       </c>
       <c r="F1332" t="inlineStr">
@@ -64350,7 +64350,7 @@
       </c>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62979</t>
         </is>
       </c>
       <c r="H1332" t="inlineStr">
@@ -64378,17 +64378,17 @@
       </c>
       <c r="C1333" t="inlineStr">
         <is>
-          <t>Ridgway IL</t>
+          <t>Saunemin</t>
         </is>
       </c>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>5425 Chapman Rd</t>
+          <t>19433 N 2700 East Road</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr">
         <is>
-          <t>Ridgway</t>
+          <t>Saunemin</t>
         </is>
       </c>
       <c r="F1333" t="inlineStr">
@@ -64398,7 +64398,7 @@
       </c>
       <c r="G1333" t="inlineStr">
         <is>
-          <t>62979</t>
+          <t>61769</t>
         </is>
       </c>
       <c r="H1333" t="inlineStr">
@@ -64426,17 +64426,17 @@
       </c>
       <c r="C1334" t="inlineStr">
         <is>
-          <t>Saunemin</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>19433 N 2700 East Road</t>
+          <t>101 E Washington St</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr">
         <is>
-          <t>Saunemin</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="F1334" t="inlineStr">
@@ -64446,7 +64446,7 @@
       </c>
       <c r="G1334" t="inlineStr">
         <is>
-          <t>61769</t>
+          <t>61475</t>
         </is>
       </c>
       <c r="H1334" t="inlineStr">
@@ -64474,17 +64474,17 @@
       </c>
       <c r="C1335" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Shannon IL</t>
         </is>
       </c>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>101 E Washington St</t>
+          <t>6327 S Montague Rd</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Shannon</t>
         </is>
       </c>
       <c r="F1335" t="inlineStr">
@@ -64494,7 +64494,7 @@
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>61475</t>
+          <t>61078</t>
         </is>
       </c>
       <c r="H1335" t="inlineStr">
@@ -64522,17 +64522,17 @@
       </c>
       <c r="C1336" t="inlineStr">
         <is>
-          <t>Shannon IL</t>
+          <t>Shelbyville</t>
         </is>
       </c>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>6327 S Montague Rd</t>
+          <t>1119 N. Morgan St.</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr">
         <is>
-          <t>Shannon</t>
+          <t>Shelbyville</t>
         </is>
       </c>
       <c r="F1336" t="inlineStr">
@@ -64542,7 +64542,7 @@
       </c>
       <c r="G1336" t="inlineStr">
         <is>
-          <t>61078</t>
+          <t>62565</t>
         </is>
       </c>
       <c r="H1336" t="inlineStr">
@@ -64570,17 +64570,17 @@
       </c>
       <c r="C1337" t="inlineStr">
         <is>
-          <t>Shelbyville</t>
+          <t>Sheldon IL</t>
         </is>
       </c>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>1119 N. Morgan St.</t>
+          <t>1777 N 2800 E Rd.</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr">
         <is>
-          <t>Shelbyville</t>
+          <t>Sheldon</t>
         </is>
       </c>
       <c r="F1337" t="inlineStr">
@@ -64590,7 +64590,7 @@
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>62565</t>
+          <t>60966</t>
         </is>
       </c>
       <c r="H1337" t="inlineStr">
@@ -64618,12 +64618,12 @@
       </c>
       <c r="C1338" t="inlineStr">
         <is>
-          <t>Sheldon IL</t>
+          <t>Sheldon Inventory</t>
         </is>
       </c>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>1777 N 2800 E Rd.</t>
+          <t>220 N. Clark St.</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr">
@@ -64666,17 +64666,17 @@
       </c>
       <c r="C1339" t="inlineStr">
         <is>
-          <t>Sheldon Inventory</t>
+          <t>Shobonier</t>
         </is>
       </c>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>220 N. Clark St.</t>
+          <t>1155 E 900 Ave</t>
         </is>
       </c>
       <c r="E1339" t="inlineStr">
         <is>
-          <t>Sheldon</t>
+          <t>Shobonier</t>
         </is>
       </c>
       <c r="F1339" t="inlineStr">
@@ -64686,7 +64686,7 @@
       </c>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>60966</t>
+          <t>62885</t>
         </is>
       </c>
       <c r="H1339" t="inlineStr">
@@ -64714,17 +64714,17 @@
       </c>
       <c r="C1340" t="inlineStr">
         <is>
-          <t>Shobonier</t>
+          <t>Sidney</t>
         </is>
       </c>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>1155 E 900 Ave</t>
+          <t>1907 County Road 1000 N</t>
         </is>
       </c>
       <c r="E1340" t="inlineStr">
         <is>
-          <t>Shobonier</t>
+          <t>Sidney</t>
         </is>
       </c>
       <c r="F1340" t="inlineStr">
@@ -64734,7 +64734,7 @@
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>62885</t>
+          <t>61877</t>
         </is>
       </c>
       <c r="H1340" t="inlineStr">
@@ -64762,17 +64762,17 @@
       </c>
       <c r="C1341" t="inlineStr">
         <is>
-          <t>Sidney</t>
+          <t>Smithshire IL</t>
         </is>
       </c>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>1907 County Road 1000 N</t>
+          <t>1 State St.</t>
         </is>
       </c>
       <c r="E1341" t="inlineStr">
         <is>
-          <t>Sidney</t>
+          <t>Smithshire</t>
         </is>
       </c>
       <c r="F1341" t="inlineStr">
@@ -64782,7 +64782,7 @@
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>61877</t>
+          <t>61478</t>
         </is>
       </c>
       <c r="H1341" t="inlineStr">
@@ -64810,17 +64810,17 @@
       </c>
       <c r="C1342" t="inlineStr">
         <is>
-          <t>Smithshire IL</t>
+          <t>Southern Illinois</t>
         </is>
       </c>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>1 State St.</t>
+          <t>54 Industrial Parkway</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr">
         <is>
-          <t>Smithshire</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1342" t="inlineStr">
@@ -64830,7 +64830,7 @@
       </c>
       <c r="G1342" t="inlineStr">
         <is>
-          <t>61478</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1342" t="inlineStr">
@@ -64858,17 +64858,17 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>Southern Illinois</t>
+          <t>Springfield IL</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>54 Industrial Parkway</t>
+          <t>4900 International Parkway</t>
         </is>
       </c>
       <c r="E1343" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Springfield</t>
         </is>
       </c>
       <c r="F1343" t="inlineStr">
@@ -64878,7 +64878,7 @@
       </c>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62711</t>
         </is>
       </c>
       <c r="H1343" t="inlineStr">
@@ -64906,17 +64906,17 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>Springfield IL</t>
+          <t>St. Peter IL</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>4900 International Parkway</t>
+          <t>205 West 5th Street</t>
         </is>
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>Springfield</t>
+          <t>Saint Peter</t>
         </is>
       </c>
       <c r="F1344" t="inlineStr">
@@ -64926,7 +64926,7 @@
       </c>
       <c r="G1344" t="inlineStr">
         <is>
-          <t>62711</t>
+          <t>62880</t>
         </is>
       </c>
       <c r="H1344" t="inlineStr">
@@ -64954,17 +64954,17 @@
       </c>
       <c r="C1345" t="inlineStr">
         <is>
-          <t>St. Peter IL</t>
+          <t>Sterling</t>
         </is>
       </c>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>205 West 5th Street</t>
+          <t>24009 Lincoln Rd</t>
         </is>
       </c>
       <c r="E1345" t="inlineStr">
         <is>
-          <t>Saint Peter</t>
+          <t>Sterling</t>
         </is>
       </c>
       <c r="F1345" t="inlineStr">
@@ -64974,7 +64974,7 @@
       </c>
       <c r="G1345" t="inlineStr">
         <is>
-          <t>62880</t>
+          <t>61081</t>
         </is>
       </c>
       <c r="H1345" t="inlineStr">
@@ -65002,17 +65002,17 @@
       </c>
       <c r="C1346" t="inlineStr">
         <is>
-          <t>Sterling</t>
+          <t>Steward</t>
         </is>
       </c>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>24009 Lincoln Rd</t>
+          <t>1793 Steward Rd</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr">
         <is>
-          <t>Sterling</t>
+          <t>Steward</t>
         </is>
       </c>
       <c r="F1346" t="inlineStr">
@@ -65022,7 +65022,7 @@
       </c>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>61081</t>
+          <t>60553</t>
         </is>
       </c>
       <c r="H1346" t="inlineStr">
@@ -65050,17 +65050,17 @@
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>Steward</t>
+          <t>Stockton IL</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>1793 Steward Rd</t>
+          <t>13276 US Rte 20 E</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>Steward</t>
+          <t>Stockton</t>
         </is>
       </c>
       <c r="F1347" t="inlineStr">
@@ -65070,7 +65070,7 @@
       </c>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>60553</t>
+          <t>61085</t>
         </is>
       </c>
       <c r="H1347" t="inlineStr">
@@ -65098,17 +65098,17 @@
       </c>
       <c r="C1348" t="inlineStr">
         <is>
-          <t>Stockton IL</t>
+          <t>Stolletown</t>
         </is>
       </c>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>13276 US Rte 20 E</t>
+          <t>18929 Stolletown Road</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr">
         <is>
-          <t>Stockton</t>
+          <t>Carlyle</t>
         </is>
       </c>
       <c r="F1348" t="inlineStr">
@@ -65118,7 +65118,7 @@
       </c>
       <c r="G1348" t="inlineStr">
         <is>
-          <t>61085</t>
+          <t>62231</t>
         </is>
       </c>
       <c r="H1348" t="inlineStr">
@@ -65146,17 +65146,17 @@
       </c>
       <c r="C1349" t="inlineStr">
         <is>
-          <t>Stolletown</t>
+          <t>Strawn</t>
         </is>
       </c>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>18929 Stolletown Road</t>
+          <t>25489 E 200 N Road</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr">
         <is>
-          <t>Carlyle</t>
+          <t>Strawn</t>
         </is>
       </c>
       <c r="F1349" t="inlineStr">
@@ -65166,7 +65166,7 @@
       </c>
       <c r="G1349" t="inlineStr">
         <is>
-          <t>62231</t>
+          <t>61775</t>
         </is>
       </c>
       <c r="H1349" t="inlineStr">
@@ -65194,17 +65194,17 @@
       </c>
       <c r="C1350" t="inlineStr">
         <is>
-          <t>Strawn</t>
+          <t>Sullivan IL</t>
         </is>
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>25489 E 200 N Road</t>
+          <t>1052 CR 1125N</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>Strawn</t>
+          <t>Sullivan</t>
         </is>
       </c>
       <c r="F1350" t="inlineStr">
@@ -65214,7 +65214,7 @@
       </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>61775</t>
+          <t>61951</t>
         </is>
       </c>
       <c r="H1350" t="inlineStr">
@@ -65242,17 +65242,17 @@
       </c>
       <c r="C1351" t="inlineStr">
         <is>
-          <t>Sullivan IL</t>
+          <t>Tamms</t>
         </is>
       </c>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>1052 CR 1125N</t>
+          <t>25366 Tamms-Olive Branch Road</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr">
         <is>
-          <t>Sullivan</t>
+          <t>Tamms</t>
         </is>
       </c>
       <c r="F1351" t="inlineStr">
@@ -65262,7 +65262,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>61951</t>
+          <t>62988</t>
         </is>
       </c>
       <c r="H1351" t="inlineStr">
@@ -65290,17 +65290,17 @@
       </c>
       <c r="C1352" t="inlineStr">
         <is>
-          <t>Tamms</t>
+          <t>Vandalia IL</t>
         </is>
       </c>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>25366 Tamms-Olive Branch Road</t>
+          <t>1801 Hillsboro Road</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr">
         <is>
-          <t>Tamms</t>
+          <t>Vandalia</t>
         </is>
       </c>
       <c r="F1352" t="inlineStr">
@@ -65310,7 +65310,7 @@
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>62988</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="H1352" t="inlineStr">
@@ -65338,17 +65338,17 @@
       </c>
       <c r="C1353" t="inlineStr">
         <is>
-          <t>Vandalia IL</t>
+          <t>Viola</t>
         </is>
       </c>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>1801 Hillsboro Road</t>
+          <t>1813 17th Avenue</t>
         </is>
       </c>
       <c r="E1353" t="inlineStr">
         <is>
-          <t>Vandalia</t>
+          <t>Viola</t>
         </is>
       </c>
       <c r="F1353" t="inlineStr">
@@ -65358,7 +65358,7 @@
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>62471</t>
+          <t>61486</t>
         </is>
       </c>
       <c r="H1353" t="inlineStr">
@@ -65386,17 +65386,17 @@
       </c>
       <c r="C1354" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>1813 17th Avenue</t>
+          <t>28411 1600 East Street</t>
         </is>
       </c>
       <c r="E1354" t="inlineStr">
         <is>
-          <t>Viola</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="F1354" t="inlineStr">
@@ -65406,7 +65406,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>61486</t>
+          <t>61376</t>
         </is>
       </c>
       <c r="H1354" t="inlineStr">
@@ -65434,17 +65434,17 @@
       </c>
       <c r="C1355" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>28411 1600 East Street</t>
+          <t>7762 Main Street</t>
         </is>
       </c>
       <c r="E1355" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Walsh</t>
         </is>
       </c>
       <c r="F1355" t="inlineStr">
@@ -65454,7 +65454,7 @@
       </c>
       <c r="G1355" t="inlineStr">
         <is>
-          <t>61376</t>
+          <t>62297</t>
         </is>
       </c>
       <c r="H1355" t="inlineStr">
@@ -65482,17 +65482,17 @@
       </c>
       <c r="C1356" t="inlineStr">
         <is>
-          <t>Walsh</t>
+          <t>Warrensburg IL</t>
         </is>
       </c>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>7762 Main Street</t>
+          <t>9424 Heman Rd</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr">
         <is>
-          <t>Walsh</t>
+          <t>Warrensburg</t>
         </is>
       </c>
       <c r="F1356" t="inlineStr">
@@ -65502,7 +65502,7 @@
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>62297</t>
+          <t>62573</t>
         </is>
       </c>
       <c r="H1356" t="inlineStr">
@@ -65530,17 +65530,17 @@
       </c>
       <c r="C1357" t="inlineStr">
         <is>
-          <t>Warrensburg IL</t>
+          <t>Wenona</t>
         </is>
       </c>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>9424 Heman Rd</t>
+          <t>795 County Road 3100 E</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr">
         <is>
-          <t>Warrensburg</t>
+          <t>Wenona</t>
         </is>
       </c>
       <c r="F1357" t="inlineStr">
@@ -65550,7 +65550,7 @@
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>62573</t>
+          <t>61377</t>
         </is>
       </c>
       <c r="H1357" t="inlineStr">
@@ -65578,17 +65578,17 @@
       </c>
       <c r="C1358" t="inlineStr">
         <is>
-          <t>Wenona</t>
+          <t>West Brooklyn IL</t>
         </is>
       </c>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>795 County Road 3100 E</t>
+          <t>2697 W. Brooklyn Road</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr">
         <is>
-          <t>Wenona</t>
+          <t>West Brooklyn</t>
         </is>
       </c>
       <c r="F1358" t="inlineStr">
@@ -65598,7 +65598,7 @@
       </c>
       <c r="G1358" t="inlineStr">
         <is>
-          <t>61377</t>
+          <t>61378</t>
         </is>
       </c>
       <c r="H1358" t="inlineStr">
@@ -65626,17 +65626,17 @@
       </c>
       <c r="C1359" t="inlineStr">
         <is>
-          <t>West Brooklyn IL</t>
+          <t>West Union</t>
         </is>
       </c>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>2697 W. Brooklyn Road</t>
+          <t>7847 N State Hwy 1</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr">
         <is>
-          <t>West Brooklyn</t>
+          <t>West Union</t>
         </is>
       </c>
       <c r="F1359" t="inlineStr">
@@ -65646,7 +65646,7 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>61378</t>
+          <t>62477</t>
         </is>
       </c>
       <c r="H1359" t="inlineStr">
@@ -65674,17 +65674,17 @@
       </c>
       <c r="C1360" t="inlineStr">
         <is>
-          <t>West Union</t>
+          <t>White Hall</t>
         </is>
       </c>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>7847 N State Hwy 1</t>
+          <t>426 East Tunison Ave</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr">
         <is>
-          <t>West Union</t>
+          <t>White Hall</t>
         </is>
       </c>
       <c r="F1360" t="inlineStr">
@@ -65694,7 +65694,7 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>62477</t>
+          <t>62092</t>
         </is>
       </c>
       <c r="H1360" t="inlineStr">
@@ -65722,17 +65722,17 @@
       </c>
       <c r="C1361" t="inlineStr">
         <is>
-          <t>White Hall</t>
+          <t>Douglas</t>
         </is>
       </c>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>426 East Tunison Ave</t>
+          <t>1871 South Depot Road</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr">
         <is>
-          <t>White Hall</t>
+          <t>Yates City</t>
         </is>
       </c>
       <c r="F1361" t="inlineStr">
@@ -65742,7 +65742,7 @@
       </c>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>62092</t>
+          <t>61572</t>
         </is>
       </c>
       <c r="H1361" t="inlineStr">
@@ -65760,7 +65760,7 @@
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - IL</t>
+          <t>Nutrien Ag Solutions - MN</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
@@ -65770,27 +65770,27 @@
       </c>
       <c r="C1362" t="inlineStr">
         <is>
-          <t>Douglas</t>
+          <t>Adrian MN</t>
         </is>
       </c>
       <c r="D1362" t="inlineStr">
         <is>
-          <t>1871 South Depot Road</t>
+          <t>205 County Road 35 E</t>
         </is>
       </c>
       <c r="E1362" t="inlineStr">
         <is>
-          <t>Yates City</t>
+          <t>Adrian</t>
         </is>
       </c>
       <c r="F1362" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>61572</t>
+          <t>56110</t>
         </is>
       </c>
       <c r="H1362" t="inlineStr">
@@ -65818,17 +65818,17 @@
       </c>
       <c r="C1363" t="inlineStr">
         <is>
-          <t>Adrian MN</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>205 County Road 35 E</t>
+          <t>313 Main Street</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr">
         <is>
-          <t>Adrian</t>
+          <t>Alberta</t>
         </is>
       </c>
       <c r="F1363" t="inlineStr">
@@ -65838,7 +65838,7 @@
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>56110</t>
+          <t>56207</t>
         </is>
       </c>
       <c r="H1363" t="inlineStr">
@@ -65866,17 +65866,17 @@
       </c>
       <c r="C1364" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Benson</t>
         </is>
       </c>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>313 Main Street</t>
+          <t>195-25th Ave Northwest</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>Alberta</t>
+          <t>Benson</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr">
@@ -65886,7 +65886,7 @@
       </c>
       <c r="G1364" t="inlineStr">
         <is>
-          <t>56207</t>
+          <t>56215</t>
         </is>
       </c>
       <c r="H1364" t="inlineStr">
@@ -65914,17 +65914,17 @@
       </c>
       <c r="C1365" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Big Lake</t>
         </is>
       </c>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>195-25th Ave Northwest</t>
+          <t>20190 Hwy 10 West</t>
         </is>
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>Benson</t>
+          <t>Big Lake</t>
         </is>
       </c>
       <c r="F1365" t="inlineStr">
@@ -65934,7 +65934,7 @@
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>56215</t>
+          <t>55309</t>
         </is>
       </c>
       <c r="H1365" t="inlineStr">
@@ -65962,17 +65962,17 @@
       </c>
       <c r="C1366" t="inlineStr">
         <is>
-          <t>Big Lake</t>
+          <t>Central Stock Loc Kasota</t>
         </is>
       </c>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>20190 Hwy 10 West</t>
+          <t>972 East Pearl Street</t>
         </is>
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>Big Lake</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="F1366" t="inlineStr">
@@ -65982,12 +65982,12 @@
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>55309</t>
+          <t>56050</t>
         </is>
       </c>
       <c r="H1366" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1366" t="inlineStr">
@@ -66010,17 +66010,17 @@
       </c>
       <c r="C1367" t="inlineStr">
         <is>
-          <t>Central Stock Loc Kasota</t>
+          <t>Dassel</t>
         </is>
       </c>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>972 East Pearl Street</t>
+          <t>540 Atlantic Ave E</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Dassel</t>
         </is>
       </c>
       <c r="F1367" t="inlineStr">
@@ -66030,12 +66030,12 @@
       </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>56050</t>
+          <t>55325</t>
         </is>
       </c>
       <c r="H1367" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1367" t="inlineStr">
@@ -66058,17 +66058,17 @@
       </c>
       <c r="C1368" t="inlineStr">
         <is>
-          <t>Dassel</t>
+          <t>East Chain (Fairmont)</t>
         </is>
       </c>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>540 Atlantic Ave E</t>
+          <t>2445 50th Street</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>Dassel</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1368" t="inlineStr">
@@ -66078,12 +66078,12 @@
       </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>55325</t>
+          <t>56031</t>
         </is>
       </c>
       <c r="H1368" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1368" t="inlineStr">
@@ -66106,17 +66106,17 @@
       </c>
       <c r="C1369" t="inlineStr">
         <is>
-          <t>East Chain (Fairmont)</t>
+          <t>Gluek</t>
         </is>
       </c>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>2445 50th Street</t>
+          <t>5092 26th Street SE</t>
         </is>
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Maynard</t>
         </is>
       </c>
       <c r="F1369" t="inlineStr">
@@ -66126,12 +66126,12 @@
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>56031</t>
+          <t>56260</t>
         </is>
       </c>
       <c r="H1369" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1369" t="inlineStr">
@@ -66154,17 +66154,17 @@
       </c>
       <c r="C1370" t="inlineStr">
         <is>
-          <t>Gluek</t>
+          <t>Hallock</t>
         </is>
       </c>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>5092 26th Street SE</t>
+          <t>2424 240th St</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>Maynard</t>
+          <t>Hallock</t>
         </is>
       </c>
       <c r="F1370" t="inlineStr">
@@ -66174,7 +66174,7 @@
       </c>
       <c r="G1370" t="inlineStr">
         <is>
-          <t>56260</t>
+          <t>56728</t>
         </is>
       </c>
       <c r="H1370" t="inlineStr">
@@ -66202,17 +66202,17 @@
       </c>
       <c r="C1371" t="inlineStr">
         <is>
-          <t>Hallock</t>
+          <t>Harmony MN</t>
         </is>
       </c>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>2424 240th St</t>
+          <t>Hwy 52 South</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr">
         <is>
-          <t>Hallock</t>
+          <t>Harmony</t>
         </is>
       </c>
       <c r="F1371" t="inlineStr">
@@ -66222,7 +66222,7 @@
       </c>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>56728</t>
+          <t>55939</t>
         </is>
       </c>
       <c r="H1371" t="inlineStr">
@@ -66250,17 +66250,17 @@
       </c>
       <c r="C1372" t="inlineStr">
         <is>
-          <t>Harmony MN</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>Hwy 52 South</t>
+          <t>972 East Pearl Street</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>Harmony</t>
+          <t>Kasota</t>
         </is>
       </c>
       <c r="F1372" t="inlineStr">
@@ -66270,7 +66270,7 @@
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>55939</t>
+          <t>56050</t>
         </is>
       </c>
       <c r="H1372" t="inlineStr">
@@ -66298,7 +66298,7 @@
       </c>
       <c r="C1373" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Kasota (Pinebelt)</t>
         </is>
       </c>
       <c r="D1373" t="inlineStr">
@@ -66346,17 +66346,17 @@
       </c>
       <c r="C1374" t="inlineStr">
         <is>
-          <t>Kasota (Pinebelt)</t>
+          <t>Lakefield MN</t>
         </is>
       </c>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>972 East Pearl Street</t>
+          <t>44107 Okabena Rd</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>Kasota</t>
+          <t>Lakefield</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr">
@@ -66366,7 +66366,7 @@
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>56050</t>
+          <t>56150</t>
         </is>
       </c>
       <c r="H1374" t="inlineStr">
@@ -66394,17 +66394,17 @@
       </c>
       <c r="C1375" t="inlineStr">
         <is>
-          <t>Lakefield MN</t>
+          <t>Luverne MN</t>
         </is>
       </c>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>44107 Okabena Rd</t>
+          <t>612 W Hatting St</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr">
         <is>
-          <t>Lakefield</t>
+          <t>Luverne</t>
         </is>
       </c>
       <c r="F1375" t="inlineStr">
@@ -66414,7 +66414,7 @@
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>56150</t>
+          <t>56156</t>
         </is>
       </c>
       <c r="H1375" t="inlineStr">
@@ -66442,17 +66442,17 @@
       </c>
       <c r="C1376" t="inlineStr">
         <is>
-          <t>Luverne MN</t>
+          <t>Mansfield</t>
         </is>
       </c>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>612 W Hatting St</t>
+          <t>63025 150th Street</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>Luverne</t>
+          <t>Alden</t>
         </is>
       </c>
       <c r="F1376" t="inlineStr">
@@ -66462,7 +66462,7 @@
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>56156</t>
+          <t>56009</t>
         </is>
       </c>
       <c r="H1376" t="inlineStr">
@@ -66490,17 +66490,17 @@
       </c>
       <c r="C1377" t="inlineStr">
         <is>
-          <t>Mansfield</t>
+          <t>Marna</t>
         </is>
       </c>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>63025 150th Street</t>
+          <t>43096 85th Street</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>Alden</t>
+          <t>Blue Earth</t>
         </is>
       </c>
       <c r="F1377" t="inlineStr">
@@ -66510,7 +66510,7 @@
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>56009</t>
+          <t>56013</t>
         </is>
       </c>
       <c r="H1377" t="inlineStr">
@@ -66538,17 +66538,17 @@
       </c>
       <c r="C1378" t="inlineStr">
         <is>
-          <t>Marna</t>
+          <t>Minnesota/South Dakota</t>
         </is>
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>43096 85th Street</t>
+          <t>28868 780th Avenue</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>Blue Earth</t>
+          <t>Clarks Grove</t>
         </is>
       </c>
       <c r="F1378" t="inlineStr">
@@ -66558,12 +66558,12 @@
       </c>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>56013</t>
+          <t>56016</t>
         </is>
       </c>
       <c r="H1378" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1378" t="inlineStr">
@@ -66586,17 +66586,17 @@
       </c>
       <c r="C1379" t="inlineStr">
         <is>
-          <t>Minnesota/South Dakota</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>28868 780th Avenue</t>
+          <t>1358 Highway 65</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr">
         <is>
-          <t>Clarks Grove</t>
+          <t>Mora</t>
         </is>
       </c>
       <c r="F1379" t="inlineStr">
@@ -66606,12 +66606,12 @@
       </c>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>56016</t>
+          <t>55051</t>
         </is>
       </c>
       <c r="H1379" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1379" t="inlineStr">
@@ -66634,17 +66634,17 @@
       </c>
       <c r="C1380" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Perham</t>
         </is>
       </c>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>1358 Highway 65</t>
+          <t>905 Pinewood Circle</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>Mora</t>
+          <t>Perham</t>
         </is>
       </c>
       <c r="F1380" t="inlineStr">
@@ -66654,7 +66654,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>55051</t>
+          <t>56573</t>
         </is>
       </c>
       <c r="H1380" t="inlineStr">
@@ -66682,17 +66682,17 @@
       </c>
       <c r="C1381" t="inlineStr">
         <is>
-          <t>Perham</t>
+          <t>Pipestone</t>
         </is>
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>905 Pinewood Circle</t>
+          <t>653 81st Street</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>Perham</t>
+          <t>Pipestone</t>
         </is>
       </c>
       <c r="F1381" t="inlineStr">
@@ -66702,7 +66702,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>56573</t>
+          <t>56164</t>
         </is>
       </c>
       <c r="H1381" t="inlineStr">
@@ -66730,12 +66730,12 @@
       </c>
       <c r="C1382" t="inlineStr">
         <is>
-          <t>Pipestone</t>
+          <t>Pipestone North</t>
         </is>
       </c>
       <c r="D1382" t="inlineStr">
         <is>
-          <t>653 81st Street</t>
+          <t>807 4th St NE</t>
         </is>
       </c>
       <c r="E1382" t="inlineStr">
@@ -66778,17 +66778,17 @@
       </c>
       <c r="C1383" t="inlineStr">
         <is>
-          <t>Pipestone North</t>
+          <t>Plainview</t>
         </is>
       </c>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>807 4th St NE</t>
+          <t>55162 241st Avenue</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr">
         <is>
-          <t>Pipestone</t>
+          <t>Plainview</t>
         </is>
       </c>
       <c r="F1383" t="inlineStr">
@@ -66798,7 +66798,7 @@
       </c>
       <c r="G1383" t="inlineStr">
         <is>
-          <t>56164</t>
+          <t>55964</t>
         </is>
       </c>
       <c r="H1383" t="inlineStr">
@@ -66826,17 +66826,17 @@
       </c>
       <c r="C1384" t="inlineStr">
         <is>
-          <t>Plainview</t>
+          <t>Sargeant</t>
         </is>
       </c>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>55162 241st Avenue</t>
+          <t>304 W Main St</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr">
         <is>
-          <t>Plainview</t>
+          <t>Sargeant</t>
         </is>
       </c>
       <c r="F1384" t="inlineStr">
@@ -66846,7 +66846,7 @@
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>55964</t>
+          <t>55973</t>
         </is>
       </c>
       <c r="H1384" t="inlineStr">
@@ -66874,17 +66874,17 @@
       </c>
       <c r="C1385" t="inlineStr">
         <is>
-          <t>Sargeant</t>
+          <t>Sauk Centre (Wholesale)</t>
         </is>
       </c>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>304 W Main St</t>
+          <t>801 Beltline Rd</t>
         </is>
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>Sargeant</t>
+          <t>Sauk Centre</t>
         </is>
       </c>
       <c r="F1385" t="inlineStr">
@@ -66894,12 +66894,12 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>55973</t>
+          <t>56378</t>
         </is>
       </c>
       <c r="H1385" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1385" t="inlineStr">
@@ -66922,17 +66922,17 @@
       </c>
       <c r="C1386" t="inlineStr">
         <is>
-          <t>Sauk Centre (Wholesale)</t>
+          <t>Wadena</t>
         </is>
       </c>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>801 Beltline Rd</t>
+          <t>220 Bottemiller Dr</t>
         </is>
       </c>
       <c r="E1386" t="inlineStr">
         <is>
-          <t>Sauk Centre</t>
+          <t>Wadena</t>
         </is>
       </c>
       <c r="F1386" t="inlineStr">
@@ -66942,12 +66942,12 @@
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>56378</t>
+          <t>56482</t>
         </is>
       </c>
       <c r="H1386" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1386" t="inlineStr">
@@ -66970,17 +66970,17 @@
       </c>
       <c r="C1387" t="inlineStr">
         <is>
-          <t>Wadena</t>
+          <t>Winthrop MN</t>
         </is>
       </c>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>220 Bottemiller Dr</t>
+          <t>Two N. Renville St</t>
         </is>
       </c>
       <c r="E1387" t="inlineStr">
         <is>
-          <t>Wadena</t>
+          <t>Winthrop</t>
         </is>
       </c>
       <c r="F1387" t="inlineStr">
@@ -66990,7 +66990,7 @@
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>56482</t>
+          <t>55396</t>
         </is>
       </c>
       <c r="H1387" t="inlineStr">
@@ -67008,7 +67008,7 @@
     <row r="1388">
       <c r="A1388" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - MN</t>
+          <t>Nutrien Ag Solutions - NE</t>
         </is>
       </c>
       <c r="B1388" t="inlineStr">
@@ -67018,27 +67018,27 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>Winthrop MN</t>
+          <t>Alliance NE</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>Two N. Renville St</t>
+          <t>2491 Chelsie Way</t>
         </is>
       </c>
       <c r="E1388" t="inlineStr">
         <is>
-          <t>Winthrop</t>
+          <t>Alliance</t>
         </is>
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>55396</t>
+          <t>69301</t>
         </is>
       </c>
       <c r="H1388" t="inlineStr">
@@ -67066,17 +67066,17 @@
       </c>
       <c r="C1389" t="inlineStr">
         <is>
-          <t>Alliance NE</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>2491 Chelsie Way</t>
+          <t>11398 719 Road</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr">
         <is>
-          <t>Alliance</t>
+          <t>Alma</t>
         </is>
       </c>
       <c r="F1389" t="inlineStr">
@@ -67086,7 +67086,7 @@
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>69301</t>
+          <t>68920</t>
         </is>
       </c>
       <c r="H1389" t="inlineStr">
@@ -67114,17 +67114,17 @@
       </c>
       <c r="C1390" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Arapahoe</t>
         </is>
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>11398 719 Road</t>
+          <t>42136 Hwy 6 and 34</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr">
         <is>
-          <t>Alma</t>
+          <t>Arapahoe</t>
         </is>
       </c>
       <c r="F1390" t="inlineStr">
@@ -67134,7 +67134,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>68920</t>
+          <t>68922</t>
         </is>
       </c>
       <c r="H1390" t="inlineStr">
@@ -67162,17 +67162,17 @@
       </c>
       <c r="C1391" t="inlineStr">
         <is>
-          <t>Arapahoe</t>
+          <t>Arlington NE</t>
         </is>
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>42136 Hwy 6 and 34</t>
+          <t>7098 County Road 15</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr">
         <is>
-          <t>Arapahoe</t>
+          <t>Arlington</t>
         </is>
       </c>
       <c r="F1391" t="inlineStr">
@@ -67182,7 +67182,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>68922</t>
+          <t>68002</t>
         </is>
       </c>
       <c r="H1391" t="inlineStr">
@@ -67210,17 +67210,17 @@
       </c>
       <c r="C1392" t="inlineStr">
         <is>
-          <t>Arlington NE</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>7098 County Road 15</t>
+          <t>1077 County Road B</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr">
         <is>
-          <t>Arlington</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="F1392" t="inlineStr">
@@ -67230,7 +67230,7 @@
       </c>
       <c r="G1392" t="inlineStr">
         <is>
-          <t>68002</t>
+          <t>68003</t>
         </is>
       </c>
       <c r="H1392" t="inlineStr">
@@ -67258,17 +67258,17 @@
       </c>
       <c r="C1393" t="inlineStr">
         <is>
-          <t>Ashland</t>
+          <t>Beatrice</t>
         </is>
       </c>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>1077 County Road B</t>
+          <t>3400 North 8th Street</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr">
         <is>
-          <t>Ashland</t>
+          <t>Beatrice</t>
         </is>
       </c>
       <c r="F1393" t="inlineStr">
@@ -67278,7 +67278,7 @@
       </c>
       <c r="G1393" t="inlineStr">
         <is>
-          <t>68003</t>
+          <t>68310</t>
         </is>
       </c>
       <c r="H1393" t="inlineStr">
@@ -67306,17 +67306,17 @@
       </c>
       <c r="C1394" t="inlineStr">
         <is>
-          <t>Beatrice</t>
+          <t>Beemer</t>
         </is>
       </c>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>3400 North 8th Street</t>
+          <t>630 Front St East Highway 275</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr">
         <is>
-          <t>Beatrice</t>
+          <t>Beemer</t>
         </is>
       </c>
       <c r="F1394" t="inlineStr">
@@ -67326,7 +67326,7 @@
       </c>
       <c r="G1394" t="inlineStr">
         <is>
-          <t>68310</t>
+          <t>68716</t>
         </is>
       </c>
       <c r="H1394" t="inlineStr">
@@ -67354,17 +67354,17 @@
       </c>
       <c r="C1395" t="inlineStr">
         <is>
-          <t>Beemer</t>
+          <t>Bridgeport</t>
         </is>
       </c>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>630 Front St East Highway 275</t>
+          <t>9262 SO RR Ave</t>
         </is>
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>Beemer</t>
+          <t>Bridgeport</t>
         </is>
       </c>
       <c r="F1395" t="inlineStr">
@@ -67374,7 +67374,7 @@
       </c>
       <c r="G1395" t="inlineStr">
         <is>
-          <t>68716</t>
+          <t>69336</t>
         </is>
       </c>
       <c r="H1395" t="inlineStr">
@@ -67402,17 +67402,17 @@
       </c>
       <c r="C1396" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Chester</t>
         </is>
       </c>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>9262 SO RR Ave</t>
+          <t>421 Croop Street</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Chester</t>
         </is>
       </c>
       <c r="F1396" t="inlineStr">
@@ -67422,7 +67422,7 @@
       </c>
       <c r="G1396" t="inlineStr">
         <is>
-          <t>69336</t>
+          <t>68327</t>
         </is>
       </c>
       <c r="H1396" t="inlineStr">
@@ -67450,17 +67450,17 @@
       </c>
       <c r="C1397" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Coleridge NE</t>
         </is>
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>421 Croop Street</t>
+          <t>56603 - 875 Rd.</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>Chester</t>
+          <t>Coleridge</t>
         </is>
       </c>
       <c r="F1397" t="inlineStr">
@@ -67470,7 +67470,7 @@
       </c>
       <c r="G1397" t="inlineStr">
         <is>
-          <t>68327</t>
+          <t>68727</t>
         </is>
       </c>
       <c r="H1397" t="inlineStr">
@@ -67498,17 +67498,17 @@
       </c>
       <c r="C1398" t="inlineStr">
         <is>
-          <t>Coleridge NE</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>56603 - 875 Rd.</t>
+          <t>207 S. Maple Ave</t>
         </is>
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>Coleridge</t>
+          <t>Davenport</t>
         </is>
       </c>
       <c r="F1398" t="inlineStr">
@@ -67518,7 +67518,7 @@
       </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>68727</t>
+          <t>68335</t>
         </is>
       </c>
       <c r="H1398" t="inlineStr">
@@ -67546,17 +67546,17 @@
       </c>
       <c r="C1399" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Deshler</t>
         </is>
       </c>
       <c r="D1399" t="inlineStr">
         <is>
-          <t>207 S. Maple Ave</t>
+          <t>5372 Hwy 136</t>
         </is>
       </c>
       <c r="E1399" t="inlineStr">
         <is>
-          <t>Davenport</t>
+          <t>Deshler</t>
         </is>
       </c>
       <c r="F1399" t="inlineStr">
@@ -67566,7 +67566,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>68335</t>
+          <t>68340</t>
         </is>
       </c>
       <c r="H1399" t="inlineStr">
@@ -67594,17 +67594,17 @@
       </c>
       <c r="C1400" t="inlineStr">
         <is>
-          <t>Deshler</t>
+          <t>Edgar</t>
         </is>
       </c>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>5372 Hwy 136</t>
+          <t>30251 Road R</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>Deshler</t>
+          <t>Edgar</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr">
@@ -67614,7 +67614,7 @@
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>68340</t>
+          <t>68935</t>
         </is>
       </c>
       <c r="H1400" t="inlineStr">
@@ -67642,17 +67642,17 @@
       </c>
       <c r="C1401" t="inlineStr">
         <is>
-          <t>Edgar</t>
+          <t>Elwood</t>
         </is>
       </c>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>30251 Road R</t>
+          <t>101 N Calvert Ave</t>
         </is>
       </c>
       <c r="E1401" t="inlineStr">
         <is>
-          <t>Edgar</t>
+          <t>Elwood</t>
         </is>
       </c>
       <c r="F1401" t="inlineStr">
@@ -67662,7 +67662,7 @@
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>68935</t>
+          <t>68937</t>
         </is>
       </c>
       <c r="H1401" t="inlineStr">
@@ -67690,17 +67690,17 @@
       </c>
       <c r="C1402" t="inlineStr">
         <is>
-          <t>Elwood</t>
+          <t>Fairbury</t>
         </is>
       </c>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>101 N Calvert Ave</t>
+          <t>71910 HWY 15</t>
         </is>
       </c>
       <c r="E1402" t="inlineStr">
         <is>
-          <t>Elwood</t>
+          <t>Fairbury</t>
         </is>
       </c>
       <c r="F1402" t="inlineStr">
@@ -67710,7 +67710,7 @@
       </c>
       <c r="G1402" t="inlineStr">
         <is>
-          <t>68937</t>
+          <t>68352</t>
         </is>
       </c>
       <c r="H1402" t="inlineStr">
@@ -67738,19 +67738,19 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
+          <t>LPI Fairbury MFG</t>
+        </is>
+      </c>
+      <c r="D1403" t="inlineStr">
+        <is>
+          <t>56908 Hwy 8</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
           <t>Fairbury</t>
         </is>
       </c>
-      <c r="D1403" t="inlineStr">
-        <is>
-          <t>71910 HWY 15</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr">
-        <is>
-          <t>Fairbury</t>
-        </is>
-      </c>
       <c r="F1403" t="inlineStr">
         <is>
           <t>NE</t>
@@ -67763,7 +67763,7 @@
       </c>
       <c r="H1403" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1403" t="inlineStr">
@@ -67786,17 +67786,17 @@
       </c>
       <c r="C1404" t="inlineStr">
         <is>
-          <t>LPI Fairbury MFG</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>56908 Hwy 8</t>
+          <t>2010 RD 11</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr">
         <is>
-          <t>Fairbury</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1404" t="inlineStr">
@@ -67806,12 +67806,12 @@
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>68352</t>
+          <t>68354</t>
         </is>
       </c>
       <c r="H1404" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1404" t="inlineStr">
@@ -67834,17 +67834,17 @@
       </c>
       <c r="C1405" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Fordyce NE</t>
         </is>
       </c>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>2010 RD 11</t>
+          <t>55503 887 Road</t>
         </is>
       </c>
       <c r="E1405" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Fordyce</t>
         </is>
       </c>
       <c r="F1405" t="inlineStr">
@@ -67854,7 +67854,7 @@
       </c>
       <c r="G1405" t="inlineStr">
         <is>
-          <t>68354</t>
+          <t>68736</t>
         </is>
       </c>
       <c r="H1405" t="inlineStr">
@@ -67882,17 +67882,17 @@
       </c>
       <c r="C1406" t="inlineStr">
         <is>
-          <t>Fordyce NE</t>
+          <t>Central Stock Loc Fremont</t>
         </is>
       </c>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>55503 887 Road</t>
+          <t>750 S Union St</t>
         </is>
       </c>
       <c r="E1406" t="inlineStr">
         <is>
-          <t>Fordyce</t>
+          <t>Fremont</t>
         </is>
       </c>
       <c r="F1406" t="inlineStr">
@@ -67902,12 +67902,12 @@
       </c>
       <c r="G1406" t="inlineStr">
         <is>
-          <t>68736</t>
+          <t>68025</t>
         </is>
       </c>
       <c r="H1406" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1406" t="inlineStr">
@@ -67930,7 +67930,7 @@
       </c>
       <c r="C1407" t="inlineStr">
         <is>
-          <t>Central Stock Loc Fremont</t>
+          <t>Fremont (Wholesale Prof)</t>
         </is>
       </c>
       <c r="D1407" t="inlineStr">
@@ -67955,7 +67955,7 @@
       </c>
       <c r="H1407" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1407" t="inlineStr">
@@ -67978,12 +67978,12 @@
       </c>
       <c r="C1408" t="inlineStr">
         <is>
-          <t>Fremont (Wholesale Prof)</t>
+          <t>Platte Fremont NE-LPI</t>
         </is>
       </c>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>750 S Union St</t>
+          <t>208 E Jackson</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
@@ -68003,7 +68003,7 @@
       </c>
       <c r="H1408" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1408" t="inlineStr">
@@ -68026,17 +68026,17 @@
       </c>
       <c r="C1409" t="inlineStr">
         <is>
-          <t>Platte Fremont NE-LPI</t>
+          <t>Grant NE</t>
         </is>
       </c>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>208 E Jackson</t>
+          <t>76164 Highway 61</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr">
         <is>
-          <t>Fremont</t>
+          <t>Grant</t>
         </is>
       </c>
       <c r="F1409" t="inlineStr">
@@ -68046,7 +68046,7 @@
       </c>
       <c r="G1409" t="inlineStr">
         <is>
-          <t>68025</t>
+          <t>69140</t>
         </is>
       </c>
       <c r="H1409" t="inlineStr">
@@ -68074,17 +68074,17 @@
       </c>
       <c r="C1410" t="inlineStr">
         <is>
-          <t>Grant NE</t>
+          <t>Hastings</t>
         </is>
       </c>
       <c r="D1410" t="inlineStr">
         <is>
-          <t>76164 Highway 61</t>
+          <t>150 N Blain Ave</t>
         </is>
       </c>
       <c r="E1410" t="inlineStr">
         <is>
-          <t>Grant</t>
+          <t>Hastings</t>
         </is>
       </c>
       <c r="F1410" t="inlineStr">
@@ -68094,7 +68094,7 @@
       </c>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>69140</t>
+          <t>68901</t>
         </is>
       </c>
       <c r="H1410" t="inlineStr">
@@ -68122,17 +68122,17 @@
       </c>
       <c r="C1411" t="inlineStr">
         <is>
-          <t>Hastings</t>
+          <t>Heartwell East</t>
         </is>
       </c>
       <c r="D1411" t="inlineStr">
         <is>
-          <t>150 N Blain Ave</t>
+          <t>1613 41st Rd</t>
         </is>
       </c>
       <c r="E1411" t="inlineStr">
         <is>
-          <t>Hastings</t>
+          <t>Heartwell</t>
         </is>
       </c>
       <c r="F1411" t="inlineStr">
@@ -68142,7 +68142,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>68901</t>
+          <t>68945</t>
         </is>
       </c>
       <c r="H1411" t="inlineStr">
@@ -68170,12 +68170,12 @@
       </c>
       <c r="C1412" t="inlineStr">
         <is>
-          <t>Heartwell East</t>
+          <t>Heartwell West</t>
         </is>
       </c>
       <c r="D1412" t="inlineStr">
         <is>
-          <t>1613 41st Rd</t>
+          <t>2111 Hwy 6</t>
         </is>
       </c>
       <c r="E1412" t="inlineStr">
@@ -68218,17 +68218,17 @@
       </c>
       <c r="C1413" t="inlineStr">
         <is>
-          <t>Heartwell West</t>
+          <t>Holdrege NE</t>
         </is>
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>2111 Hwy 6</t>
+          <t>1425 Brewster Road</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>Heartwell</t>
+          <t>Holdrege</t>
         </is>
       </c>
       <c r="F1413" t="inlineStr">
@@ -68238,7 +68238,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>68945</t>
+          <t>68949</t>
         </is>
       </c>
       <c r="H1413" t="inlineStr">
@@ -68266,12 +68266,12 @@
       </c>
       <c r="C1414" t="inlineStr">
         <is>
-          <t>Holdrege NE</t>
+          <t>WAC Terminal</t>
         </is>
       </c>
       <c r="D1414" t="inlineStr">
         <is>
-          <t>1425 Brewster Road</t>
+          <t>11828 733 Road</t>
         </is>
       </c>
       <c r="E1414" t="inlineStr">
@@ -68291,7 +68291,7 @@
       </c>
       <c r="H1414" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1414" t="inlineStr">
@@ -68314,17 +68314,17 @@
       </c>
       <c r="C1415" t="inlineStr">
         <is>
-          <t>WAC Terminal</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>11828 733 Road</t>
+          <t>901 East Highway 6</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
         <is>
-          <t>Holdrege</t>
+          <t>Imperial</t>
         </is>
       </c>
       <c r="F1415" t="inlineStr">
@@ -68334,12 +68334,12 @@
       </c>
       <c r="G1415" t="inlineStr">
         <is>
-          <t>68949</t>
+          <t>69033</t>
         </is>
       </c>
       <c r="H1415" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1415" t="inlineStr">
@@ -68362,19 +68362,19 @@
       </c>
       <c r="C1416" t="inlineStr">
         <is>
+          <t>Nebraska Seed Shed</t>
+        </is>
+      </c>
+      <c r="D1416" t="inlineStr">
+        <is>
+          <t>73905 328 Avenue</t>
+        </is>
+      </c>
+      <c r="E1416" t="inlineStr">
+        <is>
           <t>Imperial</t>
         </is>
       </c>
-      <c r="D1416" t="inlineStr">
-        <is>
-          <t>901 East Highway 6</t>
-        </is>
-      </c>
-      <c r="E1416" t="inlineStr">
-        <is>
-          <t>Imperial</t>
-        </is>
-      </c>
       <c r="F1416" t="inlineStr">
         <is>
           <t>NE</t>
@@ -68387,7 +68387,7 @@
       </c>
       <c r="H1416" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1416" t="inlineStr">
@@ -68410,17 +68410,17 @@
       </c>
       <c r="C1417" t="inlineStr">
         <is>
-          <t>Nebraska Seed Shed</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>73905 328 Avenue</t>
+          <t>63019 730 Road</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr">
         <is>
-          <t>Imperial</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="F1417" t="inlineStr">
@@ -68430,12 +68430,12 @@
       </c>
       <c r="G1417" t="inlineStr">
         <is>
-          <t>69033</t>
+          <t>68378</t>
         </is>
       </c>
       <c r="H1417" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1417" t="inlineStr">
@@ -68458,17 +68458,17 @@
       </c>
       <c r="C1418" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Kearney</t>
         </is>
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>63019 730 Road</t>
+          <t>1720 16th Ave</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Kearney</t>
         </is>
       </c>
       <c r="F1418" t="inlineStr">
@@ -68478,7 +68478,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>68378</t>
+          <t>68845</t>
         </is>
       </c>
       <c r="H1418" t="inlineStr">
@@ -68506,17 +68506,17 @@
       </c>
       <c r="C1419" t="inlineStr">
         <is>
-          <t>Kearney</t>
+          <t>Lamar NE</t>
         </is>
       </c>
       <c r="D1419" t="inlineStr">
         <is>
-          <t>1720 16th Ave</t>
+          <t>73994 Avenue 314</t>
         </is>
       </c>
       <c r="E1419" t="inlineStr">
         <is>
-          <t>Kearney</t>
+          <t>Lamar</t>
         </is>
       </c>
       <c r="F1419" t="inlineStr">
@@ -68526,7 +68526,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>68845</t>
+          <t>69023</t>
         </is>
       </c>
       <c r="H1419" t="inlineStr">
@@ -68554,17 +68554,17 @@
       </c>
       <c r="C1420" t="inlineStr">
         <is>
-          <t>Lamar NE</t>
+          <t>Laurel NE</t>
         </is>
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>73994 Avenue 314</t>
+          <t>86954 573 Ave</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr">
         <is>
-          <t>Lamar</t>
+          <t>Laurel</t>
         </is>
       </c>
       <c r="F1420" t="inlineStr">
@@ -68574,7 +68574,7 @@
       </c>
       <c r="G1420" t="inlineStr">
         <is>
-          <t>69023</t>
+          <t>68745</t>
         </is>
       </c>
       <c r="H1420" t="inlineStr">
@@ -68602,17 +68602,17 @@
       </c>
       <c r="C1421" t="inlineStr">
         <is>
-          <t>Laurel NE</t>
+          <t>McCook</t>
         </is>
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>86954 573 Ave</t>
+          <t>205 W. Railroad Service Rd</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr">
         <is>
-          <t>Laurel</t>
+          <t>McCook</t>
         </is>
       </c>
       <c r="F1421" t="inlineStr">
@@ -68622,7 +68622,7 @@
       </c>
       <c r="G1421" t="inlineStr">
         <is>
-          <t>68745</t>
+          <t>69001</t>
         </is>
       </c>
       <c r="H1421" t="inlineStr">
@@ -68698,17 +68698,17 @@
       </c>
       <c r="C1423" t="inlineStr">
         <is>
-          <t>McCook</t>
+          <t>Ogallala - NHP</t>
         </is>
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>205 W. Railroad Service Rd</t>
+          <t>201 Road East 80</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>McCook</t>
+          <t>Ogallala</t>
         </is>
       </c>
       <c r="F1423" t="inlineStr">
@@ -68718,7 +68718,7 @@
       </c>
       <c r="G1423" t="inlineStr">
         <is>
-          <t>69001</t>
+          <t>69153</t>
         </is>
       </c>
       <c r="H1423" t="inlineStr">
@@ -68746,17 +68746,17 @@
       </c>
       <c r="C1424" t="inlineStr">
         <is>
-          <t>Ogallala - NHP</t>
+          <t>Oxford</t>
         </is>
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>201 Road East 80</t>
+          <t>71853 A Road</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr">
         <is>
-          <t>Ogallala</t>
+          <t>Oxford</t>
         </is>
       </c>
       <c r="F1424" t="inlineStr">
@@ -68766,7 +68766,7 @@
       </c>
       <c r="G1424" t="inlineStr">
         <is>
-          <t>69153</t>
+          <t>68967</t>
         </is>
       </c>
       <c r="H1424" t="inlineStr">
@@ -68794,17 +68794,17 @@
       </c>
       <c r="C1425" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>71853 A Road</t>
+          <t>33855 Navaho Rd</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr">
         <is>
-          <t>Oxford</t>
+          <t>Ravenna</t>
         </is>
       </c>
       <c r="F1425" t="inlineStr">
@@ -68814,7 +68814,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>68967</t>
+          <t>68869</t>
         </is>
       </c>
       <c r="H1425" t="inlineStr">
@@ -68842,17 +68842,17 @@
       </c>
       <c r="C1426" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>South Sioux City</t>
         </is>
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>33855 Navaho Rd</t>
+          <t>4505 Dakota Ave</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>Ravenna</t>
+          <t>South Sioux City</t>
         </is>
       </c>
       <c r="F1426" t="inlineStr">
@@ -68862,7 +68862,7 @@
       </c>
       <c r="G1426" t="inlineStr">
         <is>
-          <t>68869</t>
+          <t>68776</t>
         </is>
       </c>
       <c r="H1426" t="inlineStr">
@@ -68890,17 +68890,17 @@
       </c>
       <c r="C1427" t="inlineStr">
         <is>
-          <t>South Sioux City</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>4505 Dakota Ave</t>
+          <t>1221 E 3rd Street</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr">
         <is>
-          <t>South Sioux City</t>
+          <t>Superior</t>
         </is>
       </c>
       <c r="F1427" t="inlineStr">
@@ -68910,7 +68910,7 @@
       </c>
       <c r="G1427" t="inlineStr">
         <is>
-          <t>68776</t>
+          <t>68978</t>
         </is>
       </c>
       <c r="H1427" t="inlineStr">
@@ -68938,17 +68938,17 @@
       </c>
       <c r="C1428" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Thurston</t>
         </is>
       </c>
       <c r="D1428" t="inlineStr">
         <is>
-          <t>1221 E 3rd Street</t>
+          <t>605 W. Lemmon Hwy 87A</t>
         </is>
       </c>
       <c r="E1428" t="inlineStr">
         <is>
-          <t>Superior</t>
+          <t>Thurston</t>
         </is>
       </c>
       <c r="F1428" t="inlineStr">
@@ -68958,7 +68958,7 @@
       </c>
       <c r="G1428" t="inlineStr">
         <is>
-          <t>68978</t>
+          <t>68062</t>
         </is>
       </c>
       <c r="H1428" t="inlineStr">
@@ -68986,17 +68986,17 @@
       </c>
       <c r="C1429" t="inlineStr">
         <is>
-          <t>Thurston</t>
+          <t>Waterloo NE</t>
         </is>
       </c>
       <c r="D1429" t="inlineStr">
         <is>
-          <t>605 W. Lemmon Hwy 87A</t>
+          <t>301 N. Front Street</t>
         </is>
       </c>
       <c r="E1429" t="inlineStr">
         <is>
-          <t>Thurston</t>
+          <t>Waterloo</t>
         </is>
       </c>
       <c r="F1429" t="inlineStr">
@@ -69006,7 +69006,7 @@
       </c>
       <c r="G1429" t="inlineStr">
         <is>
-          <t>68062</t>
+          <t>68069</t>
         </is>
       </c>
       <c r="H1429" t="inlineStr">
@@ -69024,7 +69024,7 @@
     <row r="1430">
       <c r="A1430" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - NE</t>
+          <t>Nutrien Ag Solutions - SD</t>
         </is>
       </c>
       <c r="B1430" t="inlineStr">
@@ -69034,27 +69034,27 @@
       </c>
       <c r="C1430" t="inlineStr">
         <is>
-          <t>Waterloo NE</t>
+          <t>Beardsley</t>
         </is>
       </c>
       <c r="D1430" t="inlineStr">
         <is>
-          <t>301 N. Front Street</t>
+          <t>41055 282nd Street</t>
         </is>
       </c>
       <c r="E1430" t="inlineStr">
         <is>
-          <t>Waterloo</t>
+          <t>Parkston</t>
         </is>
       </c>
       <c r="F1430" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="G1430" t="inlineStr">
         <is>
-          <t>68069</t>
+          <t>57366</t>
         </is>
       </c>
       <c r="H1430" t="inlineStr">
@@ -69082,17 +69082,17 @@
       </c>
       <c r="C1431" t="inlineStr">
         <is>
-          <t>Beardsley</t>
+          <t>Bridgewater SD</t>
         </is>
       </c>
       <c r="D1431" t="inlineStr">
         <is>
-          <t>41055 282nd Street</t>
+          <t>26519 US Hwy 81</t>
         </is>
       </c>
       <c r="E1431" t="inlineStr">
         <is>
-          <t>Parkston</t>
+          <t>Bridgewater</t>
         </is>
       </c>
       <c r="F1431" t="inlineStr">
@@ -69102,7 +69102,7 @@
       </c>
       <c r="G1431" t="inlineStr">
         <is>
-          <t>57366</t>
+          <t>57319</t>
         </is>
       </c>
       <c r="H1431" t="inlineStr">
@@ -69130,17 +69130,17 @@
       </c>
       <c r="C1432" t="inlineStr">
         <is>
-          <t>Bridgewater SD</t>
+          <t>Brookings (Wholesale)</t>
         </is>
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>26519 US Hwy 81</t>
+          <t>2011 32nd Ave</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
         <is>
-          <t>Bridgewater</t>
+          <t>Brookings</t>
         </is>
       </c>
       <c r="F1432" t="inlineStr">
@@ -69150,12 +69150,12 @@
       </c>
       <c r="G1432" t="inlineStr">
         <is>
-          <t>57319</t>
+          <t>57006</t>
         </is>
       </c>
       <c r="H1432" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1432" t="inlineStr">
@@ -69178,7 +69178,7 @@
       </c>
       <c r="C1433" t="inlineStr">
         <is>
-          <t>Brookings (Wholesale)</t>
+          <t>Central Stock Loc Brookings</t>
         </is>
       </c>
       <c r="D1433" t="inlineStr">
@@ -69203,7 +69203,7 @@
       </c>
       <c r="H1433" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1433" t="inlineStr">
@@ -69226,17 +69226,17 @@
       </c>
       <c r="C1434" t="inlineStr">
         <is>
-          <t>Central Stock Loc Brookings</t>
+          <t>Centerville</t>
         </is>
       </c>
       <c r="D1434" t="inlineStr">
         <is>
-          <t>2011 32nd Ave</t>
+          <t>30195 SD Highway 19</t>
         </is>
       </c>
       <c r="E1434" t="inlineStr">
         <is>
-          <t>Brookings</t>
+          <t>Centerville</t>
         </is>
       </c>
       <c r="F1434" t="inlineStr">
@@ -69246,12 +69246,12 @@
       </c>
       <c r="G1434" t="inlineStr">
         <is>
-          <t>57006</t>
+          <t>57014</t>
         </is>
       </c>
       <c r="H1434" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1434" t="inlineStr">
@@ -69274,17 +69274,17 @@
       </c>
       <c r="C1435" t="inlineStr">
         <is>
-          <t>Centerville</t>
+          <t>Emery</t>
         </is>
       </c>
       <c r="D1435" t="inlineStr">
         <is>
-          <t>30195 SD Highway 19</t>
+          <t>220 Industrial Road</t>
         </is>
       </c>
       <c r="E1435" t="inlineStr">
         <is>
-          <t>Centerville</t>
+          <t>Emery</t>
         </is>
       </c>
       <c r="F1435" t="inlineStr">
@@ -69294,7 +69294,7 @@
       </c>
       <c r="G1435" t="inlineStr">
         <is>
-          <t>57014</t>
+          <t>57332</t>
         </is>
       </c>
       <c r="H1435" t="inlineStr">
@@ -69322,17 +69322,17 @@
       </c>
       <c r="C1436" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Meckling</t>
         </is>
       </c>
       <c r="D1436" t="inlineStr">
         <is>
-          <t>220 Industrial Road</t>
+          <t>45682 W. Hwy 50</t>
         </is>
       </c>
       <c r="E1436" t="inlineStr">
         <is>
-          <t>Emery</t>
+          <t>Meckling</t>
         </is>
       </c>
       <c r="F1436" t="inlineStr">
@@ -69342,7 +69342,7 @@
       </c>
       <c r="G1436" t="inlineStr">
         <is>
-          <t>57332</t>
+          <t>57069</t>
         </is>
       </c>
       <c r="H1436" t="inlineStr">
@@ -69370,17 +69370,17 @@
       </c>
       <c r="C1437" t="inlineStr">
         <is>
-          <t>Meckling</t>
+          <t>Northville</t>
         </is>
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>45682 W. Hwy 50</t>
+          <t>10 W Main St</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr">
         <is>
-          <t>Meckling</t>
+          <t>Northville</t>
         </is>
       </c>
       <c r="F1437" t="inlineStr">
@@ -69390,7 +69390,7 @@
       </c>
       <c r="G1437" t="inlineStr">
         <is>
-          <t>57069</t>
+          <t>57465</t>
         </is>
       </c>
       <c r="H1437" t="inlineStr">
@@ -69418,17 +69418,17 @@
       </c>
       <c r="C1438" t="inlineStr">
         <is>
-          <t>Northville</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="D1438" t="inlineStr">
         <is>
-          <t>10 W Main St</t>
+          <t>225 W 5th Street</t>
         </is>
       </c>
       <c r="E1438" t="inlineStr">
         <is>
-          <t>Northville</t>
+          <t>Parker</t>
         </is>
       </c>
       <c r="F1438" t="inlineStr">
@@ -69438,7 +69438,7 @@
       </c>
       <c r="G1438" t="inlineStr">
         <is>
-          <t>57465</t>
+          <t>57053</t>
         </is>
       </c>
       <c r="H1438" t="inlineStr">
@@ -69466,17 +69466,17 @@
       </c>
       <c r="C1439" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Spearfish</t>
         </is>
       </c>
       <c r="D1439" t="inlineStr">
         <is>
-          <t>225 W 5th Street</t>
+          <t>5230 Airport Drive</t>
         </is>
       </c>
       <c r="E1439" t="inlineStr">
         <is>
-          <t>Parker</t>
+          <t>Spearfish</t>
         </is>
       </c>
       <c r="F1439" t="inlineStr">
@@ -69486,7 +69486,7 @@
       </c>
       <c r="G1439" t="inlineStr">
         <is>
-          <t>57053</t>
+          <t>57783</t>
         </is>
       </c>
       <c r="H1439" t="inlineStr">
@@ -69514,7 +69514,7 @@
       </c>
       <c r="C1440" t="inlineStr">
         <is>
-          <t>Spearfish</t>
+          <t>Spearfish (Pinebelt)</t>
         </is>
       </c>
       <c r="D1440" t="inlineStr">
@@ -69562,17 +69562,17 @@
       </c>
       <c r="C1441" t="inlineStr">
         <is>
-          <t>Spearfish (Pinebelt)</t>
+          <t>Vermillion SD (Greenfield)</t>
         </is>
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>5230 Airport Drive</t>
+          <t>1614 317th St</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>Spearfish</t>
+          <t>Vermillion</t>
         </is>
       </c>
       <c r="F1441" t="inlineStr">
@@ -69582,7 +69582,7 @@
       </c>
       <c r="G1441" t="inlineStr">
         <is>
-          <t>57783</t>
+          <t>57069</t>
         </is>
       </c>
       <c r="H1441" t="inlineStr">
@@ -69610,12 +69610,12 @@
       </c>
       <c r="C1442" t="inlineStr">
         <is>
-          <t>Vermillion SD (Greenfield)</t>
+          <t>Vermillion Shop SD</t>
         </is>
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>1614 317th St</t>
+          <t>2600 University Rd</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -69648,37 +69648,37 @@
     <row r="1443">
       <c r="A1443" t="inlineStr">
         <is>
-          <t>Nutrien Ag Solutions - SD</t>
+          <t>Prairieland FS - IL</t>
         </is>
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Nutrien Ag</t>
+          <t>Prairieland FS</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
         <is>
-          <t>Vermillion Shop SD</t>
+          <t>Auburn Agronomy</t>
         </is>
       </c>
       <c r="D1443" t="inlineStr">
         <is>
-          <t>2600 University Rd</t>
+          <t>407 E Jackson St</t>
         </is>
       </c>
       <c r="E1443" t="inlineStr">
         <is>
-          <t>Vermillion</t>
+          <t>Auburn</t>
         </is>
       </c>
       <c r="F1443" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1443" t="inlineStr">
         <is>
-          <t>57069</t>
+          <t>62615</t>
         </is>
       </c>
       <c r="H1443" t="inlineStr">
@@ -69688,7 +69688,7 @@
       </c>
       <c r="I1443" t="inlineStr">
         <is>
-          <t>Nutrien</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1443" t="inlineStr"/>
@@ -69706,17 +69706,17 @@
       </c>
       <c r="C1444" t="inlineStr">
         <is>
-          <t>Auburn Agronomy</t>
+          <t>Franklin Agronomy</t>
         </is>
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>407 E Jackson St</t>
+          <t>2950 Illinois Highway 104</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
         <is>
-          <t>Auburn</t>
+          <t>Franklin</t>
         </is>
       </c>
       <c r="F1444" t="inlineStr">
@@ -69726,7 +69726,7 @@
       </c>
       <c r="G1444" t="inlineStr">
         <is>
-          <t>62615</t>
+          <t>62638</t>
         </is>
       </c>
       <c r="H1444" t="inlineStr">
@@ -69754,17 +69754,17 @@
       </c>
       <c r="C1445" t="inlineStr">
         <is>
-          <t>Franklin Agronomy</t>
+          <t>Golden Agronomy</t>
         </is>
       </c>
       <c r="D1445" t="inlineStr">
         <is>
-          <t>2950 Illinois Highway 104</t>
+          <t>908 Prairie Mills Rd</t>
         </is>
       </c>
       <c r="E1445" t="inlineStr">
         <is>
-          <t>Franklin</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="F1445" t="inlineStr">
@@ -69774,7 +69774,7 @@
       </c>
       <c r="G1445" t="inlineStr">
         <is>
-          <t>62638</t>
+          <t>62339</t>
         </is>
       </c>
       <c r="H1445" t="inlineStr">
@@ -69802,17 +69802,17 @@
       </c>
       <c r="C1446" t="inlineStr">
         <is>
-          <t>Golden Agronomy</t>
+          <t>Greenview Agronomy</t>
         </is>
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>908 Prairie Mills Rd</t>
+          <t>24580 Jellystone Ave</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>Greenview</t>
         </is>
       </c>
       <c r="F1446" t="inlineStr">
@@ -69822,7 +69822,7 @@
       </c>
       <c r="G1446" t="inlineStr">
         <is>
-          <t>62339</t>
+          <t>62642</t>
         </is>
       </c>
       <c r="H1446" t="inlineStr">
@@ -69850,17 +69850,17 @@
       </c>
       <c r="C1447" t="inlineStr">
         <is>
-          <t>Greenview Agronomy</t>
+          <t>Huntsville Agronomy</t>
         </is>
       </c>
       <c r="D1447" t="inlineStr">
         <is>
-          <t>24580 Jellystone Ave</t>
+          <t>6299 LaPrairie Rd</t>
         </is>
       </c>
       <c r="E1447" t="inlineStr">
         <is>
-          <t>Greenview</t>
+          <t>Huntsville</t>
         </is>
       </c>
       <c r="F1447" t="inlineStr">
@@ -69870,7 +69870,7 @@
       </c>
       <c r="G1447" t="inlineStr">
         <is>
-          <t>62642</t>
+          <t>62344</t>
         </is>
       </c>
       <c r="H1447" t="inlineStr">
@@ -69898,17 +69898,17 @@
       </c>
       <c r="C1448" t="inlineStr">
         <is>
-          <t>Huntsville Agronomy</t>
+          <t>Jacksonville Agronomy</t>
         </is>
       </c>
       <c r="D1448" t="inlineStr">
         <is>
-          <t>6299 LaPrairie Rd</t>
+          <t>1905 W Morton Ave</t>
         </is>
       </c>
       <c r="E1448" t="inlineStr">
         <is>
-          <t>Huntsville</t>
+          <t>Jacksonville</t>
         </is>
       </c>
       <c r="F1448" t="inlineStr">
@@ -69918,7 +69918,7 @@
       </c>
       <c r="G1448" t="inlineStr">
         <is>
-          <t>62344</t>
+          <t>62650</t>
         </is>
       </c>
       <c r="H1448" t="inlineStr">
@@ -69946,12 +69946,12 @@
       </c>
       <c r="C1449" t="inlineStr">
         <is>
-          <t>Jacksonville Agronomy</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D1449" t="inlineStr">
         <is>
-          <t>1905 W Morton Ave</t>
+          <t>1132 Veterans Dr</t>
         </is>
       </c>
       <c r="E1449" t="inlineStr">
@@ -69971,7 +69971,7 @@
       </c>
       <c r="H1449" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1449" t="inlineStr">
@@ -69994,12 +69994,12 @@
       </c>
       <c r="C1450" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>Jacksonville Office</t>
         </is>
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>1132 Veterans Dr</t>
+          <t>701 Henry St</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
@@ -70019,7 +70019,7 @@
       </c>
       <c r="H1450" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1450" t="inlineStr">
@@ -70042,17 +70042,17 @@
       </c>
       <c r="C1451" t="inlineStr">
         <is>
-          <t>Jacksonville Office</t>
+          <t>Mount Sterling Agronomy</t>
         </is>
       </c>
       <c r="D1451" t="inlineStr">
         <is>
-          <t>701 Henry St</t>
+          <t>104 W Railroad St</t>
         </is>
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Mount Sterling</t>
         </is>
       </c>
       <c r="F1451" t="inlineStr">
@@ -70062,12 +70062,12 @@
       </c>
       <c r="G1451" t="inlineStr">
         <is>
-          <t>62650</t>
+          <t>62353</t>
         </is>
       </c>
       <c r="H1451" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1451" t="inlineStr">
@@ -70090,17 +70090,17 @@
       </c>
       <c r="C1452" t="inlineStr">
         <is>
-          <t>Mount Sterling Agronomy</t>
+          <t>Paloma Agronomy</t>
         </is>
       </c>
       <c r="D1452" t="inlineStr">
         <is>
-          <t>104 W Railroad St</t>
+          <t>1644 US-24</t>
         </is>
       </c>
       <c r="E1452" t="inlineStr">
         <is>
-          <t>Mount Sterling</t>
+          <t>Paloma</t>
         </is>
       </c>
       <c r="F1452" t="inlineStr">
@@ -70110,7 +70110,7 @@
       </c>
       <c r="G1452" t="inlineStr">
         <is>
-          <t>62353</t>
+          <t>62359</t>
         </is>
       </c>
       <c r="H1452" t="inlineStr">
@@ -70143,7 +70143,7 @@
       </c>
       <c r="D1453" t="inlineStr">
         <is>
-          <t>1644 US-24</t>
+          <t>Highway 24</t>
         </is>
       </c>
       <c r="E1453" t="inlineStr">
@@ -70186,17 +70186,17 @@
       </c>
       <c r="C1454" t="inlineStr">
         <is>
-          <t>Paloma Agronomy</t>
+          <t>Pittsfield Agronomy</t>
         </is>
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>Highway 24</t>
+          <t>1201 E Washington St</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
         <is>
-          <t>Paloma</t>
+          <t>Pittsfield</t>
         </is>
       </c>
       <c r="F1454" t="inlineStr">
@@ -70206,7 +70206,7 @@
       </c>
       <c r="G1454" t="inlineStr">
         <is>
-          <t>62359</t>
+          <t>62363</t>
         </is>
       </c>
       <c r="H1454" t="inlineStr">
@@ -70234,12 +70234,12 @@
       </c>
       <c r="C1455" t="inlineStr">
         <is>
-          <t>Pittsfield Agronomy</t>
+          <t>Pittsfield Office</t>
         </is>
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>1201 E Washington St</t>
+          <t>1301 E Washington St</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
@@ -70259,7 +70259,7 @@
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1455" t="inlineStr">
@@ -70282,17 +70282,17 @@
       </c>
       <c r="C1456" t="inlineStr">
         <is>
-          <t>Pittsfield Office</t>
+          <t>Rushville Agronomy</t>
         </is>
       </c>
       <c r="D1456" t="inlineStr">
         <is>
-          <t>1301 E Washington St</t>
+          <t>551 Macomb Rd</t>
         </is>
       </c>
       <c r="E1456" t="inlineStr">
         <is>
-          <t>Pittsfield</t>
+          <t>Rushville</t>
         </is>
       </c>
       <c r="F1456" t="inlineStr">
@@ -70302,12 +70302,12 @@
       </c>
       <c r="G1456" t="inlineStr">
         <is>
-          <t>62363</t>
+          <t>62681</t>
         </is>
       </c>
       <c r="H1456" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1456" t="inlineStr">
@@ -70330,12 +70330,12 @@
       </c>
       <c r="C1457" t="inlineStr">
         <is>
-          <t>Rushville Agronomy</t>
+          <t>Rushville</t>
         </is>
       </c>
       <c r="D1457" t="inlineStr">
         <is>
-          <t>551 Macomb Rd</t>
+          <t>605 Brown St</t>
         </is>
       </c>
       <c r="E1457" t="inlineStr">
@@ -70378,17 +70378,17 @@
       </c>
       <c r="C1458" t="inlineStr">
         <is>
-          <t>Rushville</t>
+          <t>Winchester</t>
         </is>
       </c>
       <c r="D1458" t="inlineStr">
         <is>
-          <t>605 Brown St</t>
+          <t>97 N Commercial St</t>
         </is>
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>Rushville</t>
+          <t>Winchester</t>
         </is>
       </c>
       <c r="F1458" t="inlineStr">
@@ -70398,7 +70398,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>62681</t>
+          <t>62694</t>
         </is>
       </c>
       <c r="H1458" t="inlineStr">
@@ -70414,52 +70414,52 @@
       <c r="J1458" t="inlineStr"/>
     </row>
     <row r="1459">
-      <c r="A1459" t="inlineStr">
-        <is>
-          <t>Prairieland FS - IL</t>
-        </is>
-      </c>
+      <c r="A1459" t="inlineStr"/>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>Prairieland FS</t>
+          <t>PRO Coop</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
         <is>
-          <t>Winchester</t>
+          <t>Manson</t>
         </is>
       </c>
       <c r="D1459" t="inlineStr">
         <is>
-          <t>97 N Commercial St</t>
+          <t>1303 9th Ave</t>
         </is>
       </c>
       <c r="E1459" t="inlineStr">
         <is>
-          <t>Winchester</t>
+          <t>Manson</t>
         </is>
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>62694</t>
+          <t>50563</t>
         </is>
       </c>
       <c r="H1459" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1459" t="inlineStr">
         <is>
-          <t>Growmark</t>
-        </is>
-      </c>
-      <c r="J1459" t="inlineStr"/>
+          <t>Winfield</t>
+        </is>
+      </c>
+      <c r="J1459" t="inlineStr">
+        <is>
+          <t>PRO Cooperative - IA</t>
+        </is>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" t="inlineStr"/>
@@ -70470,17 +70470,17 @@
       </c>
       <c r="C1460" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Laurens</t>
         </is>
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>1303 9th Ave</t>
+          <t>320 West Main</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>Manson</t>
+          <t>Laurens</t>
         </is>
       </c>
       <c r="F1460" t="inlineStr">
@@ -70490,7 +70490,7 @@
       </c>
       <c r="G1460" t="inlineStr">
         <is>
-          <t>50563</t>
+          <t>50554</t>
         </is>
       </c>
       <c r="H1460" t="inlineStr">
@@ -70518,17 +70518,17 @@
       </c>
       <c r="C1461" t="inlineStr">
         <is>
-          <t>Laurens</t>
+          <t>Pocahontas Elevator</t>
         </is>
       </c>
       <c r="D1461" t="inlineStr">
         <is>
-          <t>320 West Main</t>
+          <t>101 North Main St</t>
         </is>
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>Laurens</t>
+          <t>Pocahontas</t>
         </is>
       </c>
       <c r="F1461" t="inlineStr">
@@ -70538,12 +70538,12 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>50554</t>
+          <t>50574</t>
         </is>
       </c>
       <c r="H1461" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain/Feed</t>
         </is>
       </c>
       <c r="I1461" t="inlineStr">
@@ -70566,17 +70566,17 @@
       </c>
       <c r="C1462" t="inlineStr">
         <is>
-          <t>Pocahontas Elevator</t>
+          <t>Bradgate</t>
         </is>
       </c>
       <c r="D1462" t="inlineStr">
         <is>
-          <t>101 North Main St</t>
+          <t>500 South Public St</t>
         </is>
       </c>
       <c r="E1462" t="inlineStr">
         <is>
-          <t>Pocahontas</t>
+          <t>Bradgate</t>
         </is>
       </c>
       <c r="F1462" t="inlineStr">
@@ -70586,12 +70586,12 @@
       </c>
       <c r="G1462" t="inlineStr">
         <is>
-          <t>50574</t>
+          <t>50520</t>
         </is>
       </c>
       <c r="H1462" t="inlineStr">
         <is>
-          <t>Grain/Feed</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1462" t="inlineStr">
@@ -70614,17 +70614,17 @@
       </c>
       <c r="C1463" t="inlineStr">
         <is>
-          <t>Bradgate</t>
+          <t>Rolfe Agronomy Center</t>
         </is>
       </c>
       <c r="D1463" t="inlineStr">
         <is>
-          <t>500 South Public St</t>
+          <t>601 Broad St</t>
         </is>
       </c>
       <c r="E1463" t="inlineStr">
         <is>
-          <t>Bradgate</t>
+          <t>Rolfe</t>
         </is>
       </c>
       <c r="F1463" t="inlineStr">
@@ -70634,12 +70634,12 @@
       </c>
       <c r="G1463" t="inlineStr">
         <is>
-          <t>50520</t>
+          <t>50581</t>
         </is>
       </c>
       <c r="H1463" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1463" t="inlineStr">
@@ -70662,17 +70662,17 @@
       </c>
       <c r="C1464" t="inlineStr">
         <is>
-          <t>Rolfe Agronomy Center</t>
+          <t>Plover</t>
         </is>
       </c>
       <c r="D1464" t="inlineStr">
         <is>
-          <t>601 Broad St</t>
+          <t>402 Jackson</t>
         </is>
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>Rolfe</t>
+          <t>Plover</t>
         </is>
       </c>
       <c r="F1464" t="inlineStr">
@@ -70682,12 +70682,12 @@
       </c>
       <c r="G1464" t="inlineStr">
         <is>
-          <t>50581</t>
+          <t>50573</t>
         </is>
       </c>
       <c r="H1464" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1464" t="inlineStr">
@@ -70710,17 +70710,17 @@
       </c>
       <c r="C1465" t="inlineStr">
         <is>
-          <t>Plover</t>
+          <t>Ruthven</t>
         </is>
       </c>
       <c r="D1465" t="inlineStr">
         <is>
-          <t>402 Jackson</t>
+          <t>1409 Main St</t>
         </is>
       </c>
       <c r="E1465" t="inlineStr">
         <is>
-          <t>Plover</t>
+          <t>Ruthven</t>
         </is>
       </c>
       <c r="F1465" t="inlineStr">
@@ -70730,7 +70730,7 @@
       </c>
       <c r="G1465" t="inlineStr">
         <is>
-          <t>50573</t>
+          <t>51358</t>
         </is>
       </c>
       <c r="H1465" t="inlineStr">
@@ -70758,17 +70758,17 @@
       </c>
       <c r="C1466" t="inlineStr">
         <is>
-          <t>Ruthven</t>
+          <t>Wallingford</t>
         </is>
       </c>
       <c r="D1466" t="inlineStr">
         <is>
-          <t>1409 Main St</t>
+          <t>115 Elevator Rd</t>
         </is>
       </c>
       <c r="E1466" t="inlineStr">
         <is>
-          <t>Ruthven</t>
+          <t>Wallingford</t>
         </is>
       </c>
       <c r="F1466" t="inlineStr">
@@ -70778,7 +70778,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>51358</t>
+          <t>51365</t>
         </is>
       </c>
       <c r="H1466" t="inlineStr">
@@ -70806,17 +70806,17 @@
       </c>
       <c r="C1467" t="inlineStr">
         <is>
-          <t>Wallingford</t>
+          <t>Terril</t>
         </is>
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>115 Elevator Rd</t>
+          <t>402 Warner Ave</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>Wallingford</t>
+          <t>Terril</t>
         </is>
       </c>
       <c r="F1467" t="inlineStr">
@@ -70826,7 +70826,7 @@
       </c>
       <c r="G1467" t="inlineStr">
         <is>
-          <t>51365</t>
+          <t>51364</t>
         </is>
       </c>
       <c r="H1467" t="inlineStr">
@@ -70854,17 +70854,17 @@
       </c>
       <c r="C1468" t="inlineStr">
         <is>
-          <t>Terril</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="D1468" t="inlineStr">
         <is>
-          <t>402 Warner Ave</t>
+          <t>110 Main St</t>
         </is>
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>Terril</t>
+          <t>Pioneer</t>
         </is>
       </c>
       <c r="F1468" t="inlineStr">
@@ -70874,7 +70874,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>51364</t>
+          <t>50541</t>
         </is>
       </c>
       <c r="H1468" t="inlineStr">
@@ -70902,17 +70902,17 @@
       </c>
       <c r="C1469" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Rutland</t>
         </is>
       </c>
       <c r="D1469" t="inlineStr">
         <is>
-          <t>110 Main St</t>
+          <t>206 Sheridan</t>
         </is>
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>Pioneer</t>
+          <t>Rutland</t>
         </is>
       </c>
       <c r="F1469" t="inlineStr">
@@ -70922,7 +70922,7 @@
       </c>
       <c r="G1469" t="inlineStr">
         <is>
-          <t>50541</t>
+          <t>50582</t>
         </is>
       </c>
       <c r="H1469" t="inlineStr">
@@ -70950,17 +70950,17 @@
       </c>
       <c r="C1470" t="inlineStr">
         <is>
-          <t>Rutland</t>
+          <t>Estherville</t>
         </is>
       </c>
       <c r="D1470" t="inlineStr">
         <is>
-          <t>206 Sheridan</t>
+          <t>108 S 3rd St</t>
         </is>
       </c>
       <c r="E1470" t="inlineStr">
         <is>
-          <t>Rutland</t>
+          <t>Estherville</t>
         </is>
       </c>
       <c r="F1470" t="inlineStr">
@@ -70970,7 +70970,7 @@
       </c>
       <c r="G1470" t="inlineStr">
         <is>
-          <t>50582</t>
+          <t>51334</t>
         </is>
       </c>
       <c r="H1470" t="inlineStr">
@@ -70998,17 +70998,17 @@
       </c>
       <c r="C1471" t="inlineStr">
         <is>
-          <t>Estherville</t>
+          <t>Havelock</t>
         </is>
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>108 S 3rd St</t>
+          <t>446 Hwy 10</t>
         </is>
       </c>
       <c r="E1471" t="inlineStr">
         <is>
-          <t>Estherville</t>
+          <t>Havelock</t>
         </is>
       </c>
       <c r="F1471" t="inlineStr">
@@ -71018,7 +71018,7 @@
       </c>
       <c r="G1471" t="inlineStr">
         <is>
-          <t>51334</t>
+          <t>50546</t>
         </is>
       </c>
       <c r="H1471" t="inlineStr">
@@ -71046,17 +71046,17 @@
       </c>
       <c r="C1472" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Ayrshire</t>
         </is>
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>446 Hwy 10</t>
+          <t>3717 420th St</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
         <is>
-          <t>Havelock</t>
+          <t>Ayrshire</t>
         </is>
       </c>
       <c r="F1472" t="inlineStr">
@@ -71066,7 +71066,7 @@
       </c>
       <c r="G1472" t="inlineStr">
         <is>
-          <t>50546</t>
+          <t>50515</t>
         </is>
       </c>
       <c r="H1472" t="inlineStr">
@@ -71086,52 +71086,52 @@
       </c>
     </row>
     <row r="1473">
-      <c r="A1473" t="inlineStr"/>
+      <c r="A1473" t="inlineStr">
+        <is>
+          <t>RedStar Fertilizer - NE MN</t>
+        </is>
+      </c>
       <c r="B1473" t="inlineStr">
         <is>
-          <t>PRO Coop</t>
+          <t>RedStar</t>
         </is>
       </c>
       <c r="C1473" t="inlineStr">
         <is>
-          <t>Ayrshire</t>
+          <t>Fairmont (MN)</t>
         </is>
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>3717 420th St</t>
+          <t>968 160th Ave</t>
         </is>
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>Ayrshire</t>
+          <t>Fairmont</t>
         </is>
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1473" t="inlineStr">
         <is>
-          <t>50515</t>
+          <t>56031</t>
         </is>
       </c>
       <c r="H1473" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1473" t="inlineStr">
         <is>
-          <t>Winfield</t>
-        </is>
-      </c>
-      <c r="J1473" t="inlineStr">
-        <is>
-          <t>PRO Cooperative - IA</t>
-        </is>
-      </c>
+          <t>IAP</t>
+        </is>
+      </c>
+      <c r="J1473" t="inlineStr"/>
     </row>
     <row r="1474">
       <c r="A1474" t="inlineStr">
@@ -71146,27 +71146,27 @@
       </c>
       <c r="C1474" t="inlineStr">
         <is>
-          <t>Fairmont (MN)</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>968 160th Ave</t>
+          <t>1230 350th St</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>Fairmont</t>
+          <t>Cedar Rapids</t>
         </is>
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="G1474" t="inlineStr">
         <is>
-          <t>56031</t>
+          <t>68627</t>
         </is>
       </c>
       <c r="H1474" t="inlineStr">
@@ -71194,17 +71194,17 @@
       </c>
       <c r="C1475" t="inlineStr">
         <is>
-          <t>Cedar Rapids</t>
+          <t>Columbus – Distribution Center</t>
         </is>
       </c>
       <c r="D1475" t="inlineStr">
         <is>
-          <t>1230 350th St</t>
+          <t>4930 Howard Blvd</t>
         </is>
       </c>
       <c r="E1475" t="inlineStr">
         <is>
-          <t>Cedar Rapids</t>
+          <t>Columbus</t>
         </is>
       </c>
       <c r="F1475" t="inlineStr">
@@ -71214,12 +71214,12 @@
       </c>
       <c r="G1475" t="inlineStr">
         <is>
-          <t>68627</t>
+          <t>68601</t>
         </is>
       </c>
       <c r="H1475" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Distribution</t>
         </is>
       </c>
       <c r="I1475" t="inlineStr">
@@ -71242,17 +71242,17 @@
       </c>
       <c r="C1476" t="inlineStr">
         <is>
-          <t>Columbus – Distribution Center</t>
+          <t>Leigh – Main Office</t>
         </is>
       </c>
       <c r="D1476" t="inlineStr">
         <is>
-          <t>4930 Howard Blvd</t>
+          <t>48303 115 Ave</t>
         </is>
       </c>
       <c r="E1476" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Leigh</t>
         </is>
       </c>
       <c r="F1476" t="inlineStr">
@@ -71262,12 +71262,12 @@
       </c>
       <c r="G1476" t="inlineStr">
         <is>
-          <t>68601</t>
+          <t>68643</t>
         </is>
       </c>
       <c r="H1476" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1476" t="inlineStr">
@@ -71290,17 +71290,17 @@
       </c>
       <c r="C1477" t="inlineStr">
         <is>
-          <t>Leigh – Main Office</t>
+          <t>Osceola</t>
         </is>
       </c>
       <c r="D1477" t="inlineStr">
         <is>
-          <t>48303 115 Ave</t>
+          <t>210 Ridge St</t>
         </is>
       </c>
       <c r="E1477" t="inlineStr">
         <is>
-          <t>Leigh</t>
+          <t>Osceola</t>
         </is>
       </c>
       <c r="F1477" t="inlineStr">
@@ -71310,12 +71310,12 @@
       </c>
       <c r="G1477" t="inlineStr">
         <is>
-          <t>68643</t>
+          <t>68651</t>
         </is>
       </c>
       <c r="H1477" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1477" t="inlineStr">
@@ -71328,37 +71328,37 @@
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>RedStar Fertilizer - NE MN</t>
+          <t>South Central FS - IL</t>
         </is>
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>RedStar</t>
+          <t>South Central FS</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
         <is>
-          <t>Osceola</t>
+          <t>South Central FS – Altamont</t>
         </is>
       </c>
       <c r="D1478" t="inlineStr">
         <is>
-          <t>210 Ridge St</t>
+          <t>7471 N 300th St</t>
         </is>
       </c>
       <c r="E1478" t="inlineStr">
         <is>
-          <t>Osceola</t>
+          <t>Altamont</t>
         </is>
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1478" t="inlineStr">
         <is>
-          <t>68651</t>
+          <t>62411</t>
         </is>
       </c>
       <c r="H1478" t="inlineStr">
@@ -71368,7 +71368,7 @@
       </c>
       <c r="I1478" t="inlineStr">
         <is>
-          <t>IAP</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1478" t="inlineStr"/>
@@ -71386,12 +71386,12 @@
       </c>
       <c r="C1479" t="inlineStr">
         <is>
-          <t>South Central FS – Altamont</t>
+          <t>Altamont Agronomy</t>
         </is>
       </c>
       <c r="D1479" t="inlineStr">
         <is>
-          <t>7471 N 300th St</t>
+          <t>502 S Charles St</t>
         </is>
       </c>
       <c r="E1479" t="inlineStr">
@@ -71434,17 +71434,17 @@
       </c>
       <c r="C1480" t="inlineStr">
         <is>
-          <t>Altamont Agronomy</t>
+          <t>Effingham Agronomy</t>
         </is>
       </c>
       <c r="D1480" t="inlineStr">
         <is>
-          <t>502 S Charles St</t>
+          <t>203 E Willow St</t>
         </is>
       </c>
       <c r="E1480" t="inlineStr">
         <is>
-          <t>Altamont</t>
+          <t>Effingham</t>
         </is>
       </c>
       <c r="F1480" t="inlineStr">
@@ -71454,7 +71454,7 @@
       </c>
       <c r="G1480" t="inlineStr">
         <is>
-          <t>62411</t>
+          <t>62401</t>
         </is>
       </c>
       <c r="H1480" t="inlineStr">
@@ -71482,12 +71482,12 @@
       </c>
       <c r="C1481" t="inlineStr">
         <is>
-          <t>Effingham Agronomy</t>
+          <t>South Central FS – Effingham (Willow St)</t>
         </is>
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>203 E Willow St</t>
+          <t>410 S Willow St</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
@@ -71507,7 +71507,7 @@
       </c>
       <c r="H1481" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1481" t="inlineStr">
@@ -71530,12 +71530,12 @@
       </c>
       <c r="C1482" t="inlineStr">
         <is>
-          <t>South Central FS – Effingham (Willow St)</t>
+          <t>Corporate Office</t>
         </is>
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>410 S Willow St</t>
+          <t>405 S Banker St</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
@@ -71555,7 +71555,7 @@
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1482" t="inlineStr">
@@ -71578,17 +71578,17 @@
       </c>
       <c r="C1483" t="inlineStr">
         <is>
-          <t>Corporate Office</t>
+          <t>South Central FS – Flora</t>
         </is>
       </c>
       <c r="D1483" t="inlineStr">
         <is>
-          <t>405 S Banker St</t>
+          <t>404 W North Ave</t>
         </is>
       </c>
       <c r="E1483" t="inlineStr">
         <is>
-          <t>Effingham</t>
+          <t>Flora</t>
         </is>
       </c>
       <c r="F1483" t="inlineStr">
@@ -71598,12 +71598,12 @@
       </c>
       <c r="G1483" t="inlineStr">
         <is>
-          <t>62401</t>
+          <t>62839</t>
         </is>
       </c>
       <c r="H1483" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1483" t="inlineStr">
@@ -71626,12 +71626,12 @@
       </c>
       <c r="C1484" t="inlineStr">
         <is>
-          <t>South Central FS – Flora</t>
+          <t>Flora Agronomy</t>
         </is>
       </c>
       <c r="D1484" t="inlineStr">
         <is>
-          <t>404 W North Ave</t>
+          <t>1266 Hwy 50</t>
         </is>
       </c>
       <c r="E1484" t="inlineStr">
@@ -71674,17 +71674,17 @@
       </c>
       <c r="C1485" t="inlineStr">
         <is>
-          <t>Flora Agronomy</t>
+          <t>Greenville</t>
         </is>
       </c>
       <c r="D1485" t="inlineStr">
         <is>
-          <t>1266 Hwy 50</t>
+          <t>1715 E City Route 40</t>
         </is>
       </c>
       <c r="E1485" t="inlineStr">
         <is>
-          <t>Flora</t>
+          <t>Greenville</t>
         </is>
       </c>
       <c r="F1485" t="inlineStr">
@@ -71694,7 +71694,7 @@
       </c>
       <c r="G1485" t="inlineStr">
         <is>
-          <t>62839</t>
+          <t>62246</t>
         </is>
       </c>
       <c r="H1485" t="inlineStr">
@@ -71722,17 +71722,17 @@
       </c>
       <c r="C1486" t="inlineStr">
         <is>
-          <t>Greenville</t>
+          <t>South Central FS – St. Peter</t>
         </is>
       </c>
       <c r="D1486" t="inlineStr">
         <is>
-          <t>1715 E City Route 40</t>
+          <t>510 E Railroad St</t>
         </is>
       </c>
       <c r="E1486" t="inlineStr">
         <is>
-          <t>Greenville</t>
+          <t>St. Peter</t>
         </is>
       </c>
       <c r="F1486" t="inlineStr">
@@ -71742,7 +71742,7 @@
       </c>
       <c r="G1486" t="inlineStr">
         <is>
-          <t>62246</t>
+          <t>62880</t>
         </is>
       </c>
       <c r="H1486" t="inlineStr">
@@ -71770,17 +71770,17 @@
       </c>
       <c r="C1487" t="inlineStr">
         <is>
-          <t>South Central FS – St. Peter</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="D1487" t="inlineStr">
         <is>
-          <t>510 E Railroad St</t>
+          <t>708 S Meridian St</t>
         </is>
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>St. Peter</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="F1487" t="inlineStr">
@@ -71790,7 +71790,7 @@
       </c>
       <c r="G1487" t="inlineStr">
         <is>
-          <t>62880</t>
+          <t>62468</t>
         </is>
       </c>
       <c r="H1487" t="inlineStr">
@@ -71818,17 +71818,17 @@
       </c>
       <c r="C1488" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Tower Hill Location</t>
         </is>
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>708 S Meridian St</t>
+          <t>103 E Freemont St</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Tower Hill</t>
         </is>
       </c>
       <c r="F1488" t="inlineStr">
@@ -71838,12 +71838,12 @@
       </c>
       <c r="G1488" t="inlineStr">
         <is>
-          <t>62468</t>
+          <t>62571</t>
         </is>
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1488" t="inlineStr">
@@ -71866,17 +71866,17 @@
       </c>
       <c r="C1489" t="inlineStr">
         <is>
-          <t>Tower Hill Location</t>
+          <t>Vandalia Agronomy</t>
         </is>
       </c>
       <c r="D1489" t="inlineStr">
         <is>
-          <t>103 E Freemont St</t>
+          <t>1506 Veterans Ave</t>
         </is>
       </c>
       <c r="E1489" t="inlineStr">
         <is>
-          <t>Tower Hill</t>
+          <t>Vandalia</t>
         </is>
       </c>
       <c r="F1489" t="inlineStr">
@@ -71886,12 +71886,12 @@
       </c>
       <c r="G1489" t="inlineStr">
         <is>
-          <t>62571</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="H1489" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1489" t="inlineStr">
@@ -71904,37 +71904,37 @@
     <row r="1490">
       <c r="A1490" t="inlineStr">
         <is>
-          <t>South Central FS - IL</t>
+          <t>Sunrise Cooperative - OH</t>
         </is>
       </c>
       <c r="B1490" t="inlineStr">
         <is>
-          <t>South Central FS</t>
+          <t>Sunrise Cooperative</t>
         </is>
       </c>
       <c r="C1490" t="inlineStr">
         <is>
-          <t>Vandalia Agronomy</t>
+          <t>Attica Agronomy</t>
         </is>
       </c>
       <c r="D1490" t="inlineStr">
         <is>
-          <t>1506 Veterans Ave</t>
+          <t>3568 State Route 4</t>
         </is>
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>Vandalia</t>
+          <t>Attica</t>
         </is>
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>62471</t>
+          <t>44807</t>
         </is>
       </c>
       <c r="H1490" t="inlineStr">
@@ -71944,7 +71944,7 @@
       </c>
       <c r="I1490" t="inlineStr">
         <is>
-          <t>Growmark</t>
+          <t>Winfield</t>
         </is>
       </c>
       <c r="J1490" t="inlineStr"/>
@@ -71967,7 +71967,7 @@
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>3568 State Route 4</t>
+          <t>3568 St. Rt. 4</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr">
@@ -72010,17 +72010,17 @@
       </c>
       <c r="C1492" t="inlineStr">
         <is>
-          <t>Attica Agronomy</t>
+          <t>Botkins Grain &amp; Agronomy Hub</t>
         </is>
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>3568 St. Rt. 4</t>
+          <t>400 W Walnut Street</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr">
         <is>
-          <t>Attica</t>
+          <t>Botkins</t>
         </is>
       </c>
       <c r="F1492" t="inlineStr">
@@ -72030,12 +72030,12 @@
       </c>
       <c r="G1492" t="inlineStr">
         <is>
-          <t>44807</t>
+          <t>45306</t>
         </is>
       </c>
       <c r="H1492" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1492" t="inlineStr">
@@ -72058,17 +72058,17 @@
       </c>
       <c r="C1493" t="inlineStr">
         <is>
-          <t>Botkins Grain &amp; Agronomy Hub</t>
+          <t>Clyde Grain</t>
         </is>
       </c>
       <c r="D1493" t="inlineStr">
         <is>
-          <t>400 W Walnut Street</t>
+          <t>1100 Burkholder Rd.</t>
         </is>
       </c>
       <c r="E1493" t="inlineStr">
         <is>
-          <t>Botkins</t>
+          <t>Clyde</t>
         </is>
       </c>
       <c r="F1493" t="inlineStr">
@@ -72078,12 +72078,12 @@
       </c>
       <c r="G1493" t="inlineStr">
         <is>
-          <t>45306</t>
+          <t>43410</t>
         </is>
       </c>
       <c r="H1493" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1493" t="inlineStr">
@@ -72106,17 +72106,17 @@
       </c>
       <c r="C1494" t="inlineStr">
         <is>
-          <t>Clyde Grain</t>
+          <t>Crestline Agronomy</t>
         </is>
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>1100 Burkholder Rd.</t>
+          <t>3000 W Bucyrus St</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr">
         <is>
-          <t>Clyde</t>
+          <t>Crestline</t>
         </is>
       </c>
       <c r="F1494" t="inlineStr">
@@ -72126,12 +72126,12 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>43410</t>
+          <t>44827</t>
         </is>
       </c>
       <c r="H1494" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1494" t="inlineStr">
@@ -72154,17 +72154,17 @@
       </c>
       <c r="C1495" t="inlineStr">
         <is>
-          <t>Crestline Agronomy</t>
+          <t>Ballville Agronomy</t>
         </is>
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>3000 W Bucyrus St</t>
+          <t>703 South St Rt 53</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr">
         <is>
-          <t>Crestline</t>
+          <t>Fremont</t>
         </is>
       </c>
       <c r="F1495" t="inlineStr">
@@ -72174,7 +72174,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>44827</t>
+          <t>43420</t>
         </is>
       </c>
       <c r="H1495" t="inlineStr">
@@ -72202,17 +72202,17 @@
       </c>
       <c r="C1496" t="inlineStr">
         <is>
-          <t>Ballville Agronomy</t>
+          <t>PCT | Sunrise (Kettlersville)</t>
         </is>
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>703 South St Rt 53</t>
+          <t>16420 McCartyville Rd</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr">
         <is>
-          <t>Fremont</t>
+          <t>Kettlersville</t>
         </is>
       </c>
       <c r="F1496" t="inlineStr">
@@ -72222,7 +72222,7 @@
       </c>
       <c r="G1496" t="inlineStr">
         <is>
-          <t>43420</t>
+          <t>45336</t>
         </is>
       </c>
       <c r="H1496" t="inlineStr">
@@ -72250,17 +72250,17 @@
       </c>
       <c r="C1497" t="inlineStr">
         <is>
-          <t>PCT | Sunrise (Kettlersville)</t>
+          <t>Norwalk Agronomy</t>
         </is>
       </c>
       <c r="D1497" t="inlineStr">
         <is>
-          <t>16420 McCartyville Rd</t>
+          <t>3130 Greenwich-Milan TL Rd N</t>
         </is>
       </c>
       <c r="E1497" t="inlineStr">
         <is>
-          <t>Kettlersville</t>
+          <t>Norwalk</t>
         </is>
       </c>
       <c r="F1497" t="inlineStr">
@@ -72270,7 +72270,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>45336</t>
+          <t>44857</t>
         </is>
       </c>
       <c r="H1497" t="inlineStr">
@@ -72303,7 +72303,7 @@
       </c>
       <c r="D1498" t="inlineStr">
         <is>
-          <t>3130 Greenwich-Milan TL Rd N</t>
+          <t>3130 Greenwich-Milan T.L. Road North</t>
         </is>
       </c>
       <c r="E1498" t="inlineStr">
@@ -72346,17 +72346,17 @@
       </c>
       <c r="C1499" t="inlineStr">
         <is>
-          <t>Norwalk Agronomy</t>
+          <t>Osgood Agronomy &amp; Grain</t>
         </is>
       </c>
       <c r="D1499" t="inlineStr">
         <is>
-          <t>3130 Greenwich-Milan T.L. Road North</t>
+          <t>17 E Main St</t>
         </is>
       </c>
       <c r="E1499" t="inlineStr">
         <is>
-          <t>Norwalk</t>
+          <t>Osgood</t>
         </is>
       </c>
       <c r="F1499" t="inlineStr">
@@ -72366,12 +72366,12 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>44857</t>
+          <t>45351</t>
         </is>
       </c>
       <c r="H1499" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1499" t="inlineStr">
@@ -72394,17 +72394,17 @@
       </c>
       <c r="C1500" t="inlineStr">
         <is>
-          <t>Osgood Agronomy &amp; Grain</t>
+          <t>South Charleston Agronomy</t>
         </is>
       </c>
       <c r="D1500" t="inlineStr">
         <is>
-          <t>17 E Main St</t>
+          <t>10844 Huntington Rd</t>
         </is>
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>Osgood</t>
+          <t>South Charleston</t>
         </is>
       </c>
       <c r="F1500" t="inlineStr">
@@ -72414,12 +72414,12 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>45351</t>
+          <t>45368</t>
         </is>
       </c>
       <c r="H1500" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1500" t="inlineStr">
@@ -72442,12 +72442,12 @@
       </c>
       <c r="C1501" t="inlineStr">
         <is>
-          <t>South Charleston Agronomy</t>
+          <t>South Charleston Fertilizer Hub</t>
         </is>
       </c>
       <c r="D1501" t="inlineStr">
         <is>
-          <t>10844 Huntington Rd</t>
+          <t>10660 Huntington Rd</t>
         </is>
       </c>
       <c r="E1501" t="inlineStr">
@@ -72467,7 +72467,7 @@
       </c>
       <c r="H1501" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1501" t="inlineStr">
@@ -72490,12 +72490,12 @@
       </c>
       <c r="C1502" t="inlineStr">
         <is>
-          <t>South Charleston Fertilizer Hub</t>
+          <t>South Charleston Seed Hub</t>
         </is>
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>10660 Huntington Rd</t>
+          <t>11888 State Route 41</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr">
@@ -72543,7 +72543,7 @@
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>11888 State Route 41</t>
+          <t>11888 SR 41</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr">
@@ -72586,12 +72586,12 @@
       </c>
       <c r="C1504" t="inlineStr">
         <is>
-          <t>South Charleston Seed Hub</t>
+          <t>South Charleston Grain</t>
         </is>
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>11888 SR 41</t>
+          <t>21 Woodward St</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr">
@@ -72611,7 +72611,7 @@
       </c>
       <c r="H1504" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1504" t="inlineStr">
@@ -72634,17 +72634,17 @@
       </c>
       <c r="C1505" t="inlineStr">
         <is>
-          <t>South Charleston Grain</t>
+          <t>Uniopolis Agronomy &amp; Grain</t>
         </is>
       </c>
       <c r="D1505" t="inlineStr">
         <is>
-          <t>21 Woodward St</t>
+          <t>301 E Ohio St</t>
         </is>
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>South Charleston</t>
+          <t>Uniopolis</t>
         </is>
       </c>
       <c r="F1505" t="inlineStr">
@@ -72654,12 +72654,12 @@
       </c>
       <c r="G1505" t="inlineStr">
         <is>
-          <t>45368</t>
+          <t>45888</t>
         </is>
       </c>
       <c r="H1505" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy, Grain</t>
         </is>
       </c>
       <c r="I1505" t="inlineStr">
@@ -72682,17 +72682,17 @@
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>Uniopolis Agronomy &amp; Grain</t>
+          <t>Clarksfield Grain</t>
         </is>
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>301 E Ohio St</t>
+          <t>1981 Fitchville River Rd.</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr">
         <is>
-          <t>Uniopolis</t>
+          <t>Wakeman</t>
         </is>
       </c>
       <c r="F1506" t="inlineStr">
@@ -72702,12 +72702,12 @@
       </c>
       <c r="G1506" t="inlineStr">
         <is>
-          <t>45888</t>
+          <t>44889</t>
         </is>
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>Agronomy, Grain</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1506" t="inlineStr">
@@ -72730,17 +72730,17 @@
       </c>
       <c r="C1507" t="inlineStr">
         <is>
-          <t>Clarksfield Grain</t>
+          <t>Starbuck Agronomy &amp; Energy</t>
         </is>
       </c>
       <c r="D1507" t="inlineStr">
         <is>
-          <t>1981 Fitchville River Rd.</t>
+          <t>310 Starbuck Rd</t>
         </is>
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>Wakeman</t>
+          <t>Wilmington</t>
         </is>
       </c>
       <c r="F1507" t="inlineStr">
@@ -72750,12 +72750,12 @@
       </c>
       <c r="G1507" t="inlineStr">
         <is>
-          <t>44889</t>
+          <t>45177</t>
         </is>
       </c>
       <c r="H1507" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy, Energy</t>
         </is>
       </c>
       <c r="I1507" t="inlineStr">
@@ -72768,47 +72768,47 @@
     <row r="1508">
       <c r="A1508" t="inlineStr">
         <is>
-          <t>Sunrise Cooperative - OH</t>
+          <t>Three Rivers FS - IA</t>
         </is>
       </c>
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Sunrise Cooperative</t>
+          <t>Three Rivers FS</t>
         </is>
       </c>
       <c r="C1508" t="inlineStr">
         <is>
-          <t>Starbuck Agronomy &amp; Energy</t>
+          <t>Corporate Headquarters</t>
         </is>
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>310 Starbuck Rd</t>
+          <t>1200 Field of Dreams Way</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
         <is>
-          <t>Wilmington</t>
+          <t>Dyersville</t>
         </is>
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>OH</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1508" t="inlineStr">
         <is>
-          <t>45177</t>
+          <t>52040</t>
         </is>
       </c>
       <c r="H1508" t="inlineStr">
         <is>
-          <t>Agronomy, Energy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1508" t="inlineStr">
         <is>
-          <t>Winfield</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1508" t="inlineStr"/>
@@ -72826,12 +72826,12 @@
       </c>
       <c r="C1509" t="inlineStr">
         <is>
-          <t>Corporate Headquarters</t>
+          <t>Dyersville Operations</t>
         </is>
       </c>
       <c r="D1509" t="inlineStr">
         <is>
-          <t>1200 Field of Dreams Way</t>
+          <t>32199 Olde Castle Road</t>
         </is>
       </c>
       <c r="E1509" t="inlineStr">
@@ -72851,7 +72851,7 @@
       </c>
       <c r="H1509" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1509" t="inlineStr">
@@ -72874,7 +72874,7 @@
       </c>
       <c r="C1510" t="inlineStr">
         <is>
-          <t>Dyersville Operations</t>
+          <t>FAST STOP – Dyersville</t>
         </is>
       </c>
       <c r="D1510" t="inlineStr">
@@ -72922,17 +72922,17 @@
       </c>
       <c r="C1511" t="inlineStr">
         <is>
-          <t>FAST STOP – Dyersville</t>
+          <t>Epworth Agronomy</t>
         </is>
       </c>
       <c r="D1511" t="inlineStr">
         <is>
-          <t>32199 Olde Castle Road</t>
+          <t>303 North Center Ave</t>
         </is>
       </c>
       <c r="E1511" t="inlineStr">
         <is>
-          <t>Dyersville</t>
+          <t>Epworth</t>
         </is>
       </c>
       <c r="F1511" t="inlineStr">
@@ -72942,12 +72942,12 @@
       </c>
       <c r="G1511" t="inlineStr">
         <is>
-          <t>52040</t>
+          <t>52045</t>
         </is>
       </c>
       <c r="H1511" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1511" t="inlineStr">
@@ -72970,17 +72970,17 @@
       </c>
       <c r="C1512" t="inlineStr">
         <is>
-          <t>Epworth Agronomy</t>
+          <t>Centralia Agronomy</t>
         </is>
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>303 North Center Ave</t>
+          <t>18179 Olde Hiway Road</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>Epworth</t>
+          <t>Centralia</t>
         </is>
       </c>
       <c r="F1512" t="inlineStr">
@@ -72990,7 +72990,7 @@
       </c>
       <c r="G1512" t="inlineStr">
         <is>
-          <t>52045</t>
+          <t>52068</t>
         </is>
       </c>
       <c r="H1512" t="inlineStr">
@@ -73018,17 +73018,17 @@
       </c>
       <c r="C1513" t="inlineStr">
         <is>
-          <t>Centralia Agronomy</t>
+          <t>Hopkinton Propane</t>
         </is>
       </c>
       <c r="D1513" t="inlineStr">
         <is>
-          <t>18179 Olde Hiway Road</t>
+          <t>3095 Street Hwy 38</t>
         </is>
       </c>
       <c r="E1513" t="inlineStr">
         <is>
-          <t>Centralia</t>
+          <t>Hopkinton</t>
         </is>
       </c>
       <c r="F1513" t="inlineStr">
@@ -73038,12 +73038,12 @@
       </c>
       <c r="G1513" t="inlineStr">
         <is>
-          <t>52068</t>
+          <t>52237</t>
         </is>
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1513" t="inlineStr">
@@ -73066,17 +73066,17 @@
       </c>
       <c r="C1514" t="inlineStr">
         <is>
-          <t>Hopkinton Propane</t>
+          <t>Holy Cross Agronomy</t>
         </is>
       </c>
       <c r="D1514" t="inlineStr">
         <is>
-          <t>3095 Street Hwy 38</t>
+          <t>20340 Holy Cross Road</t>
         </is>
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>Hopkinton</t>
+          <t>Holy Cross</t>
         </is>
       </c>
       <c r="F1514" t="inlineStr">
@@ -73086,12 +73086,12 @@
       </c>
       <c r="G1514" t="inlineStr">
         <is>
-          <t>52237</t>
+          <t>52053</t>
         </is>
       </c>
       <c r="H1514" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1514" t="inlineStr">
@@ -73114,17 +73114,17 @@
       </c>
       <c r="C1515" t="inlineStr">
         <is>
-          <t>Holy Cross Agronomy</t>
+          <t>Dubuque Propane Service</t>
         </is>
       </c>
       <c r="D1515" t="inlineStr">
         <is>
-          <t>20340 Holy Cross Road</t>
+          <t>14828 N Cascade Road</t>
         </is>
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>Holy Cross</t>
+          <t>Dubuque</t>
         </is>
       </c>
       <c r="F1515" t="inlineStr">
@@ -73134,12 +73134,12 @@
       </c>
       <c r="G1515" t="inlineStr">
         <is>
-          <t>52053</t>
+          <t>52003</t>
         </is>
       </c>
       <c r="H1515" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1515" t="inlineStr">
@@ -73162,17 +73162,17 @@
       </c>
       <c r="C1516" t="inlineStr">
         <is>
-          <t>Dubuque Propane Service</t>
+          <t>FAST STOP – Manchester</t>
         </is>
       </c>
       <c r="D1516" t="inlineStr">
         <is>
-          <t>14828 N Cascade Road</t>
+          <t>1000 South 5th Street</t>
         </is>
       </c>
       <c r="E1516" t="inlineStr">
         <is>
-          <t>Dubuque</t>
+          <t>Manchester</t>
         </is>
       </c>
       <c r="F1516" t="inlineStr">
@@ -73182,7 +73182,7 @@
       </c>
       <c r="G1516" t="inlineStr">
         <is>
-          <t>52003</t>
+          <t>52057</t>
         </is>
       </c>
       <c r="H1516" t="inlineStr">
@@ -73210,12 +73210,12 @@
       </c>
       <c r="C1517" t="inlineStr">
         <is>
-          <t>FAST STOP – Manchester</t>
+          <t>Manchester Agronomy</t>
         </is>
       </c>
       <c r="D1517" t="inlineStr">
         <is>
-          <t>1000 South 5th Street</t>
+          <t>1000 S 5th Street</t>
         </is>
       </c>
       <c r="E1517" t="inlineStr">
@@ -73235,7 +73235,7 @@
       </c>
       <c r="H1517" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1517" t="inlineStr">
@@ -73258,17 +73258,17 @@
       </c>
       <c r="C1518" t="inlineStr">
         <is>
-          <t>Manchester Agronomy</t>
+          <t>FAST STOP – Ryan</t>
         </is>
       </c>
       <c r="D1518" t="inlineStr">
         <is>
-          <t>1000 S 5th Street</t>
+          <t>101 Adam Street</t>
         </is>
       </c>
       <c r="E1518" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Ryan</t>
         </is>
       </c>
       <c r="F1518" t="inlineStr">
@@ -73278,12 +73278,12 @@
       </c>
       <c r="G1518" t="inlineStr">
         <is>
-          <t>52057</t>
+          <t>52330</t>
         </is>
       </c>
       <c r="H1518" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1518" t="inlineStr">
@@ -73306,17 +73306,17 @@
       </c>
       <c r="C1519" t="inlineStr">
         <is>
-          <t>FAST STOP – Ryan</t>
+          <t>Edgewood Propane</t>
         </is>
       </c>
       <c r="D1519" t="inlineStr">
         <is>
-          <t>101 Adam Street</t>
+          <t>204 W Newton Street PO Box 523</t>
         </is>
       </c>
       <c r="E1519" t="inlineStr">
         <is>
-          <t>Ryan</t>
+          <t>Edgewood</t>
         </is>
       </c>
       <c r="F1519" t="inlineStr">
@@ -73326,7 +73326,7 @@
       </c>
       <c r="G1519" t="inlineStr">
         <is>
-          <t>52330</t>
+          <t>52042</t>
         </is>
       </c>
       <c r="H1519" t="inlineStr">
@@ -73354,17 +73354,17 @@
       </c>
       <c r="C1520" t="inlineStr">
         <is>
-          <t>Edgewood Propane</t>
+          <t>FAST STOP – Elkader</t>
         </is>
       </c>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>204 W Newton Street PO Box 523</t>
+          <t>24544 IA-13</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>Edgewood</t>
+          <t>Elkader</t>
         </is>
       </c>
       <c r="F1520" t="inlineStr">
@@ -73374,7 +73374,7 @@
       </c>
       <c r="G1520" t="inlineStr">
         <is>
-          <t>52042</t>
+          <t>52043</t>
         </is>
       </c>
       <c r="H1520" t="inlineStr">
@@ -73402,12 +73402,12 @@
       </c>
       <c r="C1521" t="inlineStr">
         <is>
-          <t>FAST STOP – Elkader</t>
+          <t>Elkader Agronomy</t>
         </is>
       </c>
       <c r="D1521" t="inlineStr">
         <is>
-          <t>24544 IA-13</t>
+          <t>24544 Hwy 13 PO Box 426</t>
         </is>
       </c>
       <c r="E1521" t="inlineStr">
@@ -73427,7 +73427,7 @@
       </c>
       <c r="H1521" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1521" t="inlineStr">
@@ -73450,17 +73450,17 @@
       </c>
       <c r="C1522" t="inlineStr">
         <is>
-          <t>Elkader Agronomy</t>
+          <t>McGregor Propane</t>
         </is>
       </c>
       <c r="D1522" t="inlineStr">
         <is>
-          <t>24544 Hwy 13 PO Box 426</t>
+          <t>25278 Hwy 18 (Giard)</t>
         </is>
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>Elkader</t>
+          <t>McGregor</t>
         </is>
       </c>
       <c r="F1522" t="inlineStr">
@@ -73470,12 +73470,12 @@
       </c>
       <c r="G1522" t="inlineStr">
         <is>
-          <t>52043</t>
+          <t>52157</t>
         </is>
       </c>
       <c r="H1522" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1522" t="inlineStr">
@@ -73488,47 +73488,47 @@
     <row r="1523">
       <c r="A1523" t="inlineStr">
         <is>
-          <t>Three Rivers FS - IA</t>
+          <t>United Prairie LLC - IL</t>
         </is>
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>Three Rivers FS</t>
+          <t>United Prairie LLC</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
         <is>
-          <t>McGregor Propane</t>
+          <t>Chrisman Agronomy</t>
         </is>
       </c>
       <c r="D1523" t="inlineStr">
         <is>
-          <t>25278 Hwy 18 (Giard)</t>
+          <t>15420 US Highway 36</t>
         </is>
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>McGregor</t>
+          <t>Chrisman</t>
         </is>
       </c>
       <c r="F1523" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1523" t="inlineStr">
         <is>
-          <t>52157</t>
+          <t>61924</t>
         </is>
       </c>
       <c r="H1523" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1523" t="inlineStr">
         <is>
-          <t>Growmark</t>
+          <t>Winfield</t>
         </is>
       </c>
       <c r="J1523" t="inlineStr"/>
@@ -73546,17 +73546,17 @@
       </c>
       <c r="C1524" t="inlineStr">
         <is>
-          <t>Chrisman Agronomy</t>
+          <t>Cowden Agronomy</t>
         </is>
       </c>
       <c r="D1524" t="inlineStr">
         <is>
-          <t>15420 US Highway 36</t>
+          <t>252 N State Hwy 128 Rd</t>
         </is>
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>Chrisman</t>
+          <t>Cowden</t>
         </is>
       </c>
       <c r="F1524" t="inlineStr">
@@ -73566,7 +73566,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>61924</t>
+          <t>62422</t>
         </is>
       </c>
       <c r="H1524" t="inlineStr">
@@ -73594,17 +73594,17 @@
       </c>
       <c r="C1525" t="inlineStr">
         <is>
-          <t>Cowden Agronomy</t>
+          <t>Crescent City Agronomy</t>
         </is>
       </c>
       <c r="D1525" t="inlineStr">
         <is>
-          <t>252 N State Hwy 128 Rd</t>
+          <t>950 Jerry Ash Ave</t>
         </is>
       </c>
       <c r="E1525" t="inlineStr">
         <is>
-          <t>Cowden</t>
+          <t>Crescent City</t>
         </is>
       </c>
       <c r="F1525" t="inlineStr">
@@ -73614,7 +73614,7 @@
       </c>
       <c r="G1525" t="inlineStr">
         <is>
-          <t>62422</t>
+          <t>60928</t>
         </is>
       </c>
       <c r="H1525" t="inlineStr">
@@ -73642,17 +73642,17 @@
       </c>
       <c r="C1526" t="inlineStr">
         <is>
-          <t>Crescent City Agronomy</t>
+          <t>Danvers Agronomy</t>
         </is>
       </c>
       <c r="D1526" t="inlineStr">
         <is>
-          <t>950 Jerry Ash Ave</t>
+          <t>200 S West St</t>
         </is>
       </c>
       <c r="E1526" t="inlineStr">
         <is>
-          <t>Crescent City</t>
+          <t>Danvers</t>
         </is>
       </c>
       <c r="F1526" t="inlineStr">
@@ -73662,7 +73662,7 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>60928</t>
+          <t>61732</t>
         </is>
       </c>
       <c r="H1526" t="inlineStr">
@@ -73690,17 +73690,17 @@
       </c>
       <c r="C1527" t="inlineStr">
         <is>
-          <t>Danvers Agronomy</t>
+          <t>Pierson Station Agronomy</t>
         </is>
       </c>
       <c r="D1527" t="inlineStr">
         <is>
-          <t>200 S West St</t>
+          <t>106 S Main St</t>
         </is>
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>Danvers</t>
+          <t>Hammond</t>
         </is>
       </c>
       <c r="F1527" t="inlineStr">
@@ -73710,7 +73710,7 @@
       </c>
       <c r="G1527" t="inlineStr">
         <is>
-          <t>61732</t>
+          <t>61929</t>
         </is>
       </c>
       <c r="H1527" t="inlineStr">
@@ -73738,17 +73738,17 @@
       </c>
       <c r="C1528" t="inlineStr">
         <is>
-          <t>Pierson Station Agronomy</t>
+          <t>Tolono Headquarters</t>
         </is>
       </c>
       <c r="D1528" t="inlineStr">
         <is>
-          <t>106 S Main St</t>
+          <t>929A County Road 700 N</t>
         </is>
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>Hammond</t>
+          <t>Tolono</t>
         </is>
       </c>
       <c r="F1528" t="inlineStr">
@@ -73758,12 +73758,12 @@
       </c>
       <c r="G1528" t="inlineStr">
         <is>
-          <t>61929</t>
+          <t>61880</t>
         </is>
       </c>
       <c r="H1528" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1528" t="inlineStr">
@@ -73786,17 +73786,17 @@
       </c>
       <c r="C1529" t="inlineStr">
         <is>
-          <t>Tolono Headquarters</t>
+          <t>White Heath Agronomy</t>
         </is>
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>929A County Road 700 N</t>
+          <t>1274 E Old Route 47</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>Tolono</t>
+          <t>White Heath</t>
         </is>
       </c>
       <c r="F1529" t="inlineStr">
@@ -73806,12 +73806,12 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>61880</t>
+          <t>61884</t>
         </is>
       </c>
       <c r="H1529" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1529" t="inlineStr">
@@ -73824,37 +73824,37 @@
     <row r="1530">
       <c r="A1530" t="inlineStr">
         <is>
-          <t>United Prairie LLC - IL</t>
+          <t>Valley United Coop - ND MN</t>
         </is>
       </c>
       <c r="B1530" t="inlineStr">
         <is>
-          <t>United Prairie LLC</t>
+          <t>Valley United Coop</t>
         </is>
       </c>
       <c r="C1530" t="inlineStr">
         <is>
-          <t>White Heath Agronomy</t>
+          <t>Ada Agronomy</t>
         </is>
       </c>
       <c r="D1530" t="inlineStr">
         <is>
-          <t>1274 E Old Route 47</t>
+          <t>2722 Highway 200E</t>
         </is>
       </c>
       <c r="E1530" t="inlineStr">
         <is>
-          <t>White Heath</t>
+          <t>Ada</t>
         </is>
       </c>
       <c r="F1530" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="G1530" t="inlineStr">
         <is>
-          <t>61884</t>
+          <t>56510</t>
         </is>
       </c>
       <c r="H1530" t="inlineStr">
@@ -73882,17 +73882,17 @@
       </c>
       <c r="C1531" t="inlineStr">
         <is>
-          <t>Ada Agronomy</t>
+          <t>Climax Agronomy</t>
         </is>
       </c>
       <c r="D1531" t="inlineStr">
         <is>
-          <t>2722 Highway 200E</t>
+          <t>109 Great Northern Avenue South</t>
         </is>
       </c>
       <c r="E1531" t="inlineStr">
         <is>
-          <t>Ada</t>
+          <t>Climax</t>
         </is>
       </c>
       <c r="F1531" t="inlineStr">
@@ -73902,7 +73902,7 @@
       </c>
       <c r="G1531" t="inlineStr">
         <is>
-          <t>56510</t>
+          <t>56523</t>
         </is>
       </c>
       <c r="H1531" t="inlineStr">
@@ -73930,17 +73930,17 @@
       </c>
       <c r="C1532" t="inlineStr">
         <is>
-          <t>Climax Agronomy</t>
+          <t>Fisher Agronomy</t>
         </is>
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>109 Great Northern Avenue South</t>
+          <t>102 4th St N</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr">
         <is>
-          <t>Climax</t>
+          <t>Fisher</t>
         </is>
       </c>
       <c r="F1532" t="inlineStr">
@@ -73950,7 +73950,7 @@
       </c>
       <c r="G1532" t="inlineStr">
         <is>
-          <t>56523</t>
+          <t>56723</t>
         </is>
       </c>
       <c r="H1532" t="inlineStr">
@@ -73978,17 +73978,17 @@
       </c>
       <c r="C1533" t="inlineStr">
         <is>
-          <t>Fisher Agronomy</t>
+          <t>Halstad Agronomy</t>
         </is>
       </c>
       <c r="D1533" t="inlineStr">
         <is>
-          <t>102 4th St N</t>
+          <t>501 Highway 75 South</t>
         </is>
       </c>
       <c r="E1533" t="inlineStr">
         <is>
-          <t>Fisher</t>
+          <t>Halstad</t>
         </is>
       </c>
       <c r="F1533" t="inlineStr">
@@ -73998,7 +73998,7 @@
       </c>
       <c r="G1533" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>56548</t>
         </is>
       </c>
       <c r="H1533" t="inlineStr">
@@ -74026,32 +74026,32 @@
       </c>
       <c r="C1534" t="inlineStr">
         <is>
-          <t>Halstad Agronomy</t>
+          <t>Buxton Fertilizer Plant</t>
         </is>
       </c>
       <c r="D1534" t="inlineStr">
         <is>
-          <t>501 Highway 75 South</t>
+          <t>121 Valiants St</t>
         </is>
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>Halstad</t>
+          <t>Buxton</t>
         </is>
       </c>
       <c r="F1534" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>ND</t>
         </is>
       </c>
       <c r="G1534" t="inlineStr">
         <is>
-          <t>56548</t>
+          <t>58218</t>
         </is>
       </c>
       <c r="H1534" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1534" t="inlineStr">
@@ -74074,17 +74074,17 @@
       </c>
       <c r="C1535" t="inlineStr">
         <is>
-          <t>Buxton Fertilizer Plant</t>
+          <t>Hatton Agronomy</t>
         </is>
       </c>
       <c r="D1535" t="inlineStr">
         <is>
-          <t>121 Valiants St</t>
+          <t>1310 Dakota Avenue</t>
         </is>
       </c>
       <c r="E1535" t="inlineStr">
         <is>
-          <t>Buxton</t>
+          <t>Hatton</t>
         </is>
       </c>
       <c r="F1535" t="inlineStr">
@@ -74094,12 +74094,12 @@
       </c>
       <c r="G1535" t="inlineStr">
         <is>
-          <t>58218</t>
+          <t>58240</t>
         </is>
       </c>
       <c r="H1535" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1535" t="inlineStr">
@@ -74122,12 +74122,12 @@
       </c>
       <c r="C1536" t="inlineStr">
         <is>
-          <t>Hatton Agronomy</t>
+          <t>Hatton West Side Fertilizer Plant</t>
         </is>
       </c>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>1310 Dakota Avenue</t>
+          <t>1135 Hwy 18 NE</t>
         </is>
       </c>
       <c r="E1536" t="inlineStr">
@@ -74147,7 +74147,7 @@
       </c>
       <c r="H1536" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1536" t="inlineStr">
@@ -74170,17 +74170,17 @@
       </c>
       <c r="C1537" t="inlineStr">
         <is>
-          <t>Hatton West Side Fertilizer Plant</t>
+          <t>Hillsboro Agronomy</t>
         </is>
       </c>
       <c r="D1537" t="inlineStr">
         <is>
-          <t>1135 Hwy 18 NE</t>
+          <t>601 6th Street NW</t>
         </is>
       </c>
       <c r="E1537" t="inlineStr">
         <is>
-          <t>Hatton</t>
+          <t>Hillsboro</t>
         </is>
       </c>
       <c r="F1537" t="inlineStr">
@@ -74190,12 +74190,12 @@
       </c>
       <c r="G1537" t="inlineStr">
         <is>
-          <t>58240</t>
+          <t>58045</t>
         </is>
       </c>
       <c r="H1537" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1537" t="inlineStr">
@@ -74218,17 +74218,17 @@
       </c>
       <c r="C1538" t="inlineStr">
         <is>
-          <t>Hillsboro Agronomy</t>
+          <t>Portland Agronomy</t>
         </is>
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>601 6th Street NW</t>
+          <t>805 Helen Avenue</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>Hillsboro</t>
+          <t>Portland</t>
         </is>
       </c>
       <c r="F1538" t="inlineStr">
@@ -74238,7 +74238,7 @@
       </c>
       <c r="G1538" t="inlineStr">
         <is>
-          <t>58045</t>
+          <t>58274</t>
         </is>
       </c>
       <c r="H1538" t="inlineStr">
@@ -74266,17 +74266,17 @@
       </c>
       <c r="C1539" t="inlineStr">
         <is>
-          <t>Portland Agronomy</t>
+          <t>Reynolds Office</t>
         </is>
       </c>
       <c r="D1539" t="inlineStr">
         <is>
-          <t>805 Helen Avenue</t>
+          <t>322 4th Avenue</t>
         </is>
       </c>
       <c r="E1539" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Reynolds</t>
         </is>
       </c>
       <c r="F1539" t="inlineStr">
@@ -74286,12 +74286,12 @@
       </c>
       <c r="G1539" t="inlineStr">
         <is>
-          <t>58274</t>
+          <t>58275</t>
         </is>
       </c>
       <c r="H1539" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1539" t="inlineStr">
@@ -74314,17 +74314,17 @@
       </c>
       <c r="C1540" t="inlineStr">
         <is>
-          <t>Reynolds Office</t>
+          <t>Thompson Office</t>
         </is>
       </c>
       <c r="D1540" t="inlineStr">
         <is>
-          <t>322 4th Avenue</t>
+          <t>217 Pacific Ave</t>
         </is>
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>Reynolds</t>
+          <t>Thompson</t>
         </is>
       </c>
       <c r="F1540" t="inlineStr">
@@ -74334,12 +74334,12 @@
       </c>
       <c r="G1540" t="inlineStr">
         <is>
-          <t>58275</t>
+          <t>58278</t>
         </is>
       </c>
       <c r="H1540" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy, Office/Service</t>
         </is>
       </c>
       <c r="I1540" t="inlineStr">
@@ -74352,47 +74352,47 @@
     <row r="1541">
       <c r="A1541" t="inlineStr">
         <is>
-          <t>Valley United Coop - ND MN</t>
+          <t>Wabash Valley FS - IL IN</t>
         </is>
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>Valley United Coop</t>
+          <t>Wabash Valley FS</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
         <is>
-          <t>Thompson Office</t>
+          <t>Allendale Agronomy</t>
         </is>
       </c>
       <c r="D1541" t="inlineStr">
         <is>
-          <t>217 Pacific Ave</t>
+          <t>21546 Highway 1</t>
         </is>
       </c>
       <c r="E1541" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Allendale</t>
         </is>
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>ND</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1541" t="inlineStr">
         <is>
-          <t>58278</t>
+          <t>62410</t>
         </is>
       </c>
       <c r="H1541" t="inlineStr">
         <is>
-          <t>Agronomy, Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1541" t="inlineStr">
         <is>
-          <t>Winfield</t>
+          <t>Growmark</t>
         </is>
       </c>
       <c r="J1541" t="inlineStr"/>
@@ -74410,17 +74410,17 @@
       </c>
       <c r="C1542" t="inlineStr">
         <is>
-          <t>Allendale Agronomy</t>
+          <t>Cisne Agronomy</t>
         </is>
       </c>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>21546 Highway 1</t>
+          <t>1724 Hwy 45 S</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>Allendale</t>
+          <t>Cisne</t>
         </is>
       </c>
       <c r="F1542" t="inlineStr">
@@ -74430,7 +74430,7 @@
       </c>
       <c r="G1542" t="inlineStr">
         <is>
-          <t>62410</t>
+          <t>62823</t>
         </is>
       </c>
       <c r="H1542" t="inlineStr">
@@ -74458,17 +74458,17 @@
       </c>
       <c r="C1543" t="inlineStr">
         <is>
-          <t>Cisne Agronomy</t>
+          <t>Fairfield Agronomy</t>
         </is>
       </c>
       <c r="D1543" t="inlineStr">
         <is>
-          <t>1724 Hwy 45 S</t>
+          <t>607 SE 4th St</t>
         </is>
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>Cisne</t>
+          <t>Fairfield</t>
         </is>
       </c>
       <c r="F1543" t="inlineStr">
@@ -74478,7 +74478,7 @@
       </c>
       <c r="G1543" t="inlineStr">
         <is>
-          <t>62823</t>
+          <t>62837</t>
         </is>
       </c>
       <c r="H1543" t="inlineStr">
@@ -74506,17 +74506,17 @@
       </c>
       <c r="C1544" t="inlineStr">
         <is>
-          <t>Fairfield Agronomy</t>
+          <t>Grayville Office</t>
         </is>
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>607 SE 4th St</t>
+          <t>909 N Court St</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr">
         <is>
-          <t>Fairfield</t>
+          <t>Grayville</t>
         </is>
       </c>
       <c r="F1544" t="inlineStr">
@@ -74526,12 +74526,12 @@
       </c>
       <c r="G1544" t="inlineStr">
         <is>
-          <t>62837</t>
+          <t>62844</t>
         </is>
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1544" t="inlineStr">
@@ -74554,17 +74554,17 @@
       </c>
       <c r="C1545" t="inlineStr">
         <is>
-          <t>Grayville Office</t>
+          <t>Newton Office</t>
         </is>
       </c>
       <c r="D1545" t="inlineStr">
         <is>
-          <t>909 N Court St</t>
+          <t>1305 Fairground Ave</t>
         </is>
       </c>
       <c r="E1545" t="inlineStr">
         <is>
-          <t>Grayville</t>
+          <t>Newton</t>
         </is>
       </c>
       <c r="F1545" t="inlineStr">
@@ -74574,12 +74574,12 @@
       </c>
       <c r="G1545" t="inlineStr">
         <is>
-          <t>62844</t>
+          <t>62448</t>
         </is>
       </c>
       <c r="H1545" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Office/Service</t>
         </is>
       </c>
       <c r="I1545" t="inlineStr">
@@ -74602,17 +74602,17 @@
       </c>
       <c r="C1546" t="inlineStr">
         <is>
-          <t>Newton Office</t>
+          <t>Oblong Agronomy</t>
         </is>
       </c>
       <c r="D1546" t="inlineStr">
         <is>
-          <t>1305 Fairground Ave</t>
+          <t>10154 N 450th Ave</t>
         </is>
       </c>
       <c r="E1546" t="inlineStr">
         <is>
-          <t>Newton</t>
+          <t>Oblong</t>
         </is>
       </c>
       <c r="F1546" t="inlineStr">
@@ -74622,12 +74622,12 @@
       </c>
       <c r="G1546" t="inlineStr">
         <is>
-          <t>62448</t>
+          <t>62449</t>
         </is>
       </c>
       <c r="H1546" t="inlineStr">
         <is>
-          <t>Office/Service</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1546" t="inlineStr">
@@ -74650,32 +74650,32 @@
       </c>
       <c r="C1547" t="inlineStr">
         <is>
-          <t>Oblong Agronomy</t>
+          <t>Francisco – Grain</t>
         </is>
       </c>
       <c r="D1547" t="inlineStr">
         <is>
-          <t>10154 N 450th Ave</t>
+          <t>200 N 3rd St</t>
         </is>
       </c>
       <c r="E1547" t="inlineStr">
         <is>
-          <t>Oblong</t>
+          <t>Francisco</t>
         </is>
       </c>
       <c r="F1547" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="G1547" t="inlineStr">
         <is>
-          <t>62449</t>
+          <t>47649</t>
         </is>
       </c>
       <c r="H1547" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1547" t="inlineStr">
@@ -74698,17 +74698,17 @@
       </c>
       <c r="C1548" t="inlineStr">
         <is>
-          <t>Francisco – Grain</t>
+          <t>Poseyville Location</t>
         </is>
       </c>
       <c r="D1548" t="inlineStr">
         <is>
-          <t>200 N 3rd St</t>
+          <t>79 E Fletchall Ave</t>
         </is>
       </c>
       <c r="E1548" t="inlineStr">
         <is>
-          <t>Francisco</t>
+          <t>Poseyville</t>
         </is>
       </c>
       <c r="F1548" t="inlineStr">
@@ -74718,12 +74718,12 @@
       </c>
       <c r="G1548" t="inlineStr">
         <is>
-          <t>47649</t>
+          <t>47633</t>
         </is>
       </c>
       <c r="H1548" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1548" t="inlineStr">
@@ -74746,17 +74746,17 @@
       </c>
       <c r="C1549" t="inlineStr">
         <is>
-          <t>Poseyville Location</t>
+          <t>Princeton Grain</t>
         </is>
       </c>
       <c r="D1549" t="inlineStr">
         <is>
-          <t>79 E Fletchall Ave</t>
+          <t>664 N US Highway 41</t>
         </is>
       </c>
       <c r="E1549" t="inlineStr">
         <is>
-          <t>Poseyville</t>
+          <t>Princeton</t>
         </is>
       </c>
       <c r="F1549" t="inlineStr">
@@ -74766,12 +74766,12 @@
       </c>
       <c r="G1549" t="inlineStr">
         <is>
-          <t>47633</t>
+          <t>47670</t>
         </is>
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Grain</t>
         </is>
       </c>
       <c r="I1549" t="inlineStr">
@@ -74784,42 +74784,42 @@
     <row r="1550">
       <c r="A1550" t="inlineStr">
         <is>
-          <t>Wabash Valley FS - IL IN</t>
+          <t>West Central FS - IL IA</t>
         </is>
       </c>
       <c r="B1550" t="inlineStr">
         <is>
-          <t>Wabash Valley FS</t>
+          <t>West Central FS</t>
         </is>
       </c>
       <c r="C1550" t="inlineStr">
         <is>
-          <t>Princeton Grain</t>
+          <t>Donnellson, IA Agronomy</t>
         </is>
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>664 N US Highway 41</t>
+          <t>1778 210th St</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr">
         <is>
-          <t>Princeton</t>
+          <t>Donnellson</t>
         </is>
       </c>
       <c r="F1550" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IA</t>
         </is>
       </c>
       <c r="G1550" t="inlineStr">
         <is>
-          <t>47670</t>
+          <t>52625</t>
         </is>
       </c>
       <c r="H1550" t="inlineStr">
         <is>
-          <t>Grain</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1550" t="inlineStr">
@@ -74842,27 +74842,27 @@
       </c>
       <c r="C1551" t="inlineStr">
         <is>
-          <t>Donnellson, IA Agronomy</t>
+          <t>West Central FS – Bushnell</t>
         </is>
       </c>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>1778 210th St</t>
+          <t>19311 IL Hwy 9 &amp; 41</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr">
         <is>
-          <t>Donnellson</t>
+          <t>Bushnell</t>
         </is>
       </c>
       <c r="F1551" t="inlineStr">
         <is>
-          <t>IA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G1551" t="inlineStr">
         <is>
-          <t>52625</t>
+          <t>61422</t>
         </is>
       </c>
       <c r="H1551" t="inlineStr">
@@ -74890,17 +74890,17 @@
       </c>
       <c r="C1552" t="inlineStr">
         <is>
-          <t>West Central FS – Bushnell</t>
+          <t>West Central FS – Carthage</t>
         </is>
       </c>
       <c r="D1552" t="inlineStr">
         <is>
-          <t>19311 IL Hwy 9 &amp; 41</t>
+          <t>1790 E US Hwy 136</t>
         </is>
       </c>
       <c r="E1552" t="inlineStr">
         <is>
-          <t>Bushnell</t>
+          <t>Carthage</t>
         </is>
       </c>
       <c r="F1552" t="inlineStr">
@@ -74910,7 +74910,7 @@
       </c>
       <c r="G1552" t="inlineStr">
         <is>
-          <t>61422</t>
+          <t>62321</t>
         </is>
       </c>
       <c r="H1552" t="inlineStr">
@@ -74938,17 +74938,17 @@
       </c>
       <c r="C1553" t="inlineStr">
         <is>
-          <t>West Central FS – Carthage</t>
+          <t>Galesburg South Seed &amp; Technology</t>
         </is>
       </c>
       <c r="D1553" t="inlineStr">
         <is>
-          <t>1790 E US Hwy 136</t>
+          <t>1445 Monmouth Blvd</t>
         </is>
       </c>
       <c r="E1553" t="inlineStr">
         <is>
-          <t>Carthage</t>
+          <t>Galesburg</t>
         </is>
       </c>
       <c r="F1553" t="inlineStr">
@@ -74958,7 +74958,7 @@
       </c>
       <c r="G1553" t="inlineStr">
         <is>
-          <t>62321</t>
+          <t>61401</t>
         </is>
       </c>
       <c r="H1553" t="inlineStr">
@@ -74986,17 +74986,17 @@
       </c>
       <c r="C1554" t="inlineStr">
         <is>
-          <t>Galesburg South Seed &amp; Technology</t>
+          <t>La Harpe Agronomy</t>
         </is>
       </c>
       <c r="D1554" t="inlineStr">
         <is>
-          <t>1445 Monmouth Blvd</t>
+          <t>2841 E State Hwy 9</t>
         </is>
       </c>
       <c r="E1554" t="inlineStr">
         <is>
-          <t>Galesburg</t>
+          <t>La Harpe</t>
         </is>
       </c>
       <c r="F1554" t="inlineStr">
@@ -75006,7 +75006,7 @@
       </c>
       <c r="G1554" t="inlineStr">
         <is>
-          <t>61401</t>
+          <t>61450</t>
         </is>
       </c>
       <c r="H1554" t="inlineStr">
@@ -75034,17 +75034,17 @@
       </c>
       <c r="C1555" t="inlineStr">
         <is>
-          <t>La Harpe Agronomy</t>
+          <t>Macomb Office</t>
         </is>
       </c>
       <c r="D1555" t="inlineStr">
         <is>
-          <t>2841 E State Hwy 9</t>
+          <t>425 W Jackson St</t>
         </is>
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>La Harpe</t>
+          <t>Macomb</t>
         </is>
       </c>
       <c r="F1555" t="inlineStr">
@@ -75054,12 +75054,12 @@
       </c>
       <c r="G1555" t="inlineStr">
         <is>
-          <t>61450</t>
+          <t>61455</t>
         </is>
       </c>
       <c r="H1555" t="inlineStr">
         <is>
-          <t>Agronomy</t>
+          <t>Corporate HQ</t>
         </is>
       </c>
       <c r="I1555" t="inlineStr">
@@ -75082,17 +75082,17 @@
       </c>
       <c r="C1556" t="inlineStr">
         <is>
-          <t>Macomb Office</t>
+          <t>Maquon Agronomy</t>
         </is>
       </c>
       <c r="D1556" t="inlineStr">
         <is>
-          <t>425 W Jackson St</t>
+          <t>1528 Knox Rd 600 N</t>
         </is>
       </c>
       <c r="E1556" t="inlineStr">
         <is>
-          <t>Macomb</t>
+          <t>Maquon</t>
         </is>
       </c>
       <c r="F1556" t="inlineStr">
@@ -75102,12 +75102,12 @@
       </c>
       <c r="G1556" t="inlineStr">
         <is>
-          <t>61455</t>
+          <t>61458</t>
         </is>
       </c>
       <c r="H1556" t="inlineStr">
         <is>
-          <t>Kingpin</t>
+          <t>Agronomy</t>
         </is>
       </c>
       <c r="I1556" t="inlineStr">
@@ -75135,7 +75135,7 @@
       </c>
       <c r="D1557" t="inlineStr">
         <is>
-          <t>1528 Knox Rd 600 N</t>
+          <t>1528 Knox Rd 600N</t>
         </is>
       </c>
       <c r="E1557" t="inlineStr">
@@ -75178,17 +75178,17 @@
       </c>
       <c r="C1558" t="inlineStr">
         <is>
-          <t>Maquon Agronomy</t>
+          <t>West Central FS – Monmouth</t>
         </is>
       </c>
       <c r="D1558" t="inlineStr">
         <is>
-          <t>1528 Knox Rd 600N</t>
+          <t>903 S Sunny Ln</t>
         </is>
       </c>
       <c r="E1558" t="inlineStr">
         <is>
-          <t>Maquon</t>
+          <t>Monmouth</t>
         </is>
       </c>
       <c r="F1558" t="inlineStr">
@@ -75198,7 +75198,7 @@
       </c>
       <c r="G1558" t="inlineStr">
         <is>
-          <t>61458</t>
+          <t>61462</t>
         </is>
       </c>
       <c r="H1558" t="inlineStr">
@@ -75226,12 +75226,12 @@
       </c>
       <c r="C1559" t="inlineStr">
         <is>
-          <t>West Central FS – Monmouth</t>
+          <t>Ormonde Agronomy</t>
         </is>
       </c>
       <c r="D1559" t="inlineStr">
         <is>
-          <t>903 S Sunny Ln</t>
+          <t>1530 90th St</t>
         </is>
       </c>
       <c r="E1559" t="inlineStr">
@@ -75274,17 +75274,17 @@
       </c>
       <c r="C1560" t="inlineStr">
         <is>
-          <t>Ormonde Agronomy</t>
+          <t>Roseville Agronomy</t>
         </is>
       </c>
       <c r="D1560" t="inlineStr">
         <is>
-          <t>1530 90th St</t>
+          <t>764 90th St</t>
         </is>
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>Monmouth</t>
+          <t>Roseville</t>
         </is>
       </c>
       <c r="F1560" t="inlineStr">
@@ -75294,7 +75294,7 @@
       </c>
       <c r="G1560" t="inlineStr">
         <is>
-          <t>61462</t>
+          <t>61473</t>
         </is>
       </c>
       <c r="H1560" t="inlineStr">
@@ -75322,17 +75322,17 @@
       </c>
       <c r="C1561" t="inlineStr">
         <is>
-          <t>Roseville Agronomy</t>
+          <t>Sciota Agronomy</t>
         </is>
       </c>
       <c r="D1561" t="inlineStr">
         <is>
-          <t>764 90th St</t>
+          <t>18990 E 800th St</t>
         </is>
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>Roseville</t>
+          <t>Sciota</t>
         </is>
       </c>
       <c r="F1561" t="inlineStr">
@@ -75342,7 +75342,7 @@
       </c>
       <c r="G1561" t="inlineStr">
         <is>
-          <t>61473</t>
+          <t>61475</t>
         </is>
       </c>
       <c r="H1561" t="inlineStr">
@@ -75370,17 +75370,17 @@
       </c>
       <c r="C1562" t="inlineStr">
         <is>
-          <t>Sciota Agronomy</t>
+          <t>Stronghurst</t>
         </is>
       </c>
       <c r="D1562" t="inlineStr">
         <is>
-          <t>18990 E 800th St</t>
+          <t>320 E Main St</t>
         </is>
       </c>
       <c r="E1562" t="inlineStr">
         <is>
-          <t>Sciota</t>
+          <t>Stronghurst</t>
         </is>
       </c>
       <c r="F1562" t="inlineStr">
@@ -75390,7 +75390,7 @@
       </c>
       <c r="G1562" t="inlineStr">
         <is>
-          <t>61475</t>
+          <t>61480</t>
         </is>
       </c>
       <c r="H1562" t="inlineStr">
@@ -75418,12 +75418,12 @@
       </c>
       <c r="C1563" t="inlineStr">
         <is>
-          <t>Stronghurst</t>
+          <t>Stronghurst Agronomy</t>
         </is>
       </c>
       <c r="D1563" t="inlineStr">
         <is>
-          <t>320 E Main St</t>
+          <t>770 E Main St</t>
         </is>
       </c>
       <c r="E1563" t="inlineStr">
@@ -75466,17 +75466,17 @@
       </c>
       <c r="C1564" t="inlineStr">
         <is>
-          <t>Stronghurst Agronomy</t>
+          <t>West Central FS – Wataga</t>
         </is>
       </c>
       <c r="D1564" t="inlineStr">
         <is>
-          <t>770 E Main St</t>
+          <t>686 Depot St</t>
         </is>
       </c>
       <c r="E1564" t="inlineStr">
         <is>
-          <t>Stronghurst</t>
+          <t>Wataga</t>
         </is>
       </c>
       <c r="F1564" t="inlineStr">
@@ -75486,7 +75486,7 @@
       </c>
       <c r="G1564" t="inlineStr">
         <is>
-          <t>61480</t>
+          <t>61488</t>
         </is>
       </c>
       <c r="H1564" t="inlineStr">
@@ -75514,12 +75514,12 @@
       </c>
       <c r="C1565" t="inlineStr">
         <is>
-          <t>West Central FS – Wataga</t>
+          <t>Wataga Agronomy</t>
         </is>
       </c>
       <c r="D1565" t="inlineStr">
         <is>
-          <t>686 Depot St</t>
+          <t>Global Tech Dr</t>
         </is>
       </c>
       <c r="E1565" t="inlineStr">
@@ -75562,17 +75562,17 @@
       </c>
       <c r="C1566" t="inlineStr">
         <is>
-          <t>Wataga Agronomy</t>
+          <t>Williamsfield Agronomy</t>
         </is>
       </c>
       <c r="D1566" t="inlineStr">
         <is>
-          <t>Global Tech Dr</t>
+          <t>1017 S State Route 180</t>
         </is>
       </c>
       <c r="E1566" t="inlineStr">
         <is>
-          <t>Wataga</t>
+          <t>Williamsfield</t>
         </is>
       </c>
       <c r="F1566" t="inlineStr">
@@ -75582,7 +75582,7 @@
       </c>
       <c r="G1566" t="inlineStr">
         <is>
-          <t>61488</t>
+          <t>61489</t>
         </is>
       </c>
       <c r="H1566" t="inlineStr">
@@ -75615,7 +75615,7 @@
       </c>
       <c r="D1567" t="inlineStr">
         <is>
-          <t>1017 S State Route 180</t>
+          <t>500 S Edison St</t>
         </is>
       </c>
       <c r="E1567" t="inlineStr">
@@ -75644,54 +75644,6 @@
         </is>
       </c>
       <c r="J1567" t="inlineStr"/>
-    </row>
-    <row r="1568">
-      <c r="A1568" t="inlineStr">
-        <is>
-          <t>West Central FS - IL IA</t>
-        </is>
-      </c>
-      <c r="B1568" t="inlineStr">
-        <is>
-          <t>West Central FS</t>
-        </is>
-      </c>
-      <c r="C1568" t="inlineStr">
-        <is>
-          <t>Williamsfield Agronomy</t>
-        </is>
-      </c>
-      <c r="D1568" t="inlineStr">
-        <is>
-          <t>500 S Edison St</t>
-        </is>
-      </c>
-      <c r="E1568" t="inlineStr">
-        <is>
-          <t>Williamsfield</t>
-        </is>
-      </c>
-      <c r="F1568" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="G1568" t="inlineStr">
-        <is>
-          <t>61489</t>
-        </is>
-      </c>
-      <c r="H1568" t="inlineStr">
-        <is>
-          <t>Agronomy</t>
-        </is>
-      </c>
-      <c r="I1568" t="inlineStr">
-        <is>
-          <t>Growmark</t>
-        </is>
-      </c>
-      <c r="J1568" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -909,7 +909,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cherokee – Corporate HQ</t>
+          <t>Cherokee – Regional HQ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -7119,7 +7119,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Corporate HQ, Grain</t>
+          <t>Regional HQ, Grain</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -15309,7 +15309,7 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -16074,7 +16074,7 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -17019,7 +17019,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>Corporate HQ, Grain</t>
+          <t>Regional HQ, Grain</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -17469,7 +17469,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -18099,7 +18099,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -19269,7 +19269,7 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
@@ -19764,7 +19764,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -20934,7 +20934,7 @@
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -21744,7 +21744,7 @@
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -22914,7 +22914,7 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -24084,7 +24084,7 @@
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I526" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -25254,7 +25254,7 @@
       </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>Corporate HQ, C-Store/Service/Energy</t>
+          <t>Regional HQ, C-Store/Service/Energy</t>
         </is>
       </c>
       <c r="I552" t="inlineStr">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="H560" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -26424,7 +26424,7 @@
       </c>
       <c r="H578" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I578" t="inlineStr">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="H589" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -27819,7 +27819,7 @@
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -27864,7 +27864,7 @@
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -27999,7 +27999,7 @@
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -29034,7 +29034,7 @@
       </c>
       <c r="H636" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I636" t="inlineStr">
@@ -30159,7 +30159,7 @@
       </c>
       <c r="H661" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I661" t="inlineStr">
@@ -30676,7 +30676,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>Dunlap Corporate HQ</t>
+          <t>Dunlap Regional HQ</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -30699,7 +30699,7 @@
       </c>
       <c r="H673" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -31374,7 +31374,7 @@
       </c>
       <c r="H688" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -31599,7 +31599,7 @@
       </c>
       <c r="H693" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I693" t="inlineStr">
@@ -32184,7 +32184,7 @@
       </c>
       <c r="H706" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -33421,7 +33421,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t>Imperial – Corporate HQ / Main Office</t>
+          <t>Imperial – Regional HQ / Main Office</t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -33444,7 +33444,7 @@
       </c>
       <c r="H734" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -36279,7 +36279,7 @@
       </c>
       <c r="H797" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -37989,7 +37989,7 @@
       </c>
       <c r="H835" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I835" t="inlineStr">
@@ -38259,7 +38259,7 @@
       </c>
       <c r="H841" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -38349,7 +38349,7 @@
       </c>
       <c r="H843" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -39384,7 +39384,7 @@
       </c>
       <c r="H866" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -39654,7 +39654,7 @@
       </c>
       <c r="H872" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -43569,7 +43569,7 @@
       </c>
       <c r="H959" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -44559,7 +44559,7 @@
       </c>
       <c r="H981" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -45009,7 +45009,7 @@
       </c>
       <c r="H991" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -45504,7 +45504,7 @@
       </c>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -45819,7 +45819,7 @@
       </c>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -46044,7 +46044,7 @@
       </c>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -46494,7 +46494,7 @@
       </c>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -47326,7 +47326,7 @@
       </c>
       <c r="C1043" t="inlineStr">
         <is>
-          <t>Elsie Corporate HQ</t>
+          <t>Elsie Regional HQ</t>
         </is>
       </c>
       <c r="D1043" t="inlineStr">
@@ -47349,7 +47349,7 @@
       </c>
       <c r="H1043" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1043" t="inlineStr">
@@ -47394,7 +47394,7 @@
       </c>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr"/>
@@ -47435,7 +47435,7 @@
       </c>
       <c r="H1045" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1045" t="inlineStr">
@@ -47975,7 +47975,7 @@
       </c>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -48335,7 +48335,7 @@
       </c>
       <c r="H1065" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1065" t="inlineStr">
@@ -48695,7 +48695,7 @@
       </c>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -51539,7 +51539,7 @@
       </c>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -51809,7 +51809,7 @@
       </c>
       <c r="H1147" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1147" t="inlineStr"/>
@@ -51895,7 +51895,7 @@
       </c>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -52165,7 +52165,7 @@
       </c>
       <c r="H1155" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1155" t="inlineStr">
@@ -53515,7 +53515,7 @@
       </c>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -54280,7 +54280,7 @@
       </c>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -54325,7 +54325,7 @@
       </c>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -55855,7 +55855,7 @@
       </c>
       <c r="H1237" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1237" t="inlineStr">
@@ -56440,7 +56440,7 @@
       </c>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -57385,7 +57385,7 @@
       </c>
       <c r="H1271" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1271" t="inlineStr">
@@ -58870,7 +58870,7 @@
       </c>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -59500,7 +59500,7 @@
       </c>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -59545,7 +59545,7 @@
       </c>
       <c r="H1319" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1319" t="inlineStr">
@@ -61930,7 +61930,7 @@
       </c>
       <c r="H1372" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1372" t="inlineStr">
@@ -62020,7 +62020,7 @@
       </c>
       <c r="H1374" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1374" t="inlineStr">
@@ -62470,7 +62470,7 @@
       </c>
       <c r="H1384" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1384" t="inlineStr">
@@ -62785,7 +62785,7 @@
       </c>
       <c r="H1391" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1391" t="inlineStr">
@@ -63595,7 +63595,7 @@
       </c>
       <c r="H1409" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1409" t="inlineStr">
@@ -63730,7 +63730,7 @@
       </c>
       <c r="H1412" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1412" t="inlineStr">
@@ -63775,7 +63775,7 @@
       </c>
       <c r="H1413" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1413" t="inlineStr">
@@ -64135,7 +64135,7 @@
       </c>
       <c r="H1421" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1421" t="inlineStr">
@@ -64180,7 +64180,7 @@
       </c>
       <c r="H1422" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1422" t="inlineStr">
@@ -64900,7 +64900,7 @@
       </c>
       <c r="H1438" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1438" t="inlineStr">
@@ -64945,7 +64945,7 @@
       </c>
       <c r="H1439" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1439" t="inlineStr">
@@ -65665,7 +65665,7 @@
       </c>
       <c r="H1455" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1455" t="inlineStr">
@@ -66275,7 +66275,7 @@
       </c>
       <c r="H1469" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1469" t="inlineStr">
@@ -66824,7 +66824,7 @@
       </c>
       <c r="H1482" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1482" t="inlineStr">
@@ -67094,7 +67094,7 @@
       </c>
       <c r="H1488" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1488" t="inlineStr">
@@ -67904,7 +67904,7 @@
       </c>
       <c r="H1506" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1506" t="inlineStr">
@@ -68219,7 +68219,7 @@
       </c>
       <c r="H1513" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1513" t="inlineStr">
@@ -69119,7 +69119,7 @@
       </c>
       <c r="H1533" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1533" t="inlineStr">
@@ -69614,7 +69614,7 @@
       </c>
       <c r="H1544" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1544" t="inlineStr">
@@ -69839,7 +69839,7 @@
       </c>
       <c r="H1549" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1549" t="inlineStr">
@@ -70334,7 +70334,7 @@
       </c>
       <c r="H1560" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1560" t="inlineStr">
@@ -70739,7 +70739,7 @@
       </c>
       <c r="H1569" t="inlineStr">
         <is>
-          <t>Corporate HQ</t>
+          <t>Regional HQ</t>
         </is>
       </c>
       <c r="I1569" t="inlineStr">

--- a/data/retailers.xlsx
+++ b/data/retailers.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Long Name</t>
+          <t>LongName</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -32229,7 +32229,7 @@
       </c>
       <c r="H707" t="inlineStr">
         <is>
-          <t xml:space="preserve">Agronomy, </t>
+          <t>Agronomy,</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -49143,7 +49143,11 @@
       <c r="G1083" t="n">
         <v>50002</v>
       </c>
-      <c r="H1083" t="inlineStr"/>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1083" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49184,7 +49188,11 @@
       <c r="G1084" t="n">
         <v>50022</v>
       </c>
-      <c r="H1084" t="inlineStr"/>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1084" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49225,7 +49233,11 @@
       <c r="G1085" t="n">
         <v>50029</v>
       </c>
-      <c r="H1085" t="inlineStr"/>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1085" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49266,7 +49278,11 @@
       <c r="G1086" t="n">
         <v>50031</v>
       </c>
-      <c r="H1086" t="inlineStr"/>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1086" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49307,7 +49323,11 @@
       <c r="G1087" t="n">
         <v>50036</v>
       </c>
-      <c r="H1087" t="inlineStr"/>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1087" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49348,7 +49368,11 @@
       <c r="G1088" t="n">
         <v>50036</v>
       </c>
-      <c r="H1088" t="inlineStr"/>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>Regional HQ</t>
+        </is>
+      </c>
       <c r="I1088" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49389,7 +49413,11 @@
       <c r="G1089" t="n">
         <v>50040</v>
       </c>
-      <c r="H1089" t="inlineStr"/>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1089" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49430,7 +49458,11 @@
       <c r="G1090" t="n">
         <v>50041</v>
       </c>
-      <c r="H1090" t="inlineStr"/>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1090" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49471,7 +49503,11 @@
       <c r="G1091" t="n">
         <v>56014</v>
       </c>
-      <c r="H1091" t="inlineStr"/>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1091" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49512,7 +49548,11 @@
       <c r="G1092" t="n">
         <v>50423</v>
       </c>
-      <c r="H1092" t="inlineStr"/>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1092" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49553,7 +49593,11 @@
       <c r="G1093" t="n">
         <v>50006</v>
       </c>
-      <c r="H1093" t="inlineStr"/>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1093" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49594,7 +49638,11 @@
       <c r="G1094" t="n">
         <v>50048</v>
       </c>
-      <c r="H1094" t="inlineStr"/>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1094" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49635,7 +49683,11 @@
       <c r="G1095" t="n">
         <v>50050</v>
       </c>
-      <c r="H1095" t="inlineStr"/>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1095" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49676,7 +49728,11 @@
       <c r="G1096" t="n">
         <v>50619</v>
       </c>
-      <c r="H1096" t="inlineStr"/>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1096" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49717,7 +49773,11 @@
       <c r="G1097" t="n">
         <v>50055</v>
       </c>
-      <c r="H1097" t="inlineStr"/>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1097" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49758,7 +49818,11 @@
       <c r="G1098" t="n">
         <v>50066</v>
       </c>
-      <c r="H1098" t="inlineStr"/>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1098" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49799,7 +49863,11 @@
       <c r="G1099" t="n">
         <v>50309</v>
       </c>
-      <c r="H1099" t="inlineStr"/>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1099" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49840,7 +49908,11 @@
       <c r="G1100" t="n">
         <v>50624</v>
       </c>
-      <c r="H1100" t="inlineStr"/>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1100" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49881,7 +49953,11 @@
       <c r="G1101" t="n">
         <v>50535</v>
       </c>
-      <c r="H1101" t="inlineStr"/>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1101" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49922,7 +49998,11 @@
       <c r="G1102" t="n">
         <v>50536</v>
       </c>
-      <c r="H1102" t="inlineStr"/>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1102" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -49963,7 +50043,11 @@
       <c r="G1103" t="n">
         <v>50538</v>
       </c>
-      <c r="H1103" t="inlineStr"/>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1103" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50004,7 +50088,11 @@
       <c r="G1104" t="n">
         <v>50543</v>
       </c>
-      <c r="H1104" t="inlineStr"/>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1104" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50045,7 +50133,11 @@
       <c r="G1105" t="n">
         <v>50543</v>
       </c>
-      <c r="H1105" t="inlineStr"/>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1105" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50086,7 +50178,11 @@
       <c r="G1106" t="n">
         <v>50543</v>
       </c>
-      <c r="H1106" t="inlineStr"/>
+      <c r="H1106" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1106" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50127,7 +50223,11 @@
       <c r="G1107" t="n">
         <v>50636</v>
       </c>
-      <c r="H1107" t="inlineStr"/>
+      <c r="H1107" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1107" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50168,7 +50268,11 @@
       <c r="G1108" t="n">
         <v>50117</v>
       </c>
-      <c r="H1108" t="inlineStr"/>
+      <c r="H1108" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1108" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50209,7 +50313,11 @@
       <c r="G1109" t="n">
         <v>51445</v>
       </c>
-      <c r="H1109" t="inlineStr"/>
+      <c r="H1109" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1109" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50250,7 +50358,11 @@
       <c r="G1110" t="n">
         <v>50129</v>
       </c>
-      <c r="H1110" t="inlineStr"/>
+      <c r="H1110" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1110" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50291,7 +50403,11 @@
       <c r="G1111" t="n">
         <v>50129</v>
       </c>
-      <c r="H1111" t="inlineStr"/>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Agronomy</t>
+        </is>
+      </c>
       <c r="I1111" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50332,7 +50448,11 @@
       <c r="G1112" t="n">
         <v>51449</v>
       </c>
-      <c r="H1112" t="inlineStr"/>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1112" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50373,7 +50493,11 @@
       <c r="G1113" t="n">
         <v>51450</v>
       </c>
-      <c r="H1113" t="inlineStr"/>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1113" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50414,7 +50538,11 @@
       <c r="G1114" t="n">
         <v>50452</v>
       </c>
-      <c r="H1114" t="inlineStr"/>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1114" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50455,7 +50583,11 @@
       <c r="G1115" t="n">
         <v>51454</v>
       </c>
-      <c r="H1115" t="inlineStr"/>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1115" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50496,7 +50628,11 @@
       <c r="G1116" t="n">
         <v>62859</v>
       </c>
-      <c r="H1116" t="inlineStr"/>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1116" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50537,7 +50673,11 @@
       <c r="G1117" t="n">
         <v>50169</v>
       </c>
-      <c r="H1117" t="inlineStr"/>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1117" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50578,7 +50718,11 @@
       <c r="G1118" t="n">
         <v>50660</v>
       </c>
-      <c r="H1118" t="inlineStr"/>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1118" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50619,7 +50763,11 @@
       <c r="G1119" t="n">
         <v>50568</v>
       </c>
-      <c r="H1119" t="inlineStr"/>
+      <c r="H1119" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1119" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50660,7 +50808,11 @@
       <c r="G1120" t="n">
         <v>51458</v>
       </c>
-      <c r="H1120" t="inlineStr"/>
+      <c r="H1120" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1120" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50701,7 +50853,11 @@
       <c r="G1121" t="n">
         <v>50216</v>
       </c>
-      <c r="H1121" t="inlineStr"/>
+      <c r="H1121" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1121" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50742,7 +50898,11 @@
       <c r="G1122" t="n">
         <v>50217</v>
       </c>
-      <c r="H1122" t="inlineStr"/>
+      <c r="H1122" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1122" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50783,7 +50943,11 @@
       <c r="G1123" t="n">
         <v>50220</v>
       </c>
-      <c r="H1123" t="inlineStr"/>
+      <c r="H1123" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1123" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50824,7 +50988,11 @@
       <c r="G1124" t="n">
         <v>50327</v>
       </c>
-      <c r="H1124" t="inlineStr"/>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1124" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50865,7 +51033,11 @@
       <c r="G1125" t="n">
         <v>50465</v>
       </c>
-      <c r="H1125" t="inlineStr"/>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1125" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50906,7 +51078,11 @@
       <c r="G1126" t="n">
         <v>51459</v>
       </c>
-      <c r="H1126" t="inlineStr"/>
+      <c r="H1126" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1126" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50947,7 +51123,11 @@
       <c r="G1127" t="n">
         <v>50235</v>
       </c>
-      <c r="H1127" t="inlineStr"/>
+      <c r="H1127" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1127" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -50988,7 +51168,11 @@
       <c r="G1128" t="n">
         <v>50579</v>
       </c>
-      <c r="H1128" t="inlineStr"/>
+      <c r="H1128" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1128" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51029,7 +51213,11 @@
       <c r="G1129" t="n">
         <v>46173</v>
       </c>
-      <c r="H1129" t="inlineStr"/>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1129" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51070,7 +51258,11 @@
       <c r="G1130" t="n">
         <v>50586</v>
       </c>
-      <c r="H1130" t="inlineStr"/>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1130" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51111,7 +51303,11 @@
       <c r="G1131" t="n">
         <v>50588</v>
       </c>
-      <c r="H1131" t="inlineStr"/>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1131" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51152,7 +51348,11 @@
       <c r="G1132" t="n">
         <v>51463</v>
       </c>
-      <c r="H1132" t="inlineStr"/>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1132" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51193,7 +51393,11 @@
       <c r="G1133" t="n">
         <v>50677</v>
       </c>
-      <c r="H1133" t="inlineStr"/>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1133" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51234,7 +51438,11 @@
       <c r="G1134" t="n">
         <v>50680</v>
       </c>
-      <c r="H1134" t="inlineStr"/>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1134" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51275,7 +51483,11 @@
       <c r="G1135" t="n">
         <v>50277</v>
       </c>
-      <c r="H1135" t="inlineStr"/>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1135" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -51316,7 +51528,11 @@
       <c r="G1136" t="n">
         <v>51433</v>
       </c>
-      <c r="H1136" t="inlineStr"/>
+      <c r="H1136" t="inlineStr">
+        <is>
+          <t>Agronomy, Grain/Feed</t>
+        </is>
+      </c>
       <c r="I1136" t="inlineStr">
         <is>
           <t>IAP</t>
@@ -56372,7 +56588,7 @@
       </c>
       <c r="C1249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wellsburg </t>
+          <t>Wellsburg</t>
         </is>
       </c>
       <c r="D1249" t="inlineStr">
